--- a/experiments/data/mmlu_sta_0329.xlsx
+++ b/experiments/data/mmlu_sta_0329.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDDC568-587C-BB48-8A71-432CB9987CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144C850-2647-F044-8325-75414A317AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,12 +333,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -355,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,7 +401,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -1532,7 +1568,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1565,20 +1601,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="11">
         <v>454</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="11">
         <v>229</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="11">
         <v>229</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="11">
         <v>229</v>
       </c>
     </row>
@@ -1592,44 +1628,44 @@
       <c r="C3" s="8">
         <v>174</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="14">
         <v>248</v>
       </c>
       <c r="E3" s="8">
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>303</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>222</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>222</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="15">
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>412</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>285</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="14">
         <v>361</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="15">
         <v>361</v>
       </c>
     </row>
@@ -1667,20 +1703,20 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="13">
         <v>145</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="13">
         <v>90</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="13">
         <v>90</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="13">
         <v>90</v>
       </c>
     </row>
@@ -1762,10 +1798,10 @@
       <c r="C13" s="8">
         <v>891</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="14">
         <v>1238</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="15">
         <v>1402</v>
       </c>
     </row>
@@ -1803,20 +1839,20 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>629</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>460</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>567</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="15">
         <v>753</v>
       </c>
     </row>

--- a/experiments/data/mmlu_sta_0329.xlsx
+++ b/experiments/data/mmlu_sta_0329.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144C850-2647-F044-8325-75414A317AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953616EA-856A-2240-92C1-CF2A08ABC39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="820" windowWidth="28240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_mmlu_sta" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>college_biology</t>
   </si>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>add_STEMEZ_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000-13000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +330,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
@@ -373,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +432,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1568,7 +1586,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1856,7 +1874,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1">
+    <row r="17" spans="1:6" ht="24" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
@@ -1873,7 +1891,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1">
+    <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
@@ -1890,59 +1908,80 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1">
+    <row r="19" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
+        <f t="shared" ref="B19:D19" si="0">SUM(B2:B18)</f>
+        <v>13937</v>
+      </c>
+      <c r="C19" s="17">
+        <f t="shared" si="0"/>
+        <v>8051</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" si="0"/>
+        <v>8655</v>
+      </c>
+      <c r="E19" s="17">
+        <f>SUM(E2:E18)</f>
+        <v>9232</v>
+      </c>
+      <c r="F19" s="17">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1">
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1">
+    <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1">
+    <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="24" customHeight="1">
+    <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1">
+    <row r="25" spans="1:6" ht="24" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1">
+    <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1">
+    <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:5" ht="16" customHeight="1">
+    <row r="28" spans="1:6" ht="16" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="16" customHeight="1">
+    <row r="29" spans="1:6" ht="16" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="1:5" ht="16" customHeight="1">
+    <row r="30" spans="1:6" ht="16" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:5" ht="16" customHeight="1">
+    <row r="31" spans="1:6" ht="16" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:5" ht="16" customHeight="1">
+    <row r="32" spans="1:6" ht="16" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
     </row>

--- a/experiments/data/mmlu_sta_0329.xlsx
+++ b/experiments/data/mmlu_sta_0329.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953616EA-856A-2240-92C1-CF2A08ABC39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD8936-C5A4-F04A-9A84-3B2C4217A614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="820" windowWidth="28240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +438,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1583,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D0CF6D-85E9-B84E-9705-CA19056656DB}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:DH45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1597,9 +1609,10 @@
     <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" customWidth="1"/>
     <col min="6" max="6" width="42.83203125" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1">
+    <row r="1" spans="1:112" ht="24" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
@@ -1619,7 +1632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="1:112" s="10" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1635,8 +1648,117 @@
       <c r="E2" s="11">
         <v>229</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1">
+      <c r="F2" s="21">
+        <v>1185</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="18"/>
+      <c r="CI2" s="18"/>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="18"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="18"/>
+      <c r="CO2" s="18"/>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="18"/>
+      <c r="CU2" s="18"/>
+      <c r="CV2" s="18"/>
+      <c r="CW2" s="18"/>
+      <c r="CX2" s="18"/>
+      <c r="CY2" s="18"/>
+      <c r="CZ2" s="18"/>
+      <c r="DA2" s="18"/>
+      <c r="DB2" s="18"/>
+      <c r="DC2" s="18"/>
+      <c r="DD2" s="18"/>
+      <c r="DE2" s="18"/>
+      <c r="DF2" s="18"/>
+      <c r="DG2" s="18"/>
+      <c r="DH2" s="18"/>
+    </row>
+    <row r="3" spans="1:112" ht="24" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1652,8 +1774,117 @@
       <c r="E3" s="8">
         <v>248</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="F3" s="19">
+        <v>1010</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="18"/>
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
+      <c r="BO3" s="18"/>
+      <c r="BP3" s="18"/>
+      <c r="BQ3" s="18"/>
+      <c r="BR3" s="18"/>
+      <c r="BS3" s="18"/>
+      <c r="BT3" s="18"/>
+      <c r="BU3" s="18"/>
+      <c r="BV3" s="18"/>
+      <c r="BW3" s="18"/>
+      <c r="BX3" s="18"/>
+      <c r="BY3" s="18"/>
+      <c r="BZ3" s="18"/>
+      <c r="CA3" s="18"/>
+      <c r="CB3" s="18"/>
+      <c r="CC3" s="18"/>
+      <c r="CD3" s="18"/>
+      <c r="CE3" s="18"/>
+      <c r="CF3" s="18"/>
+      <c r="CG3" s="18"/>
+      <c r="CH3" s="18"/>
+      <c r="CI3" s="18"/>
+      <c r="CJ3" s="18"/>
+      <c r="CK3" s="18"/>
+      <c r="CL3" s="18"/>
+      <c r="CM3" s="18"/>
+      <c r="CN3" s="18"/>
+      <c r="CO3" s="18"/>
+      <c r="CP3" s="18"/>
+      <c r="CQ3" s="18"/>
+      <c r="CR3" s="18"/>
+      <c r="CS3" s="18"/>
+      <c r="CT3" s="18"/>
+      <c r="CU3" s="18"/>
+      <c r="CV3" s="18"/>
+      <c r="CW3" s="18"/>
+      <c r="CX3" s="18"/>
+      <c r="CY3" s="18"/>
+      <c r="CZ3" s="18"/>
+      <c r="DA3" s="18"/>
+      <c r="DB3" s="18"/>
+      <c r="DC3" s="18"/>
+      <c r="DD3" s="18"/>
+      <c r="DE3" s="18"/>
+      <c r="DF3" s="18"/>
+      <c r="DG3" s="18"/>
+      <c r="DH3" s="18"/>
+    </row>
+    <row r="4" spans="1:112" s="10" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1669,8 +1900,117 @@
       <c r="E4" s="15">
         <v>449</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="F4" s="21">
+        <v>1849</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="18"/>
+      <c r="BR4" s="18"/>
+      <c r="BS4" s="18"/>
+      <c r="BT4" s="18"/>
+      <c r="BU4" s="18"/>
+      <c r="BV4" s="18"/>
+      <c r="BW4" s="18"/>
+      <c r="BX4" s="18"/>
+      <c r="BY4" s="18"/>
+      <c r="BZ4" s="18"/>
+      <c r="CA4" s="18"/>
+      <c r="CB4" s="18"/>
+      <c r="CC4" s="18"/>
+      <c r="CD4" s="18"/>
+      <c r="CE4" s="18"/>
+      <c r="CF4" s="18"/>
+      <c r="CG4" s="18"/>
+      <c r="CH4" s="18"/>
+      <c r="CI4" s="18"/>
+      <c r="CJ4" s="18"/>
+      <c r="CK4" s="18"/>
+      <c r="CL4" s="18"/>
+      <c r="CM4" s="18"/>
+      <c r="CN4" s="18"/>
+      <c r="CO4" s="18"/>
+      <c r="CP4" s="18"/>
+      <c r="CQ4" s="18"/>
+      <c r="CR4" s="18"/>
+      <c r="CS4" s="18"/>
+      <c r="CT4" s="18"/>
+      <c r="CU4" s="18"/>
+      <c r="CV4" s="18"/>
+      <c r="CW4" s="18"/>
+      <c r="CX4" s="18"/>
+      <c r="CY4" s="18"/>
+      <c r="CZ4" s="18"/>
+      <c r="DA4" s="18"/>
+      <c r="DB4" s="18"/>
+      <c r="DC4" s="18"/>
+      <c r="DD4" s="18"/>
+      <c r="DE4" s="18"/>
+      <c r="DF4" s="18"/>
+      <c r="DG4" s="18"/>
+      <c r="DH4" s="18"/>
+    </row>
+    <row r="5" spans="1:112" s="10" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -1686,8 +2026,117 @@
       <c r="E5" s="15">
         <v>361</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1">
+      <c r="F5" s="21">
+        <v>759</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18"/>
+      <c r="BN5" s="18"/>
+      <c r="BO5" s="18"/>
+      <c r="BP5" s="18"/>
+      <c r="BQ5" s="18"/>
+      <c r="BR5" s="18"/>
+      <c r="BS5" s="18"/>
+      <c r="BT5" s="18"/>
+      <c r="BU5" s="18"/>
+      <c r="BV5" s="18"/>
+      <c r="BW5" s="18"/>
+      <c r="BX5" s="18"/>
+      <c r="BY5" s="18"/>
+      <c r="BZ5" s="18"/>
+      <c r="CA5" s="18"/>
+      <c r="CB5" s="18"/>
+      <c r="CC5" s="18"/>
+      <c r="CD5" s="18"/>
+      <c r="CE5" s="18"/>
+      <c r="CF5" s="18"/>
+      <c r="CG5" s="18"/>
+      <c r="CH5" s="18"/>
+      <c r="CI5" s="18"/>
+      <c r="CJ5" s="18"/>
+      <c r="CK5" s="18"/>
+      <c r="CL5" s="18"/>
+      <c r="CM5" s="18"/>
+      <c r="CN5" s="18"/>
+      <c r="CO5" s="18"/>
+      <c r="CP5" s="18"/>
+      <c r="CQ5" s="18"/>
+      <c r="CR5" s="18"/>
+      <c r="CS5" s="18"/>
+      <c r="CT5" s="18"/>
+      <c r="CU5" s="18"/>
+      <c r="CV5" s="18"/>
+      <c r="CW5" s="18"/>
+      <c r="CX5" s="18"/>
+      <c r="CY5" s="18"/>
+      <c r="CZ5" s="18"/>
+      <c r="DA5" s="18"/>
+      <c r="DB5" s="18"/>
+      <c r="DC5" s="18"/>
+      <c r="DD5" s="18"/>
+      <c r="DE5" s="18"/>
+      <c r="DF5" s="18"/>
+      <c r="DG5" s="18"/>
+      <c r="DH5" s="18"/>
+    </row>
+    <row r="6" spans="1:112" ht="24" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +2152,117 @@
       <c r="E6" s="8">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="F6" s="21">
+        <v>121</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="18"/>
+      <c r="BM6" s="18"/>
+      <c r="BN6" s="18"/>
+      <c r="BO6" s="18"/>
+      <c r="BP6" s="18"/>
+      <c r="BQ6" s="18"/>
+      <c r="BR6" s="18"/>
+      <c r="BS6" s="18"/>
+      <c r="BT6" s="18"/>
+      <c r="BU6" s="18"/>
+      <c r="BV6" s="18"/>
+      <c r="BW6" s="18"/>
+      <c r="BX6" s="18"/>
+      <c r="BY6" s="18"/>
+      <c r="BZ6" s="18"/>
+      <c r="CA6" s="18"/>
+      <c r="CB6" s="18"/>
+      <c r="CC6" s="18"/>
+      <c r="CD6" s="18"/>
+      <c r="CE6" s="18"/>
+      <c r="CF6" s="18"/>
+      <c r="CG6" s="18"/>
+      <c r="CH6" s="18"/>
+      <c r="CI6" s="18"/>
+      <c r="CJ6" s="18"/>
+      <c r="CK6" s="18"/>
+      <c r="CL6" s="18"/>
+      <c r="CM6" s="18"/>
+      <c r="CN6" s="18"/>
+      <c r="CO6" s="18"/>
+      <c r="CP6" s="18"/>
+      <c r="CQ6" s="18"/>
+      <c r="CR6" s="18"/>
+      <c r="CS6" s="18"/>
+      <c r="CT6" s="18"/>
+      <c r="CU6" s="18"/>
+      <c r="CV6" s="18"/>
+      <c r="CW6" s="18"/>
+      <c r="CX6" s="18"/>
+      <c r="CY6" s="18"/>
+      <c r="CZ6" s="18"/>
+      <c r="DA6" s="18"/>
+      <c r="DB6" s="18"/>
+      <c r="DC6" s="18"/>
+      <c r="DD6" s="18"/>
+      <c r="DE6" s="18"/>
+      <c r="DF6" s="18"/>
+      <c r="DG6" s="18"/>
+      <c r="DH6" s="18"/>
+    </row>
+    <row r="7" spans="1:112" ht="24" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1720,8 +2278,117 @@
       <c r="E7" s="8">
         <v>467</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="F7" s="21">
+        <v>1096</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18"/>
+      <c r="BK7" s="18"/>
+      <c r="BL7" s="18"/>
+      <c r="BM7" s="18"/>
+      <c r="BN7" s="18"/>
+      <c r="BO7" s="18"/>
+      <c r="BP7" s="18"/>
+      <c r="BQ7" s="18"/>
+      <c r="BR7" s="18"/>
+      <c r="BS7" s="18"/>
+      <c r="BT7" s="18"/>
+      <c r="BU7" s="18"/>
+      <c r="BV7" s="18"/>
+      <c r="BW7" s="18"/>
+      <c r="BX7" s="18"/>
+      <c r="BY7" s="18"/>
+      <c r="BZ7" s="18"/>
+      <c r="CA7" s="18"/>
+      <c r="CB7" s="18"/>
+      <c r="CC7" s="18"/>
+      <c r="CD7" s="18"/>
+      <c r="CE7" s="18"/>
+      <c r="CF7" s="18"/>
+      <c r="CG7" s="18"/>
+      <c r="CH7" s="18"/>
+      <c r="CI7" s="18"/>
+      <c r="CJ7" s="18"/>
+      <c r="CK7" s="18"/>
+      <c r="CL7" s="18"/>
+      <c r="CM7" s="18"/>
+      <c r="CN7" s="18"/>
+      <c r="CO7" s="18"/>
+      <c r="CP7" s="18"/>
+      <c r="CQ7" s="18"/>
+      <c r="CR7" s="18"/>
+      <c r="CS7" s="18"/>
+      <c r="CT7" s="18"/>
+      <c r="CU7" s="18"/>
+      <c r="CV7" s="18"/>
+      <c r="CW7" s="18"/>
+      <c r="CX7" s="18"/>
+      <c r="CY7" s="18"/>
+      <c r="CZ7" s="18"/>
+      <c r="DA7" s="18"/>
+      <c r="DB7" s="18"/>
+      <c r="DC7" s="18"/>
+      <c r="DD7" s="18"/>
+      <c r="DE7" s="18"/>
+      <c r="DF7" s="18"/>
+      <c r="DG7" s="18"/>
+      <c r="DH7" s="18"/>
+    </row>
+    <row r="8" spans="1:112" s="10" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -1737,8 +2404,117 @@
       <c r="E8" s="13">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1">
+      <c r="F8" s="21">
+        <v>2024</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="18"/>
+      <c r="BJ8" s="18"/>
+      <c r="BK8" s="18"/>
+      <c r="BL8" s="18"/>
+      <c r="BM8" s="18"/>
+      <c r="BN8" s="18"/>
+      <c r="BO8" s="18"/>
+      <c r="BP8" s="18"/>
+      <c r="BQ8" s="18"/>
+      <c r="BR8" s="18"/>
+      <c r="BS8" s="18"/>
+      <c r="BT8" s="18"/>
+      <c r="BU8" s="18"/>
+      <c r="BV8" s="18"/>
+      <c r="BW8" s="18"/>
+      <c r="BX8" s="18"/>
+      <c r="BY8" s="18"/>
+      <c r="BZ8" s="18"/>
+      <c r="CA8" s="18"/>
+      <c r="CB8" s="18"/>
+      <c r="CC8" s="18"/>
+      <c r="CD8" s="18"/>
+      <c r="CE8" s="18"/>
+      <c r="CF8" s="18"/>
+      <c r="CG8" s="18"/>
+      <c r="CH8" s="18"/>
+      <c r="CI8" s="18"/>
+      <c r="CJ8" s="18"/>
+      <c r="CK8" s="18"/>
+      <c r="CL8" s="18"/>
+      <c r="CM8" s="18"/>
+      <c r="CN8" s="18"/>
+      <c r="CO8" s="18"/>
+      <c r="CP8" s="18"/>
+      <c r="CQ8" s="18"/>
+      <c r="CR8" s="18"/>
+      <c r="CS8" s="18"/>
+      <c r="CT8" s="18"/>
+      <c r="CU8" s="18"/>
+      <c r="CV8" s="18"/>
+      <c r="CW8" s="18"/>
+      <c r="CX8" s="18"/>
+      <c r="CY8" s="18"/>
+      <c r="CZ8" s="18"/>
+      <c r="DA8" s="18"/>
+      <c r="DB8" s="18"/>
+      <c r="DC8" s="18"/>
+      <c r="DD8" s="18"/>
+      <c r="DE8" s="18"/>
+      <c r="DF8" s="18"/>
+      <c r="DG8" s="18"/>
+      <c r="DH8" s="18"/>
+    </row>
+    <row r="9" spans="1:112" ht="24" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1754,8 +2530,117 @@
       <c r="E9" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="F9" s="21">
+        <v>79</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18"/>
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18"/>
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="18"/>
+      <c r="BR9" s="18"/>
+      <c r="BS9" s="18"/>
+      <c r="BT9" s="18"/>
+      <c r="BU9" s="18"/>
+      <c r="BV9" s="18"/>
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18"/>
+      <c r="CA9" s="18"/>
+      <c r="CB9" s="18"/>
+      <c r="CC9" s="18"/>
+      <c r="CD9" s="18"/>
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="18"/>
+      <c r="CG9" s="18"/>
+      <c r="CH9" s="18"/>
+      <c r="CI9" s="18"/>
+      <c r="CJ9" s="18"/>
+      <c r="CK9" s="18"/>
+      <c r="CL9" s="18"/>
+      <c r="CM9" s="18"/>
+      <c r="CN9" s="18"/>
+      <c r="CO9" s="18"/>
+      <c r="CP9" s="18"/>
+      <c r="CQ9" s="18"/>
+      <c r="CR9" s="18"/>
+      <c r="CS9" s="18"/>
+      <c r="CT9" s="18"/>
+      <c r="CU9" s="18"/>
+      <c r="CV9" s="18"/>
+      <c r="CW9" s="18"/>
+      <c r="CX9" s="18"/>
+      <c r="CY9" s="18"/>
+      <c r="CZ9" s="18"/>
+      <c r="DA9" s="18"/>
+      <c r="DB9" s="18"/>
+      <c r="DC9" s="18"/>
+      <c r="DD9" s="18"/>
+      <c r="DE9" s="18"/>
+      <c r="DF9" s="18"/>
+      <c r="DG9" s="18"/>
+      <c r="DH9" s="18"/>
+    </row>
+    <row r="10" spans="1:112" ht="24" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -1771,8 +2656,117 @@
       <c r="E10" s="8">
         <v>881</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="F10" s="21">
+        <v>881</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
+      <c r="BK10" s="18"/>
+      <c r="BL10" s="18"/>
+      <c r="BM10" s="18"/>
+      <c r="BN10" s="18"/>
+      <c r="BO10" s="18"/>
+      <c r="BP10" s="18"/>
+      <c r="BQ10" s="18"/>
+      <c r="BR10" s="18"/>
+      <c r="BS10" s="18"/>
+      <c r="BT10" s="18"/>
+      <c r="BU10" s="18"/>
+      <c r="BV10" s="18"/>
+      <c r="BW10" s="18"/>
+      <c r="BX10" s="18"/>
+      <c r="BY10" s="18"/>
+      <c r="BZ10" s="18"/>
+      <c r="CA10" s="18"/>
+      <c r="CB10" s="18"/>
+      <c r="CC10" s="18"/>
+      <c r="CD10" s="18"/>
+      <c r="CE10" s="18"/>
+      <c r="CF10" s="18"/>
+      <c r="CG10" s="18"/>
+      <c r="CH10" s="18"/>
+      <c r="CI10" s="18"/>
+      <c r="CJ10" s="18"/>
+      <c r="CK10" s="18"/>
+      <c r="CL10" s="18"/>
+      <c r="CM10" s="18"/>
+      <c r="CN10" s="18"/>
+      <c r="CO10" s="18"/>
+      <c r="CP10" s="18"/>
+      <c r="CQ10" s="18"/>
+      <c r="CR10" s="18"/>
+      <c r="CS10" s="18"/>
+      <c r="CT10" s="18"/>
+      <c r="CU10" s="18"/>
+      <c r="CV10" s="18"/>
+      <c r="CW10" s="18"/>
+      <c r="CX10" s="18"/>
+      <c r="CY10" s="18"/>
+      <c r="CZ10" s="18"/>
+      <c r="DA10" s="18"/>
+      <c r="DB10" s="18"/>
+      <c r="DC10" s="18"/>
+      <c r="DD10" s="18"/>
+      <c r="DE10" s="18"/>
+      <c r="DF10" s="18"/>
+      <c r="DG10" s="18"/>
+      <c r="DH10" s="18"/>
+    </row>
+    <row r="11" spans="1:112" ht="24" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
@@ -1788,8 +2782,117 @@
       <c r="E11" s="8">
         <v>404</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
+      <c r="F11" s="21">
+        <v>404</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="18"/>
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="18"/>
+      <c r="BK11" s="18"/>
+      <c r="BL11" s="18"/>
+      <c r="BM11" s="18"/>
+      <c r="BN11" s="18"/>
+      <c r="BO11" s="18"/>
+      <c r="BP11" s="18"/>
+      <c r="BQ11" s="18"/>
+      <c r="BR11" s="18"/>
+      <c r="BS11" s="18"/>
+      <c r="BT11" s="18"/>
+      <c r="BU11" s="18"/>
+      <c r="BV11" s="18"/>
+      <c r="BW11" s="18"/>
+      <c r="BX11" s="18"/>
+      <c r="BY11" s="18"/>
+      <c r="BZ11" s="18"/>
+      <c r="CA11" s="18"/>
+      <c r="CB11" s="18"/>
+      <c r="CC11" s="18"/>
+      <c r="CD11" s="18"/>
+      <c r="CE11" s="18"/>
+      <c r="CF11" s="18"/>
+      <c r="CG11" s="18"/>
+      <c r="CH11" s="18"/>
+      <c r="CI11" s="18"/>
+      <c r="CJ11" s="18"/>
+      <c r="CK11" s="18"/>
+      <c r="CL11" s="18"/>
+      <c r="CM11" s="18"/>
+      <c r="CN11" s="18"/>
+      <c r="CO11" s="18"/>
+      <c r="CP11" s="18"/>
+      <c r="CQ11" s="18"/>
+      <c r="CR11" s="18"/>
+      <c r="CS11" s="18"/>
+      <c r="CT11" s="18"/>
+      <c r="CU11" s="18"/>
+      <c r="CV11" s="18"/>
+      <c r="CW11" s="18"/>
+      <c r="CX11" s="18"/>
+      <c r="CY11" s="18"/>
+      <c r="CZ11" s="18"/>
+      <c r="DA11" s="18"/>
+      <c r="DB11" s="18"/>
+      <c r="DC11" s="18"/>
+      <c r="DD11" s="18"/>
+      <c r="DE11" s="18"/>
+      <c r="DF11" s="18"/>
+      <c r="DG11" s="18"/>
+      <c r="DH11" s="18"/>
+    </row>
+    <row r="12" spans="1:112" ht="24" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
@@ -1805,8 +2908,117 @@
       <c r="E12" s="8">
         <v>1140</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1">
+      <c r="F12" s="21">
+        <v>1140</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="18"/>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="18"/>
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="18"/>
+      <c r="BI12" s="18"/>
+      <c r="BJ12" s="18"/>
+      <c r="BK12" s="18"/>
+      <c r="BL12" s="18"/>
+      <c r="BM12" s="18"/>
+      <c r="BN12" s="18"/>
+      <c r="BO12" s="18"/>
+      <c r="BP12" s="18"/>
+      <c r="BQ12" s="18"/>
+      <c r="BR12" s="18"/>
+      <c r="BS12" s="18"/>
+      <c r="BT12" s="18"/>
+      <c r="BU12" s="18"/>
+      <c r="BV12" s="18"/>
+      <c r="BW12" s="18"/>
+      <c r="BX12" s="18"/>
+      <c r="BY12" s="18"/>
+      <c r="BZ12" s="18"/>
+      <c r="CA12" s="18"/>
+      <c r="CB12" s="18"/>
+      <c r="CC12" s="18"/>
+      <c r="CD12" s="18"/>
+      <c r="CE12" s="18"/>
+      <c r="CF12" s="18"/>
+      <c r="CG12" s="18"/>
+      <c r="CH12" s="18"/>
+      <c r="CI12" s="18"/>
+      <c r="CJ12" s="18"/>
+      <c r="CK12" s="18"/>
+      <c r="CL12" s="18"/>
+      <c r="CM12" s="18"/>
+      <c r="CN12" s="18"/>
+      <c r="CO12" s="18"/>
+      <c r="CP12" s="18"/>
+      <c r="CQ12" s="18"/>
+      <c r="CR12" s="18"/>
+      <c r="CS12" s="18"/>
+      <c r="CT12" s="18"/>
+      <c r="CU12" s="18"/>
+      <c r="CV12" s="18"/>
+      <c r="CW12" s="18"/>
+      <c r="CX12" s="18"/>
+      <c r="CY12" s="18"/>
+      <c r="CZ12" s="18"/>
+      <c r="DA12" s="18"/>
+      <c r="DB12" s="18"/>
+      <c r="DC12" s="18"/>
+      <c r="DD12" s="18"/>
+      <c r="DE12" s="18"/>
+      <c r="DF12" s="18"/>
+      <c r="DG12" s="18"/>
+      <c r="DH12" s="18"/>
+    </row>
+    <row r="13" spans="1:112" ht="24" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
@@ -1822,8 +3034,117 @@
       <c r="E13" s="15">
         <v>1402</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
+      <c r="F13" s="21">
+        <v>1397</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="18"/>
+      <c r="BK13" s="18"/>
+      <c r="BL13" s="18"/>
+      <c r="BM13" s="18"/>
+      <c r="BN13" s="18"/>
+      <c r="BO13" s="18"/>
+      <c r="BP13" s="18"/>
+      <c r="BQ13" s="18"/>
+      <c r="BR13" s="18"/>
+      <c r="BS13" s="18"/>
+      <c r="BT13" s="18"/>
+      <c r="BU13" s="18"/>
+      <c r="BV13" s="18"/>
+      <c r="BW13" s="18"/>
+      <c r="BX13" s="18"/>
+      <c r="BY13" s="18"/>
+      <c r="BZ13" s="18"/>
+      <c r="CA13" s="18"/>
+      <c r="CB13" s="18"/>
+      <c r="CC13" s="18"/>
+      <c r="CD13" s="18"/>
+      <c r="CE13" s="18"/>
+      <c r="CF13" s="18"/>
+      <c r="CG13" s="18"/>
+      <c r="CH13" s="18"/>
+      <c r="CI13" s="18"/>
+      <c r="CJ13" s="18"/>
+      <c r="CK13" s="18"/>
+      <c r="CL13" s="18"/>
+      <c r="CM13" s="18"/>
+      <c r="CN13" s="18"/>
+      <c r="CO13" s="18"/>
+      <c r="CP13" s="18"/>
+      <c r="CQ13" s="18"/>
+      <c r="CR13" s="18"/>
+      <c r="CS13" s="18"/>
+      <c r="CT13" s="18"/>
+      <c r="CU13" s="18"/>
+      <c r="CV13" s="18"/>
+      <c r="CW13" s="18"/>
+      <c r="CX13" s="18"/>
+      <c r="CY13" s="18"/>
+      <c r="CZ13" s="18"/>
+      <c r="DA13" s="18"/>
+      <c r="DB13" s="18"/>
+      <c r="DC13" s="18"/>
+      <c r="DD13" s="18"/>
+      <c r="DE13" s="18"/>
+      <c r="DF13" s="18"/>
+      <c r="DG13" s="18"/>
+      <c r="DH13" s="18"/>
+    </row>
+    <row r="14" spans="1:112" ht="24" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -1839,8 +3160,117 @@
       <c r="E14" s="8">
         <v>569</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
+      <c r="F14" s="21">
+        <v>569</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="18"/>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="18"/>
+      <c r="BG14" s="18"/>
+      <c r="BH14" s="18"/>
+      <c r="BI14" s="18"/>
+      <c r="BJ14" s="18"/>
+      <c r="BK14" s="18"/>
+      <c r="BL14" s="18"/>
+      <c r="BM14" s="18"/>
+      <c r="BN14" s="18"/>
+      <c r="BO14" s="18"/>
+      <c r="BP14" s="18"/>
+      <c r="BQ14" s="18"/>
+      <c r="BR14" s="18"/>
+      <c r="BS14" s="18"/>
+      <c r="BT14" s="18"/>
+      <c r="BU14" s="18"/>
+      <c r="BV14" s="18"/>
+      <c r="BW14" s="18"/>
+      <c r="BX14" s="18"/>
+      <c r="BY14" s="18"/>
+      <c r="BZ14" s="18"/>
+      <c r="CA14" s="18"/>
+      <c r="CB14" s="18"/>
+      <c r="CC14" s="18"/>
+      <c r="CD14" s="18"/>
+      <c r="CE14" s="18"/>
+      <c r="CF14" s="18"/>
+      <c r="CG14" s="18"/>
+      <c r="CH14" s="18"/>
+      <c r="CI14" s="18"/>
+      <c r="CJ14" s="18"/>
+      <c r="CK14" s="18"/>
+      <c r="CL14" s="18"/>
+      <c r="CM14" s="18"/>
+      <c r="CN14" s="18"/>
+      <c r="CO14" s="18"/>
+      <c r="CP14" s="18"/>
+      <c r="CQ14" s="18"/>
+      <c r="CR14" s="18"/>
+      <c r="CS14" s="18"/>
+      <c r="CT14" s="18"/>
+      <c r="CU14" s="18"/>
+      <c r="CV14" s="18"/>
+      <c r="CW14" s="18"/>
+      <c r="CX14" s="18"/>
+      <c r="CY14" s="18"/>
+      <c r="CZ14" s="18"/>
+      <c r="DA14" s="18"/>
+      <c r="DB14" s="18"/>
+      <c r="DC14" s="18"/>
+      <c r="DD14" s="18"/>
+      <c r="DE14" s="18"/>
+      <c r="DF14" s="18"/>
+      <c r="DG14" s="18"/>
+      <c r="DH14" s="18"/>
+    </row>
+    <row r="15" spans="1:112" ht="24" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>55</v>
       </c>
@@ -1856,8 +3286,117 @@
       <c r="E15" s="8">
         <v>1248</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="F15" s="21">
+        <v>1248</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="18"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18"/>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="18"/>
+      <c r="BG15" s="18"/>
+      <c r="BH15" s="18"/>
+      <c r="BI15" s="18"/>
+      <c r="BJ15" s="18"/>
+      <c r="BK15" s="18"/>
+      <c r="BL15" s="18"/>
+      <c r="BM15" s="18"/>
+      <c r="BN15" s="18"/>
+      <c r="BO15" s="18"/>
+      <c r="BP15" s="18"/>
+      <c r="BQ15" s="18"/>
+      <c r="BR15" s="18"/>
+      <c r="BS15" s="18"/>
+      <c r="BT15" s="18"/>
+      <c r="BU15" s="18"/>
+      <c r="BV15" s="18"/>
+      <c r="BW15" s="18"/>
+      <c r="BX15" s="18"/>
+      <c r="BY15" s="18"/>
+      <c r="BZ15" s="18"/>
+      <c r="CA15" s="18"/>
+      <c r="CB15" s="18"/>
+      <c r="CC15" s="18"/>
+      <c r="CD15" s="18"/>
+      <c r="CE15" s="18"/>
+      <c r="CF15" s="18"/>
+      <c r="CG15" s="18"/>
+      <c r="CH15" s="18"/>
+      <c r="CI15" s="18"/>
+      <c r="CJ15" s="18"/>
+      <c r="CK15" s="18"/>
+      <c r="CL15" s="18"/>
+      <c r="CM15" s="18"/>
+      <c r="CN15" s="18"/>
+      <c r="CO15" s="18"/>
+      <c r="CP15" s="18"/>
+      <c r="CQ15" s="18"/>
+      <c r="CR15" s="18"/>
+      <c r="CS15" s="18"/>
+      <c r="CT15" s="18"/>
+      <c r="CU15" s="18"/>
+      <c r="CV15" s="18"/>
+      <c r="CW15" s="18"/>
+      <c r="CX15" s="18"/>
+      <c r="CY15" s="18"/>
+      <c r="CZ15" s="18"/>
+      <c r="DA15" s="18"/>
+      <c r="DB15" s="18"/>
+      <c r="DC15" s="18"/>
+      <c r="DD15" s="18"/>
+      <c r="DE15" s="18"/>
+      <c r="DF15" s="18"/>
+      <c r="DG15" s="18"/>
+      <c r="DH15" s="18"/>
+    </row>
+    <row r="16" spans="1:112" s="10" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>61</v>
       </c>
@@ -1873,8 +3412,117 @@
       <c r="E16" s="15">
         <v>753</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1">
+      <c r="F16" s="21">
+        <v>2098</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
+      <c r="BB16" s="18"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="18"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="18"/>
+      <c r="BG16" s="18"/>
+      <c r="BH16" s="18"/>
+      <c r="BI16" s="18"/>
+      <c r="BJ16" s="18"/>
+      <c r="BK16" s="18"/>
+      <c r="BL16" s="18"/>
+      <c r="BM16" s="18"/>
+      <c r="BN16" s="18"/>
+      <c r="BO16" s="18"/>
+      <c r="BP16" s="18"/>
+      <c r="BQ16" s="18"/>
+      <c r="BR16" s="18"/>
+      <c r="BS16" s="18"/>
+      <c r="BT16" s="18"/>
+      <c r="BU16" s="18"/>
+      <c r="BV16" s="18"/>
+      <c r="BW16" s="18"/>
+      <c r="BX16" s="18"/>
+      <c r="BY16" s="18"/>
+      <c r="BZ16" s="18"/>
+      <c r="CA16" s="18"/>
+      <c r="CB16" s="18"/>
+      <c r="CC16" s="18"/>
+      <c r="CD16" s="18"/>
+      <c r="CE16" s="18"/>
+      <c r="CF16" s="18"/>
+      <c r="CG16" s="18"/>
+      <c r="CH16" s="18"/>
+      <c r="CI16" s="18"/>
+      <c r="CJ16" s="18"/>
+      <c r="CK16" s="18"/>
+      <c r="CL16" s="18"/>
+      <c r="CM16" s="18"/>
+      <c r="CN16" s="18"/>
+      <c r="CO16" s="18"/>
+      <c r="CP16" s="18"/>
+      <c r="CQ16" s="18"/>
+      <c r="CR16" s="18"/>
+      <c r="CS16" s="18"/>
+      <c r="CT16" s="18"/>
+      <c r="CU16" s="18"/>
+      <c r="CV16" s="18"/>
+      <c r="CW16" s="18"/>
+      <c r="CX16" s="18"/>
+      <c r="CY16" s="18"/>
+      <c r="CZ16" s="18"/>
+      <c r="DA16" s="18"/>
+      <c r="DB16" s="18"/>
+      <c r="DC16" s="18"/>
+      <c r="DD16" s="18"/>
+      <c r="DE16" s="18"/>
+      <c r="DF16" s="18"/>
+      <c r="DG16" s="18"/>
+      <c r="DH16" s="18"/>
+    </row>
+    <row r="17" spans="1:112" ht="24" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
@@ -1890,8 +3538,117 @@
       <c r="E17" s="8">
         <v>270</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1">
+      <c r="F17" s="21">
+        <v>270</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="18"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="18"/>
+      <c r="BB17" s="18"/>
+      <c r="BC17" s="18"/>
+      <c r="BD17" s="18"/>
+      <c r="BE17" s="18"/>
+      <c r="BF17" s="18"/>
+      <c r="BG17" s="18"/>
+      <c r="BH17" s="18"/>
+      <c r="BI17" s="18"/>
+      <c r="BJ17" s="18"/>
+      <c r="BK17" s="18"/>
+      <c r="BL17" s="18"/>
+      <c r="BM17" s="18"/>
+      <c r="BN17" s="18"/>
+      <c r="BO17" s="18"/>
+      <c r="BP17" s="18"/>
+      <c r="BQ17" s="18"/>
+      <c r="BR17" s="18"/>
+      <c r="BS17" s="18"/>
+      <c r="BT17" s="18"/>
+      <c r="BU17" s="18"/>
+      <c r="BV17" s="18"/>
+      <c r="BW17" s="18"/>
+      <c r="BX17" s="18"/>
+      <c r="BY17" s="18"/>
+      <c r="BZ17" s="18"/>
+      <c r="CA17" s="18"/>
+      <c r="CB17" s="18"/>
+      <c r="CC17" s="18"/>
+      <c r="CD17" s="18"/>
+      <c r="CE17" s="18"/>
+      <c r="CF17" s="18"/>
+      <c r="CG17" s="18"/>
+      <c r="CH17" s="18"/>
+      <c r="CI17" s="18"/>
+      <c r="CJ17" s="18"/>
+      <c r="CK17" s="18"/>
+      <c r="CL17" s="18"/>
+      <c r="CM17" s="18"/>
+      <c r="CN17" s="18"/>
+      <c r="CO17" s="18"/>
+      <c r="CP17" s="18"/>
+      <c r="CQ17" s="18"/>
+      <c r="CR17" s="18"/>
+      <c r="CS17" s="18"/>
+      <c r="CT17" s="18"/>
+      <c r="CU17" s="18"/>
+      <c r="CV17" s="18"/>
+      <c r="CW17" s="18"/>
+      <c r="CX17" s="18"/>
+      <c r="CY17" s="18"/>
+      <c r="CZ17" s="18"/>
+      <c r="DA17" s="18"/>
+      <c r="DB17" s="18"/>
+      <c r="DC17" s="18"/>
+      <c r="DD17" s="18"/>
+      <c r="DE17" s="18"/>
+      <c r="DF17" s="18"/>
+      <c r="DG17" s="18"/>
+      <c r="DH17" s="18"/>
+    </row>
+    <row r="18" spans="1:112" ht="24" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
@@ -1907,8 +3664,117 @@
       <c r="E18" s="8">
         <v>521</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1">
+      <c r="F18" s="21">
+        <v>1012</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
+      <c r="BK18" s="18"/>
+      <c r="BL18" s="18"/>
+      <c r="BM18" s="18"/>
+      <c r="BN18" s="18"/>
+      <c r="BO18" s="18"/>
+      <c r="BP18" s="18"/>
+      <c r="BQ18" s="18"/>
+      <c r="BR18" s="18"/>
+      <c r="BS18" s="18"/>
+      <c r="BT18" s="18"/>
+      <c r="BU18" s="18"/>
+      <c r="BV18" s="18"/>
+      <c r="BW18" s="18"/>
+      <c r="BX18" s="18"/>
+      <c r="BY18" s="18"/>
+      <c r="BZ18" s="18"/>
+      <c r="CA18" s="18"/>
+      <c r="CB18" s="18"/>
+      <c r="CC18" s="18"/>
+      <c r="CD18" s="18"/>
+      <c r="CE18" s="18"/>
+      <c r="CF18" s="18"/>
+      <c r="CG18" s="18"/>
+      <c r="CH18" s="18"/>
+      <c r="CI18" s="18"/>
+      <c r="CJ18" s="18"/>
+      <c r="CK18" s="18"/>
+      <c r="CL18" s="18"/>
+      <c r="CM18" s="18"/>
+      <c r="CN18" s="18"/>
+      <c r="CO18" s="18"/>
+      <c r="CP18" s="18"/>
+      <c r="CQ18" s="18"/>
+      <c r="CR18" s="18"/>
+      <c r="CS18" s="18"/>
+      <c r="CT18" s="18"/>
+      <c r="CU18" s="18"/>
+      <c r="CV18" s="18"/>
+      <c r="CW18" s="18"/>
+      <c r="CX18" s="18"/>
+      <c r="CY18" s="18"/>
+      <c r="CZ18" s="18"/>
+      <c r="DA18" s="18"/>
+      <c r="DB18" s="18"/>
+      <c r="DC18" s="18"/>
+      <c r="DD18" s="18"/>
+      <c r="DE18" s="18"/>
+      <c r="DF18" s="18"/>
+      <c r="DG18" s="18"/>
+      <c r="DH18" s="18"/>
+    </row>
+    <row r="19" spans="1:112" s="17" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="17">
         <f t="shared" ref="B19:D19" si="0">SUM(B2:B18)</f>
@@ -1927,61 +3793,171 @@
         <v>9232</v>
       </c>
       <c r="F19" s="17">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
+        <f>SUM(F2:F18)</f>
+        <v>17142</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="20"/>
+      <c r="BM19" s="20"/>
+      <c r="BN19" s="20"/>
+      <c r="BO19" s="20"/>
+      <c r="BP19" s="20"/>
+      <c r="BQ19" s="20"/>
+      <c r="BR19" s="20"/>
+      <c r="BS19" s="20"/>
+      <c r="BT19" s="20"/>
+      <c r="BU19" s="20"/>
+      <c r="BV19" s="20"/>
+      <c r="BW19" s="20"/>
+      <c r="BX19" s="20"/>
+      <c r="BY19" s="20"/>
+      <c r="BZ19" s="20"/>
+      <c r="CA19" s="20"/>
+      <c r="CB19" s="20"/>
+      <c r="CC19" s="20"/>
+      <c r="CD19" s="20"/>
+      <c r="CE19" s="20"/>
+      <c r="CF19" s="20"/>
+      <c r="CG19" s="20"/>
+      <c r="CH19" s="20"/>
+      <c r="CI19" s="20"/>
+      <c r="CJ19" s="20"/>
+      <c r="CK19" s="20"/>
+      <c r="CL19" s="20"/>
+      <c r="CM19" s="20"/>
+      <c r="CN19" s="20"/>
+      <c r="CO19" s="20"/>
+      <c r="CP19" s="20"/>
+      <c r="CQ19" s="20"/>
+      <c r="CR19" s="20"/>
+      <c r="CS19" s="20"/>
+      <c r="CT19" s="20"/>
+      <c r="CU19" s="20"/>
+      <c r="CV19" s="20"/>
+      <c r="CW19" s="20"/>
+      <c r="CX19" s="20"/>
+      <c r="CY19" s="20"/>
+      <c r="CZ19" s="20"/>
+      <c r="DA19" s="20"/>
+      <c r="DB19" s="20"/>
+      <c r="DC19" s="20"/>
+      <c r="DD19" s="20"/>
+      <c r="DE19" s="20"/>
+      <c r="DF19" s="20"/>
+      <c r="DG19" s="20"/>
+      <c r="DH19" s="20"/>
+    </row>
+    <row r="20" spans="1:112" ht="24" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="F20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24" customHeight="1">
+    <row r="21" spans="1:112" ht="24" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="24" customHeight="1">
+      <c r="F21" s="20">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:112" ht="24" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1">
+    <row r="23" spans="1:112" ht="24" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1">
+    <row r="24" spans="1:112" ht="24" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="24" customHeight="1">
+    <row r="25" spans="1:112" ht="24" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1">
+    <row r="26" spans="1:112" ht="24" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
+    <row r="27" spans="1:112" ht="24" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="16" customHeight="1">
+    <row r="28" spans="1:112" ht="16" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="16" customHeight="1">
+    <row r="29" spans="1:112" ht="16" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="16" customHeight="1">
+    <row r="30" spans="1:112" ht="16" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:6" ht="16" customHeight="1">
+    <row r="31" spans="1:112" ht="16" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="16" customHeight="1">
+    <row r="32" spans="1:112" ht="16" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
     </row>

--- a/experiments/data/mmlu_sta_0329.xlsx
+++ b/experiments/data/mmlu_sta_0329.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE92675-B9BD-CD4B-B278-582F5FBBFE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F772D4B6-FADA-9649-87F5-11AF2674F391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_mmlu_sta" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="104">
   <si>
     <t>college_biology</t>
   </si>
@@ -374,6 +374,10 @@
   </si>
   <si>
     <t>target: 12000--13000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hybrid_scoring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,6 +428,14 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
@@ -579,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,8 +664,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -739,20 +754,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1899,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D0CF6D-85E9-B84E-9705-CA19056656DB}">
   <dimension ref="A1:DH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1914,23 +1935,23 @@
     <col min="7" max="7" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" s="56" customFormat="1" ht="43" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:112" s="57" customFormat="1" ht="43" customHeight="1">
+      <c r="A1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="56" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3546,141 +3567,141 @@
       <c r="DG18" s="15"/>
       <c r="DH18" s="15"/>
     </row>
-    <row r="19" spans="1:112" s="53" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:112" s="54" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="54">
         <f t="shared" ref="B19:D19" si="0">SUM(B2:B18)</f>
         <v>13937</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="54">
         <f t="shared" si="0"/>
         <v>8051</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="54">
         <f t="shared" si="0"/>
         <v>8655</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="54">
         <f>SUM(E2:E18)</f>
         <v>9232</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="54">
         <f>SUM(F2:F18)</f>
         <v>17142</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="54"/>
-      <c r="AU19" s="54"/>
-      <c r="AV19" s="54"/>
-      <c r="AW19" s="54"/>
-      <c r="AX19" s="54"/>
-      <c r="AY19" s="54"/>
-      <c r="AZ19" s="54"/>
-      <c r="BA19" s="54"/>
-      <c r="BB19" s="54"/>
-      <c r="BC19" s="54"/>
-      <c r="BD19" s="54"/>
-      <c r="BE19" s="54"/>
-      <c r="BF19" s="54"/>
-      <c r="BG19" s="54"/>
-      <c r="BH19" s="54"/>
-      <c r="BI19" s="54"/>
-      <c r="BJ19" s="54"/>
-      <c r="BK19" s="54"/>
-      <c r="BL19" s="54"/>
-      <c r="BM19" s="54"/>
-      <c r="BN19" s="54"/>
-      <c r="BO19" s="54"/>
-      <c r="BP19" s="54"/>
-      <c r="BQ19" s="54"/>
-      <c r="BR19" s="54"/>
-      <c r="BS19" s="54"/>
-      <c r="BT19" s="54"/>
-      <c r="BU19" s="54"/>
-      <c r="BV19" s="54"/>
-      <c r="BW19" s="54"/>
-      <c r="BX19" s="54"/>
-      <c r="BY19" s="54"/>
-      <c r="BZ19" s="54"/>
-      <c r="CA19" s="54"/>
-      <c r="CB19" s="54"/>
-      <c r="CC19" s="54"/>
-      <c r="CD19" s="54"/>
-      <c r="CE19" s="54"/>
-      <c r="CF19" s="54"/>
-      <c r="CG19" s="54"/>
-      <c r="CH19" s="54"/>
-      <c r="CI19" s="54"/>
-      <c r="CJ19" s="54"/>
-      <c r="CK19" s="54"/>
-      <c r="CL19" s="54"/>
-      <c r="CM19" s="54"/>
-      <c r="CN19" s="54"/>
-      <c r="CO19" s="54"/>
-      <c r="CP19" s="54"/>
-      <c r="CQ19" s="54"/>
-      <c r="CR19" s="54"/>
-      <c r="CS19" s="54"/>
-      <c r="CT19" s="54"/>
-      <c r="CU19" s="54"/>
-      <c r="CV19" s="54"/>
-      <c r="CW19" s="54"/>
-      <c r="CX19" s="54"/>
-      <c r="CY19" s="54"/>
-      <c r="CZ19" s="54"/>
-      <c r="DA19" s="54"/>
-      <c r="DB19" s="54"/>
-      <c r="DC19" s="54"/>
-      <c r="DD19" s="54"/>
-      <c r="DE19" s="54"/>
-      <c r="DF19" s="54"/>
-      <c r="DG19" s="54"/>
-      <c r="DH19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
+      <c r="AP19" s="55"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55"/>
+      <c r="AT19" s="55"/>
+      <c r="AU19" s="55"/>
+      <c r="AV19" s="55"/>
+      <c r="AW19" s="55"/>
+      <c r="AX19" s="55"/>
+      <c r="AY19" s="55"/>
+      <c r="AZ19" s="55"/>
+      <c r="BA19" s="55"/>
+      <c r="BB19" s="55"/>
+      <c r="BC19" s="55"/>
+      <c r="BD19" s="55"/>
+      <c r="BE19" s="55"/>
+      <c r="BF19" s="55"/>
+      <c r="BG19" s="55"/>
+      <c r="BH19" s="55"/>
+      <c r="BI19" s="55"/>
+      <c r="BJ19" s="55"/>
+      <c r="BK19" s="55"/>
+      <c r="BL19" s="55"/>
+      <c r="BM19" s="55"/>
+      <c r="BN19" s="55"/>
+      <c r="BO19" s="55"/>
+      <c r="BP19" s="55"/>
+      <c r="BQ19" s="55"/>
+      <c r="BR19" s="55"/>
+      <c r="BS19" s="55"/>
+      <c r="BT19" s="55"/>
+      <c r="BU19" s="55"/>
+      <c r="BV19" s="55"/>
+      <c r="BW19" s="55"/>
+      <c r="BX19" s="55"/>
+      <c r="BY19" s="55"/>
+      <c r="BZ19" s="55"/>
+      <c r="CA19" s="55"/>
+      <c r="CB19" s="55"/>
+      <c r="CC19" s="55"/>
+      <c r="CD19" s="55"/>
+      <c r="CE19" s="55"/>
+      <c r="CF19" s="55"/>
+      <c r="CG19" s="55"/>
+      <c r="CH19" s="55"/>
+      <c r="CI19" s="55"/>
+      <c r="CJ19" s="55"/>
+      <c r="CK19" s="55"/>
+      <c r="CL19" s="55"/>
+      <c r="CM19" s="55"/>
+      <c r="CN19" s="55"/>
+      <c r="CO19" s="55"/>
+      <c r="CP19" s="55"/>
+      <c r="CQ19" s="55"/>
+      <c r="CR19" s="55"/>
+      <c r="CS19" s="55"/>
+      <c r="CT19" s="55"/>
+      <c r="CU19" s="55"/>
+      <c r="CV19" s="55"/>
+      <c r="CW19" s="55"/>
+      <c r="CX19" s="55"/>
+      <c r="CY19" s="55"/>
+      <c r="CZ19" s="55"/>
+      <c r="DA19" s="55"/>
+      <c r="DB19" s="55"/>
+      <c r="DC19" s="55"/>
+      <c r="DD19" s="55"/>
+      <c r="DE19" s="55"/>
+      <c r="DF19" s="55"/>
+      <c r="DG19" s="55"/>
+      <c r="DH19" s="55"/>
     </row>
     <row r="20" spans="1:112" ht="24" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="58" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3811,16 +3832,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" ht="26" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -4656,10 +4677,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB78B2D2-6FA5-C54D-94B2-7A03AB6370F9}">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4667,529 +4688,677 @@
     <col min="1" max="73" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" ht="29" customHeight="1">
+      <c r="E1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="59"/>
+      <c r="G1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="59"/>
+    </row>
+    <row r="2" spans="1:8" ht="28" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="28" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="G2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E3" s="31">
         <v>0.65339999999999998</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F3" s="32">
         <v>0.53390000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28" customHeight="1">
-      <c r="A3" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="G3" s="9">
+        <v>0.4914</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.52249999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28" customHeight="1">
+      <c r="A4" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E4" s="37">
         <v>0.3755</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F4" s="38">
         <v>0.27210000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="28" customHeight="1">
-      <c r="A4" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="G4" s="9">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.48370000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E5" s="37">
         <v>0.2697</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F5" s="38">
         <v>0.22520000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="28" customHeight="1">
-      <c r="A5" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="G5" s="9">
+        <v>0.47320000000000001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.48759999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E6" s="37">
         <v>0.45550000000000002</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F6" s="38">
         <v>0.53400000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="28" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="G6" s="9">
+        <v>0.47889999999999999</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.48559999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D7" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E7" s="37">
         <v>0.44259999999999999</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F7" s="38">
         <v>0.38119999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28" customHeight="1">
-      <c r="A7" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="39" t="s">
+      <c r="G7" s="9">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28" customHeight="1">
+      <c r="A8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E8" s="43">
         <v>0.46389999999999998</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F8" s="44">
         <v>0.41849999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28" customHeight="1">
-      <c r="A8" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0.65149999999999997</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0.66900000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="28" customHeight="1">
+      <c r="A9" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.4854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E10" s="37">
         <v>0.25740000000000002</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F10" s="38">
         <v>0.22570000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="28" customHeight="1">
-      <c r="A10" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="45" t="s">
+      <c r="G10" s="9">
+        <v>0.38390000000000002</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.43740000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E11" s="37">
         <v>0.30130000000000001</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F11" s="38">
         <v>0.2626</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="28" customHeight="1">
-      <c r="A11" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="45" t="s">
+      <c r="G11" s="9">
+        <v>0.3891</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.4592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28" customHeight="1">
+      <c r="A12" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E12" s="37">
         <v>0.1522</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F12" s="38">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="28" customHeight="1">
-      <c r="A12" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="36">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="F12" s="37">
-        <v>0.30990000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="G12" s="9">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.38469999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28" customHeight="1">
+      <c r="A13" s="33" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0.30990000000000001</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.3861</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.43809999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28" customHeight="1">
+      <c r="A14" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E14" s="43">
         <v>0.32540000000000002</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F14" s="44">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="28" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="30">
-        <v>0.51439999999999997</v>
-      </c>
-      <c r="F14" s="31">
-        <v>0.46489999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28" customHeight="1">
-      <c r="A15" s="32" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="28" customHeight="1">
+      <c r="A15" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.46489999999999998</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="28" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E16" s="37">
         <v>0.47570000000000001</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F16" s="38">
         <v>0.43840000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="28" customHeight="1">
-      <c r="A16" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="48" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="28" customHeight="1">
+      <c r="A17" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E17" s="37">
         <v>0.45710000000000001</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F17" s="38">
         <v>0.4017</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="28" customHeight="1">
-      <c r="A17" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="48" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="28" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D18" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E18" s="37">
         <v>0.35139999999999999</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F18" s="38">
         <v>0.22040000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="28" customHeight="1">
-      <c r="A18" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="36">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28" customHeight="1">
-      <c r="A19" s="38" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="28" customHeight="1">
+      <c r="A19" s="33" t="s">
         <v>99</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0.372</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="28" customHeight="1">
+      <c r="A20" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E20" s="43">
         <v>0.40629999999999999</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F20" s="44">
         <v>0.32829999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="28" customHeight="1">
-      <c r="A20" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="30">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="F20" s="31">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28" customHeight="1">
-      <c r="A21" s="32" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="28" customHeight="1">
+      <c r="A21" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B21" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.51329999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E22" s="37">
         <v>0.5796</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F22" s="38">
         <v>0.42399999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="28" customHeight="1">
-      <c r="A22" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="51" t="s">
+      <c r="G22" s="9">
+        <v>0.4456</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.47649999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28" customHeight="1">
+      <c r="A23" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D23" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E23" s="37">
         <v>0.57179999999999997</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F23" s="38">
         <v>0.56499999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="28" customHeight="1">
-      <c r="A23" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="51" t="s">
+      <c r="G23" s="9">
+        <v>0.43809999999999999</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.49530000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28" customHeight="1">
+      <c r="A24" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D24" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E24" s="37">
         <v>0.49909999999999999</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F24" s="38">
         <v>0.44679999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="28" customHeight="1">
-      <c r="A24" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="36">
-        <v>0.53779999999999994</v>
-      </c>
-      <c r="F24" s="37">
-        <v>0.45069999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28" customHeight="1">
-      <c r="A25" s="38" t="s">
+      <c r="G24" s="9">
+        <v>0.4355</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.4627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28" customHeight="1">
+      <c r="A25" s="33" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0.45069999999999999</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.437</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="28" customHeight="1">
+      <c r="A26" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E26" s="43">
         <v>0.27589999999999998</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F26" s="44">
         <v>0.25659999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="28" customHeight="1"/>
-    <row r="27" spans="1:6" ht="28" customHeight="1"/>
-    <row r="28" spans="1:6" ht="28" customHeight="1"/>
-    <row r="29" spans="1:6" ht="28" customHeight="1"/>
-    <row r="30" spans="1:6" ht="28" customHeight="1"/>
-    <row r="31" spans="1:6" ht="28" customHeight="1"/>
-    <row r="32" spans="1:6" ht="28" customHeight="1"/>
-    <row r="33" ht="28" customHeight="1"/>
-    <row r="34" ht="28" customHeight="1"/>
-    <row r="35" ht="28" customHeight="1"/>
-    <row r="36" ht="28" customHeight="1"/>
-    <row r="37" ht="28" customHeight="1"/>
-    <row r="38" ht="28" customHeight="1"/>
-    <row r="39" ht="28" customHeight="1"/>
-    <row r="40" ht="28" customHeight="1"/>
-    <row r="41" ht="28" customHeight="1"/>
-    <row r="42" ht="28" customHeight="1"/>
-    <row r="43" ht="28" customHeight="1"/>
-    <row r="44" ht="28" customHeight="1"/>
-    <row r="45" ht="28" customHeight="1"/>
-    <row r="46" ht="28" customHeight="1"/>
-    <row r="47" ht="28" customHeight="1"/>
-    <row r="48" ht="28" customHeight="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="28" customHeight="1">
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+    </row>
+    <row r="28" spans="1:8" ht="28" customHeight="1">
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+    </row>
+    <row r="29" spans="1:8" ht="28" customHeight="1">
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="1:8" ht="28" customHeight="1">
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="1:8" ht="28" customHeight="1">
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+    </row>
+    <row r="32" spans="1:8" ht="28" customHeight="1">
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="7:8" ht="28" customHeight="1">
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+    </row>
+    <row r="34" spans="7:8" ht="28" customHeight="1">
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+    </row>
+    <row r="35" spans="7:8" ht="28" customHeight="1">
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+    </row>
+    <row r="36" spans="7:8" ht="28" customHeight="1"/>
+    <row r="37" spans="7:8" ht="28" customHeight="1"/>
+    <row r="38" spans="7:8" ht="28" customHeight="1"/>
+    <row r="39" spans="7:8" ht="28" customHeight="1"/>
+    <row r="40" spans="7:8" ht="28" customHeight="1"/>
+    <row r="41" spans="7:8" ht="28" customHeight="1"/>
+    <row r="42" spans="7:8" ht="28" customHeight="1"/>
+    <row r="43" spans="7:8" ht="28" customHeight="1"/>
+    <row r="44" spans="7:8" ht="28" customHeight="1"/>
+    <row r="45" spans="7:8" ht="28" customHeight="1"/>
+    <row r="46" spans="7:8" ht="28" customHeight="1"/>
+    <row r="47" spans="7:8" ht="28" customHeight="1"/>
+    <row r="48" spans="7:8" ht="28" customHeight="1"/>
     <row r="49" ht="28" customHeight="1"/>
     <row r="50" ht="28" customHeight="1"/>
     <row r="51" ht="28" customHeight="1"/>
@@ -5357,7 +5526,12 @@
     <row r="213" ht="28" customHeight="1"/>
     <row r="214" ht="28" customHeight="1"/>
     <row r="215" ht="28" customHeight="1"/>
+    <row r="216" ht="28" customHeight="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/experiments/data/mmlu_sta_0329.xlsx
+++ b/experiments/data/mmlu_sta_0329.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F772D4B6-FADA-9649-87F5-11AF2674F391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286FDE60-29C2-6C46-812F-5D4B8661D1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_mmlu_sta" sheetId="1" r:id="rId1"/>
     <sheet name="trim_down_mmlu" sheetId="2" r:id="rId2"/>
     <sheet name="evaluation_results_bk" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="eval_results" sheetId="4" r:id="rId4"/>
+    <sheet name="eval_results_bk" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="eval_result" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="104">
   <si>
     <t>college_biology</t>
   </si>
@@ -385,7 +386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,6 +458,15 @@
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -591,7 +601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +783,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4679,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB78B2D2-6FA5-C54D-94B2-7A03AB6370F9}">
   <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5536,4 +5549,768 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66642990-B574-1649-9655-48EDEBCA324A}">
+  <dimension ref="A1:H140"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="22" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" customHeight="1">
+      <c r="E1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="59"/>
+      <c r="G1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="59"/>
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0.62380000000000002</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.4914</v>
+      </c>
+      <c r="H3" s="32">
+        <v>0.52249999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1">
+      <c r="A4" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0.48370000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.47249999999999998</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0.47320000000000001</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0.48759999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0.47889999999999999</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0.48559999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H7" s="38">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1">
+      <c r="A8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0.4854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.3291</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0.38390000000000002</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0.43740000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0.38159999999999999</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.2747</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0.3891</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.4592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1">
+      <c r="A12" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.25569999999999998</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0.38469999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1">
+      <c r="A13" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.45779999999999998</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.3427</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.3861</v>
+      </c>
+      <c r="H13" s="38">
+        <v>0.43809999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1">
+      <c r="A14" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="43">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0.31790000000000002</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" ht="24" customHeight="1">
+      <c r="A15" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0.4471</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.5736</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" customHeight="1">
+      <c r="A17" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.4929</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0.39939999999999998</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" customHeight="1">
+      <c r="A19" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0.5534</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0.3906</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8" ht="24" customHeight="1">
+      <c r="A20" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="43">
+        <v>0.5323</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0.66490000000000005</v>
+      </c>
+      <c r="F21" s="31">
+        <v>0.69430000000000003</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="H21" s="32">
+        <v>0.51329999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="24" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0.57469999999999999</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.4178</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0.4456</v>
+      </c>
+      <c r="H22" s="38">
+        <v>0.47649999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="24" customHeight="1">
+      <c r="A23" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0.43809999999999999</v>
+      </c>
+      <c r="H23" s="38">
+        <v>0.49530000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="24" customHeight="1">
+      <c r="A24" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0.5111</v>
+      </c>
+      <c r="G24" s="37">
+        <v>0.4355</v>
+      </c>
+      <c r="H24" s="38">
+        <v>0.4627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="24" customHeight="1">
+      <c r="A25" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="F25" s="37">
+        <v>0.52349999999999997</v>
+      </c>
+      <c r="G25" s="37">
+        <v>0.437</v>
+      </c>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" ht="24" customHeight="1">
+      <c r="A26" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="61">
+        <v>0.26889999999999997</v>
+      </c>
+      <c r="F26" s="61">
+        <v>0.254</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:8" ht="24" customHeight="1"/>
+    <row r="28" spans="1:8" ht="24" customHeight="1"/>
+    <row r="29" spans="1:8" ht="24" customHeight="1"/>
+    <row r="30" spans="1:8" ht="24" customHeight="1"/>
+    <row r="31" spans="1:8" ht="24" customHeight="1"/>
+    <row r="32" spans="1:8" ht="24" customHeight="1"/>
+    <row r="33" ht="24" customHeight="1"/>
+    <row r="34" ht="24" customHeight="1"/>
+    <row r="35" ht="24" customHeight="1"/>
+    <row r="36" ht="24" customHeight="1"/>
+    <row r="37" ht="24" customHeight="1"/>
+    <row r="38" ht="24" customHeight="1"/>
+    <row r="39" ht="24" customHeight="1"/>
+    <row r="40" ht="24" customHeight="1"/>
+    <row r="41" ht="24" customHeight="1"/>
+    <row r="42" ht="24" customHeight="1"/>
+    <row r="43" ht="24" customHeight="1"/>
+    <row r="44" ht="24" customHeight="1"/>
+    <row r="45" ht="24" customHeight="1"/>
+    <row r="46" ht="24" customHeight="1"/>
+    <row r="47" ht="24" customHeight="1"/>
+    <row r="48" ht="24" customHeight="1"/>
+    <row r="49" ht="24" customHeight="1"/>
+    <row r="50" ht="24" customHeight="1"/>
+    <row r="51" ht="24" customHeight="1"/>
+    <row r="52" ht="24" customHeight="1"/>
+    <row r="53" ht="24" customHeight="1"/>
+    <row r="54" ht="24" customHeight="1"/>
+    <row r="55" ht="24" customHeight="1"/>
+    <row r="56" ht="24" customHeight="1"/>
+    <row r="57" ht="24" customHeight="1"/>
+    <row r="58" ht="24" customHeight="1"/>
+    <row r="59" ht="24" customHeight="1"/>
+    <row r="60" ht="24" customHeight="1"/>
+    <row r="61" ht="24" customHeight="1"/>
+    <row r="62" ht="24" customHeight="1"/>
+    <row r="63" ht="24" customHeight="1"/>
+    <row r="64" ht="24" customHeight="1"/>
+    <row r="65" ht="24" customHeight="1"/>
+    <row r="66" ht="24" customHeight="1"/>
+    <row r="67" ht="24" customHeight="1"/>
+    <row r="68" ht="24" customHeight="1"/>
+    <row r="69" ht="24" customHeight="1"/>
+    <row r="70" ht="24" customHeight="1"/>
+    <row r="71" ht="24" customHeight="1"/>
+    <row r="72" ht="24" customHeight="1"/>
+    <row r="73" ht="24" customHeight="1"/>
+    <row r="74" ht="24" customHeight="1"/>
+    <row r="75" ht="24" customHeight="1"/>
+    <row r="76" ht="24" customHeight="1"/>
+    <row r="77" ht="24" customHeight="1"/>
+    <row r="78" ht="24" customHeight="1"/>
+    <row r="79" ht="24" customHeight="1"/>
+    <row r="80" ht="24" customHeight="1"/>
+    <row r="81" ht="24" customHeight="1"/>
+    <row r="82" ht="24" customHeight="1"/>
+    <row r="83" ht="24" customHeight="1"/>
+    <row r="84" ht="24" customHeight="1"/>
+    <row r="85" ht="24" customHeight="1"/>
+    <row r="86" ht="24" customHeight="1"/>
+    <row r="87" ht="24" customHeight="1"/>
+    <row r="88" ht="24" customHeight="1"/>
+    <row r="89" ht="24" customHeight="1"/>
+    <row r="90" ht="24" customHeight="1"/>
+    <row r="91" ht="24" customHeight="1"/>
+    <row r="92" ht="24" customHeight="1"/>
+    <row r="93" ht="24" customHeight="1"/>
+    <row r="94" ht="24" customHeight="1"/>
+    <row r="95" ht="24" customHeight="1"/>
+    <row r="96" ht="24" customHeight="1"/>
+    <row r="97" ht="24" customHeight="1"/>
+    <row r="98" ht="24" customHeight="1"/>
+    <row r="99" ht="24" customHeight="1"/>
+    <row r="100" ht="24" customHeight="1"/>
+    <row r="101" ht="24" customHeight="1"/>
+    <row r="102" ht="24" customHeight="1"/>
+    <row r="103" ht="24" customHeight="1"/>
+    <row r="104" ht="24" customHeight="1"/>
+    <row r="105" ht="24" customHeight="1"/>
+    <row r="106" ht="24" customHeight="1"/>
+    <row r="107" ht="24" customHeight="1"/>
+    <row r="108" ht="24" customHeight="1"/>
+    <row r="109" ht="24" customHeight="1"/>
+    <row r="110" ht="24" customHeight="1"/>
+    <row r="111" ht="24" customHeight="1"/>
+    <row r="112" ht="24" customHeight="1"/>
+    <row r="113" ht="24" customHeight="1"/>
+    <row r="114" ht="24" customHeight="1"/>
+    <row r="115" ht="24" customHeight="1"/>
+    <row r="116" ht="24" customHeight="1"/>
+    <row r="117" ht="24" customHeight="1"/>
+    <row r="118" ht="24" customHeight="1"/>
+    <row r="119" ht="24" customHeight="1"/>
+    <row r="120" ht="24" customHeight="1"/>
+    <row r="121" ht="24" customHeight="1"/>
+    <row r="122" ht="24" customHeight="1"/>
+    <row r="123" ht="24" customHeight="1"/>
+    <row r="124" ht="24" customHeight="1"/>
+    <row r="125" ht="24" customHeight="1"/>
+    <row r="126" ht="24" customHeight="1"/>
+    <row r="127" ht="24" customHeight="1"/>
+    <row r="128" ht="24" customHeight="1"/>
+    <row r="129" ht="24" customHeight="1"/>
+    <row r="130" ht="24" customHeight="1"/>
+    <row r="131" ht="24" customHeight="1"/>
+    <row r="132" ht="24" customHeight="1"/>
+    <row r="133" ht="24" customHeight="1"/>
+    <row r="134" ht="24" customHeight="1"/>
+    <row r="135" ht="24" customHeight="1"/>
+    <row r="136" ht="24" customHeight="1"/>
+    <row r="137" ht="24" customHeight="1"/>
+    <row r="138" ht="24" customHeight="1"/>
+    <row r="139" ht="24" customHeight="1"/>
+    <row r="140" ht="24" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiments/data/mmlu_sta_0329.xlsx
+++ b/experiments/data/mmlu_sta_0329.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286FDE60-29C2-6C46-812F-5D4B8661D1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A5FAF2-F42B-1F4A-A774-476A84D94C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_mmlu_sta" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="105">
   <si>
     <t>college_biology</t>
   </si>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>hybrid_scoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove_image_question_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
@@ -1933,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D0CF6D-85E9-B84E-9705-CA19056656DB}">
   <dimension ref="A1:DH45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1945,7 +1949,7 @@
     <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" customWidth="1"/>
     <col min="6" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:112" s="57" customFormat="1" ht="43" customHeight="1">
@@ -1967,6 +1971,9 @@
       <c r="F1" s="56" t="s">
         <v>80</v>
       </c>
+      <c r="G1" s="56" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2" spans="1:112" s="15" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -1987,6 +1994,9 @@
       <c r="F2" s="23">
         <v>1185</v>
       </c>
+      <c r="G2" s="16">
+        <v>832</v>
+      </c>
     </row>
     <row r="3" spans="1:112" ht="24" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -2007,7 +2017,9 @@
       <c r="F3" s="13">
         <v>1010</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="16">
+        <v>966</v>
+      </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -2133,6 +2145,9 @@
       <c r="F4" s="23">
         <v>1849</v>
       </c>
+      <c r="G4" s="16">
+        <v>1445</v>
+      </c>
     </row>
     <row r="5" spans="1:112" s="15" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="16" t="s">
@@ -2153,6 +2168,9 @@
       <c r="F5" s="23">
         <v>759</v>
       </c>
+      <c r="G5" s="16">
+        <v>659</v>
+      </c>
     </row>
     <row r="6" spans="1:112" ht="24" customHeight="1">
       <c r="A6" s="11" t="s">
@@ -2173,7 +2191,9 @@
       <c r="F6" s="18">
         <v>121</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="16">
+        <v>121</v>
+      </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -2299,7 +2319,9 @@
       <c r="F7" s="23">
         <v>1096</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18">
+        <v>1012</v>
+      </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -2425,6 +2447,9 @@
       <c r="F8" s="23">
         <v>2024</v>
       </c>
+      <c r="G8" s="18">
+        <v>1331</v>
+      </c>
     </row>
     <row r="9" spans="1:112" ht="24" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -2445,7 +2470,9 @@
       <c r="F9" s="18">
         <v>79</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="18">
+        <v>79</v>
+      </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -2571,7 +2598,9 @@
       <c r="F10" s="18">
         <v>881</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="18">
+        <v>881</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -2697,7 +2726,9 @@
       <c r="F11" s="18">
         <v>404</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="18">
+        <v>404</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -2823,7 +2854,9 @@
       <c r="F12" s="18">
         <v>1140</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="18">
+        <v>1140</v>
+      </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2949,7 +2982,9 @@
       <c r="F13" s="23">
         <v>1397</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="18">
+        <v>1397</v>
+      </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -3075,7 +3110,9 @@
       <c r="F14" s="18">
         <v>569</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="18">
+        <v>569</v>
+      </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -3201,7 +3238,9 @@
       <c r="F15" s="18">
         <v>1248</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="18">
+        <v>1248</v>
+      </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -3327,6 +3366,9 @@
       <c r="F16" s="23">
         <v>2098</v>
       </c>
+      <c r="G16" s="18">
+        <v>1476</v>
+      </c>
     </row>
     <row r="17" spans="1:112" ht="24" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -3347,7 +3389,9 @@
       <c r="F17" s="18">
         <v>270</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="18">
+        <v>270</v>
+      </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -3473,7 +3517,9 @@
       <c r="F18" s="23">
         <v>1012</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="18">
+        <v>895</v>
+      </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -3604,7 +3650,10 @@
         <f>SUM(F2:F18)</f>
         <v>17142</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="55">
+        <f>SUM(G2:G18)</f>
+        <v>14725</v>
+      </c>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
       <c r="J19" s="55"/>
@@ -5555,7 +5604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66642990-B574-1649-9655-48EDEBCA324A}">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>

--- a/experiments/data/mmlu_sta_0329.xlsx
+++ b/experiments/data/mmlu_sta_0329.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A5FAF2-F42B-1F4A-A774-476A84D94C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15EDB33-9054-A940-A17C-3E55B9554205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_mmlu_sta" sheetId="1" r:id="rId1"/>
-    <sheet name="trim_down_mmlu" sheetId="2" r:id="rId2"/>
-    <sheet name="evaluation_results_bk" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="eval_results_bk" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="eval_result" sheetId="5" r:id="rId5"/>
+    <sheet name="mmlu_pro_sta" sheetId="2" r:id="rId2"/>
+    <sheet name="ann_sta" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="ann_sta_display_0415" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="evaluation_results_bk" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="eval_results_bk" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="eval_result" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="116">
   <si>
     <t>college_biology</t>
   </si>
@@ -383,6 +385,50 @@
   </si>
   <si>
     <t>remove_image_question_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_issues_num_in_annotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before_adding_stemez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_no_issues_data_by_annotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issues_data_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_add_stemez_question_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_stem_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_stemez_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_no_issues_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issues_data_num_in_stemez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_issues_data_num_in_stemez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove_issues_by_annotation_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,6 +553,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,6 +710,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -792,12 +859,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF2600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1108,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
@@ -1938,64 +2040,71 @@
   <dimension ref="A1:DH45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="7" width="48.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" customWidth="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" s="57" customFormat="1" ht="43" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:112" s="58" customFormat="1" ht="43" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:112" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="H1" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="20">
         <v>454</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="20">
         <v>229</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="20">
         <v>229</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="20">
         <v>229</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="24">
         <v>1185</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="17">
         <v>832</v>
+      </c>
+      <c r="H2" s="19">
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:112" ht="24" customHeight="1">
@@ -2008,7 +2117,7 @@
       <c r="C3" s="11">
         <v>174</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="15">
         <v>248</v>
       </c>
       <c r="E3" s="11">
@@ -2017,159 +2126,167 @@
       <c r="F3" s="13">
         <v>1010</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="17">
         <v>966</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15"/>
-      <c r="BN3" s="15"/>
-      <c r="BO3" s="15"/>
-      <c r="BP3" s="15"/>
-      <c r="BQ3" s="15"/>
-      <c r="BR3" s="15"/>
-      <c r="BS3" s="15"/>
-      <c r="BT3" s="15"/>
-      <c r="BU3" s="15"/>
-      <c r="BV3" s="15"/>
-      <c r="BW3" s="15"/>
-      <c r="BX3" s="15"/>
-      <c r="BY3" s="15"/>
-      <c r="BZ3" s="15"/>
-      <c r="CA3" s="15"/>
-      <c r="CB3" s="15"/>
-      <c r="CC3" s="15"/>
-      <c r="CD3" s="15"/>
-      <c r="CE3" s="15"/>
-      <c r="CF3" s="15"/>
-      <c r="CG3" s="15"/>
-      <c r="CH3" s="15"/>
-      <c r="CI3" s="15"/>
-      <c r="CJ3" s="15"/>
-      <c r="CK3" s="15"/>
-      <c r="CL3" s="15"/>
-      <c r="CM3" s="15"/>
-      <c r="CN3" s="15"/>
-      <c r="CO3" s="15"/>
-      <c r="CP3" s="15"/>
-      <c r="CQ3" s="15"/>
-      <c r="CR3" s="15"/>
-      <c r="CS3" s="15"/>
-      <c r="CT3" s="15"/>
-      <c r="CU3" s="15"/>
-      <c r="CV3" s="15"/>
-      <c r="CW3" s="15"/>
-      <c r="CX3" s="15"/>
-      <c r="CY3" s="15"/>
-      <c r="CZ3" s="15"/>
-      <c r="DA3" s="15"/>
-      <c r="DB3" s="15"/>
-      <c r="DC3" s="15"/>
-      <c r="DD3" s="15"/>
-      <c r="DE3" s="15"/>
-      <c r="DF3" s="15"/>
-      <c r="DG3" s="15"/>
-      <c r="DH3" s="15"/>
-    </row>
-    <row r="4" spans="1:112" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="H3" s="19">
+        <v>824</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="16"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="16"/>
+      <c r="BU3" s="16"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="16"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="16"/>
+      <c r="CH3" s="16"/>
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="16"/>
+      <c r="CL3" s="16"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="16"/>
+      <c r="CP3" s="16"/>
+      <c r="CQ3" s="16"/>
+      <c r="CR3" s="16"/>
+      <c r="CS3" s="16"/>
+      <c r="CT3" s="16"/>
+      <c r="CU3" s="16"/>
+      <c r="CV3" s="16"/>
+      <c r="CW3" s="16"/>
+      <c r="CX3" s="16"/>
+      <c r="CY3" s="16"/>
+      <c r="CZ3" s="16"/>
+      <c r="DA3" s="16"/>
+      <c r="DB3" s="16"/>
+      <c r="DC3" s="16"/>
+      <c r="DD3" s="16"/>
+      <c r="DE3" s="16"/>
+      <c r="DF3" s="16"/>
+      <c r="DG3" s="16"/>
+      <c r="DH3" s="16"/>
+    </row>
+    <row r="4" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="17">
         <v>303</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>222</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>222</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>449</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="24">
         <v>1849</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="17">
         <v>1445</v>
       </c>
-    </row>
-    <row r="5" spans="1:112" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="H4" s="19">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="17">
         <v>412</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>285</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>361</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>361</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="24">
         <v>759</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="17">
         <v>659</v>
+      </c>
+      <c r="H5" s="19">
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:112" ht="24" customHeight="1">
@@ -2188,117 +2305,119 @@
       <c r="E6" s="11">
         <v>121</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="19">
         <v>121</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="63">
         <v>121</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
-      <c r="BG6" s="15"/>
-      <c r="BH6" s="15"/>
-      <c r="BI6" s="15"/>
-      <c r="BJ6" s="15"/>
-      <c r="BK6" s="15"/>
-      <c r="BL6" s="15"/>
-      <c r="BM6" s="15"/>
-      <c r="BN6" s="15"/>
-      <c r="BO6" s="15"/>
-      <c r="BP6" s="15"/>
-      <c r="BQ6" s="15"/>
-      <c r="BR6" s="15"/>
-      <c r="BS6" s="15"/>
-      <c r="BT6" s="15"/>
-      <c r="BU6" s="15"/>
-      <c r="BV6" s="15"/>
-      <c r="BW6" s="15"/>
-      <c r="BX6" s="15"/>
-      <c r="BY6" s="15"/>
-      <c r="BZ6" s="15"/>
-      <c r="CA6" s="15"/>
-      <c r="CB6" s="15"/>
-      <c r="CC6" s="15"/>
-      <c r="CD6" s="15"/>
-      <c r="CE6" s="15"/>
-      <c r="CF6" s="15"/>
-      <c r="CG6" s="15"/>
-      <c r="CH6" s="15"/>
-      <c r="CI6" s="15"/>
-      <c r="CJ6" s="15"/>
-      <c r="CK6" s="15"/>
-      <c r="CL6" s="15"/>
-      <c r="CM6" s="15"/>
-      <c r="CN6" s="15"/>
-      <c r="CO6" s="15"/>
-      <c r="CP6" s="15"/>
-      <c r="CQ6" s="15"/>
-      <c r="CR6" s="15"/>
-      <c r="CS6" s="15"/>
-      <c r="CT6" s="15"/>
-      <c r="CU6" s="15"/>
-      <c r="CV6" s="15"/>
-      <c r="CW6" s="15"/>
-      <c r="CX6" s="15"/>
-      <c r="CY6" s="15"/>
-      <c r="CZ6" s="15"/>
-      <c r="DA6" s="15"/>
-      <c r="DB6" s="15"/>
-      <c r="DC6" s="15"/>
-      <c r="DD6" s="15"/>
-      <c r="DE6" s="15"/>
-      <c r="DF6" s="15"/>
-      <c r="DG6" s="15"/>
-      <c r="DH6" s="15"/>
+      <c r="H6" s="19">
+        <v>121</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="16"/>
+      <c r="BK6" s="16"/>
+      <c r="BL6" s="16"/>
+      <c r="BM6" s="16"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="16"/>
+      <c r="BP6" s="16"/>
+      <c r="BQ6" s="16"/>
+      <c r="BR6" s="16"/>
+      <c r="BS6" s="16"/>
+      <c r="BT6" s="16"/>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="16"/>
+      <c r="BW6" s="16"/>
+      <c r="BX6" s="16"/>
+      <c r="BY6" s="16"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="16"/>
+      <c r="CW6" s="16"/>
+      <c r="CX6" s="16"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="16"/>
+      <c r="DA6" s="16"/>
+      <c r="DB6" s="16"/>
+      <c r="DC6" s="16"/>
+      <c r="DD6" s="16"/>
+      <c r="DE6" s="16"/>
+      <c r="DF6" s="16"/>
+      <c r="DG6" s="16"/>
+      <c r="DH6" s="16"/>
     </row>
     <row r="7" spans="1:112" ht="24" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -2316,139 +2435,144 @@
       <c r="E7" s="11">
         <v>467</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="24">
         <v>1096</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="19">
         <v>1012</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="15"/>
-      <c r="BG7" s="15"/>
-      <c r="BH7" s="15"/>
-      <c r="BI7" s="15"/>
-      <c r="BJ7" s="15"/>
-      <c r="BK7" s="15"/>
-      <c r="BL7" s="15"/>
-      <c r="BM7" s="15"/>
-      <c r="BN7" s="15"/>
-      <c r="BO7" s="15"/>
-      <c r="BP7" s="15"/>
-      <c r="BQ7" s="15"/>
-      <c r="BR7" s="15"/>
-      <c r="BS7" s="15"/>
-      <c r="BT7" s="15"/>
-      <c r="BU7" s="15"/>
-      <c r="BV7" s="15"/>
-      <c r="BW7" s="15"/>
-      <c r="BX7" s="15"/>
-      <c r="BY7" s="15"/>
-      <c r="BZ7" s="15"/>
-      <c r="CA7" s="15"/>
-      <c r="CB7" s="15"/>
-      <c r="CC7" s="15"/>
-      <c r="CD7" s="15"/>
-      <c r="CE7" s="15"/>
-      <c r="CF7" s="15"/>
-      <c r="CG7" s="15"/>
-      <c r="CH7" s="15"/>
-      <c r="CI7" s="15"/>
-      <c r="CJ7" s="15"/>
-      <c r="CK7" s="15"/>
-      <c r="CL7" s="15"/>
-      <c r="CM7" s="15"/>
-      <c r="CN7" s="15"/>
-      <c r="CO7" s="15"/>
-      <c r="CP7" s="15"/>
-      <c r="CQ7" s="15"/>
-      <c r="CR7" s="15"/>
-      <c r="CS7" s="15"/>
-      <c r="CT7" s="15"/>
-      <c r="CU7" s="15"/>
-      <c r="CV7" s="15"/>
-      <c r="CW7" s="15"/>
-      <c r="CX7" s="15"/>
-      <c r="CY7" s="15"/>
-      <c r="CZ7" s="15"/>
-      <c r="DA7" s="15"/>
-      <c r="DB7" s="15"/>
-      <c r="DC7" s="15"/>
-      <c r="DD7" s="15"/>
-      <c r="DE7" s="15"/>
-      <c r="DF7" s="15"/>
-      <c r="DG7" s="15"/>
-      <c r="DH7" s="15"/>
-    </row>
-    <row r="8" spans="1:112" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="H7" s="19">
+        <v>890</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="16"/>
+      <c r="BT7" s="16"/>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="16"/>
+      <c r="BW7" s="16"/>
+      <c r="BX7" s="16"/>
+      <c r="BY7" s="16"/>
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
+      <c r="CP7" s="16"/>
+      <c r="CQ7" s="16"/>
+      <c r="CR7" s="16"/>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="16"/>
+      <c r="CU7" s="16"/>
+      <c r="CV7" s="16"/>
+      <c r="CW7" s="16"/>
+      <c r="CX7" s="16"/>
+      <c r="CY7" s="16"/>
+      <c r="CZ7" s="16"/>
+      <c r="DA7" s="16"/>
+      <c r="DB7" s="16"/>
+      <c r="DC7" s="16"/>
+      <c r="DD7" s="16"/>
+      <c r="DE7" s="16"/>
+      <c r="DF7" s="16"/>
+      <c r="DG7" s="16"/>
+      <c r="DH7" s="16"/>
+    </row>
+    <row r="8" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <v>145</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="22">
         <v>90</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>90</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="22">
         <v>90</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="24">
         <v>2024</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="19">
         <v>1331</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1010</v>
       </c>
     </row>
     <row r="9" spans="1:112" ht="24" customHeight="1">
@@ -2467,117 +2591,119 @@
       <c r="E9" s="3">
         <v>79</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="19">
         <v>79</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="64">
         <v>79</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15"/>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="15"/>
-      <c r="BK9" s="15"/>
-      <c r="BL9" s="15"/>
-      <c r="BM9" s="15"/>
-      <c r="BN9" s="15"/>
-      <c r="BO9" s="15"/>
-      <c r="BP9" s="15"/>
-      <c r="BQ9" s="15"/>
-      <c r="BR9" s="15"/>
-      <c r="BS9" s="15"/>
-      <c r="BT9" s="15"/>
-      <c r="BU9" s="15"/>
-      <c r="BV9" s="15"/>
-      <c r="BW9" s="15"/>
-      <c r="BX9" s="15"/>
-      <c r="BY9" s="15"/>
-      <c r="BZ9" s="15"/>
-      <c r="CA9" s="15"/>
-      <c r="CB9" s="15"/>
-      <c r="CC9" s="15"/>
-      <c r="CD9" s="15"/>
-      <c r="CE9" s="15"/>
-      <c r="CF9" s="15"/>
-      <c r="CG9" s="15"/>
-      <c r="CH9" s="15"/>
-      <c r="CI9" s="15"/>
-      <c r="CJ9" s="15"/>
-      <c r="CK9" s="15"/>
-      <c r="CL9" s="15"/>
-      <c r="CM9" s="15"/>
-      <c r="CN9" s="15"/>
-      <c r="CO9" s="15"/>
-      <c r="CP9" s="15"/>
-      <c r="CQ9" s="15"/>
-      <c r="CR9" s="15"/>
-      <c r="CS9" s="15"/>
-      <c r="CT9" s="15"/>
-      <c r="CU9" s="15"/>
-      <c r="CV9" s="15"/>
-      <c r="CW9" s="15"/>
-      <c r="CX9" s="15"/>
-      <c r="CY9" s="15"/>
-      <c r="CZ9" s="15"/>
-      <c r="DA9" s="15"/>
-      <c r="DB9" s="15"/>
-      <c r="DC9" s="15"/>
-      <c r="DD9" s="15"/>
-      <c r="DE9" s="15"/>
-      <c r="DF9" s="15"/>
-      <c r="DG9" s="15"/>
-      <c r="DH9" s="15"/>
+      <c r="H9" s="19">
+        <v>79</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16"/>
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16"/>
+      <c r="CR9" s="16"/>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="16"/>
+      <c r="CU9" s="16"/>
+      <c r="CV9" s="16"/>
+      <c r="CW9" s="16"/>
+      <c r="CX9" s="16"/>
+      <c r="CY9" s="16"/>
+      <c r="CZ9" s="16"/>
+      <c r="DA9" s="16"/>
+      <c r="DB9" s="16"/>
+      <c r="DC9" s="16"/>
+      <c r="DD9" s="16"/>
+      <c r="DE9" s="16"/>
+      <c r="DF9" s="16"/>
+      <c r="DG9" s="16"/>
+      <c r="DH9" s="16"/>
     </row>
     <row r="10" spans="1:112" ht="24" customHeight="1">
       <c r="A10" s="11" t="s">
@@ -2595,117 +2721,119 @@
       <c r="E10" s="11">
         <v>881</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="19">
         <v>881</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="19">
         <v>881</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="15"/>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="15"/>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="15"/>
-      <c r="BK10" s="15"/>
-      <c r="BL10" s="15"/>
-      <c r="BM10" s="15"/>
-      <c r="BN10" s="15"/>
-      <c r="BO10" s="15"/>
-      <c r="BP10" s="15"/>
-      <c r="BQ10" s="15"/>
-      <c r="BR10" s="15"/>
-      <c r="BS10" s="15"/>
-      <c r="BT10" s="15"/>
-      <c r="BU10" s="15"/>
-      <c r="BV10" s="15"/>
-      <c r="BW10" s="15"/>
-      <c r="BX10" s="15"/>
-      <c r="BY10" s="15"/>
-      <c r="BZ10" s="15"/>
-      <c r="CA10" s="15"/>
-      <c r="CB10" s="15"/>
-      <c r="CC10" s="15"/>
-      <c r="CD10" s="15"/>
-      <c r="CE10" s="15"/>
-      <c r="CF10" s="15"/>
-      <c r="CG10" s="15"/>
-      <c r="CH10" s="15"/>
-      <c r="CI10" s="15"/>
-      <c r="CJ10" s="15"/>
-      <c r="CK10" s="15"/>
-      <c r="CL10" s="15"/>
-      <c r="CM10" s="15"/>
-      <c r="CN10" s="15"/>
-      <c r="CO10" s="15"/>
-      <c r="CP10" s="15"/>
-      <c r="CQ10" s="15"/>
-      <c r="CR10" s="15"/>
-      <c r="CS10" s="15"/>
-      <c r="CT10" s="15"/>
-      <c r="CU10" s="15"/>
-      <c r="CV10" s="15"/>
-      <c r="CW10" s="15"/>
-      <c r="CX10" s="15"/>
-      <c r="CY10" s="15"/>
-      <c r="CZ10" s="15"/>
-      <c r="DA10" s="15"/>
-      <c r="DB10" s="15"/>
-      <c r="DC10" s="15"/>
-      <c r="DD10" s="15"/>
-      <c r="DE10" s="15"/>
-      <c r="DF10" s="15"/>
-      <c r="DG10" s="15"/>
-      <c r="DH10" s="15"/>
+      <c r="H10" s="19">
+        <v>881</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="16"/>
+      <c r="BQ10" s="16"/>
+      <c r="BR10" s="16"/>
+      <c r="BS10" s="16"/>
+      <c r="BT10" s="16"/>
+      <c r="BU10" s="16"/>
+      <c r="BV10" s="16"/>
+      <c r="BW10" s="16"/>
+      <c r="BX10" s="16"/>
+      <c r="BY10" s="16"/>
+      <c r="BZ10" s="16"/>
+      <c r="CA10" s="16"/>
+      <c r="CB10" s="16"/>
+      <c r="CC10" s="16"/>
+      <c r="CD10" s="16"/>
+      <c r="CE10" s="16"/>
+      <c r="CF10" s="16"/>
+      <c r="CG10" s="16"/>
+      <c r="CH10" s="16"/>
+      <c r="CI10" s="16"/>
+      <c r="CJ10" s="16"/>
+      <c r="CK10" s="16"/>
+      <c r="CL10" s="16"/>
+      <c r="CM10" s="16"/>
+      <c r="CN10" s="16"/>
+      <c r="CO10" s="16"/>
+      <c r="CP10" s="16"/>
+      <c r="CQ10" s="16"/>
+      <c r="CR10" s="16"/>
+      <c r="CS10" s="16"/>
+      <c r="CT10" s="16"/>
+      <c r="CU10" s="16"/>
+      <c r="CV10" s="16"/>
+      <c r="CW10" s="16"/>
+      <c r="CX10" s="16"/>
+      <c r="CY10" s="16"/>
+      <c r="CZ10" s="16"/>
+      <c r="DA10" s="16"/>
+      <c r="DB10" s="16"/>
+      <c r="DC10" s="16"/>
+      <c r="DD10" s="16"/>
+      <c r="DE10" s="16"/>
+      <c r="DF10" s="16"/>
+      <c r="DG10" s="16"/>
+      <c r="DH10" s="16"/>
     </row>
     <row r="11" spans="1:112" ht="24" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -2723,117 +2851,119 @@
       <c r="E11" s="11">
         <v>404</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="19">
         <v>404</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="64">
         <v>404</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="15"/>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15"/>
-      <c r="BE11" s="15"/>
-      <c r="BF11" s="15"/>
-      <c r="BG11" s="15"/>
-      <c r="BH11" s="15"/>
-      <c r="BI11" s="15"/>
-      <c r="BJ11" s="15"/>
-      <c r="BK11" s="15"/>
-      <c r="BL11" s="15"/>
-      <c r="BM11" s="15"/>
-      <c r="BN11" s="15"/>
-      <c r="BO11" s="15"/>
-      <c r="BP11" s="15"/>
-      <c r="BQ11" s="15"/>
-      <c r="BR11" s="15"/>
-      <c r="BS11" s="15"/>
-      <c r="BT11" s="15"/>
-      <c r="BU11" s="15"/>
-      <c r="BV11" s="15"/>
-      <c r="BW11" s="15"/>
-      <c r="BX11" s="15"/>
-      <c r="BY11" s="15"/>
-      <c r="BZ11" s="15"/>
-      <c r="CA11" s="15"/>
-      <c r="CB11" s="15"/>
-      <c r="CC11" s="15"/>
-      <c r="CD11" s="15"/>
-      <c r="CE11" s="15"/>
-      <c r="CF11" s="15"/>
-      <c r="CG11" s="15"/>
-      <c r="CH11" s="15"/>
-      <c r="CI11" s="15"/>
-      <c r="CJ11" s="15"/>
-      <c r="CK11" s="15"/>
-      <c r="CL11" s="15"/>
-      <c r="CM11" s="15"/>
-      <c r="CN11" s="15"/>
-      <c r="CO11" s="15"/>
-      <c r="CP11" s="15"/>
-      <c r="CQ11" s="15"/>
-      <c r="CR11" s="15"/>
-      <c r="CS11" s="15"/>
-      <c r="CT11" s="15"/>
-      <c r="CU11" s="15"/>
-      <c r="CV11" s="15"/>
-      <c r="CW11" s="15"/>
-      <c r="CX11" s="15"/>
-      <c r="CY11" s="15"/>
-      <c r="CZ11" s="15"/>
-      <c r="DA11" s="15"/>
-      <c r="DB11" s="15"/>
-      <c r="DC11" s="15"/>
-      <c r="DD11" s="15"/>
-      <c r="DE11" s="15"/>
-      <c r="DF11" s="15"/>
-      <c r="DG11" s="15"/>
-      <c r="DH11" s="15"/>
+      <c r="H11" s="19">
+        <v>404</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16"/>
+      <c r="BI11" s="16"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="16"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="16"/>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
+      <c r="BR11" s="16"/>
+      <c r="BS11" s="16"/>
+      <c r="BT11" s="16"/>
+      <c r="BU11" s="16"/>
+      <c r="BV11" s="16"/>
+      <c r="BW11" s="16"/>
+      <c r="BX11" s="16"/>
+      <c r="BY11" s="16"/>
+      <c r="BZ11" s="16"/>
+      <c r="CA11" s="16"/>
+      <c r="CB11" s="16"/>
+      <c r="CC11" s="16"/>
+      <c r="CD11" s="16"/>
+      <c r="CE11" s="16"/>
+      <c r="CF11" s="16"/>
+      <c r="CG11" s="16"/>
+      <c r="CH11" s="16"/>
+      <c r="CI11" s="16"/>
+      <c r="CJ11" s="16"/>
+      <c r="CK11" s="16"/>
+      <c r="CL11" s="16"/>
+      <c r="CM11" s="16"/>
+      <c r="CN11" s="16"/>
+      <c r="CO11" s="16"/>
+      <c r="CP11" s="16"/>
+      <c r="CQ11" s="16"/>
+      <c r="CR11" s="16"/>
+      <c r="CS11" s="16"/>
+      <c r="CT11" s="16"/>
+      <c r="CU11" s="16"/>
+      <c r="CV11" s="16"/>
+      <c r="CW11" s="16"/>
+      <c r="CX11" s="16"/>
+      <c r="CY11" s="16"/>
+      <c r="CZ11" s="16"/>
+      <c r="DA11" s="16"/>
+      <c r="DB11" s="16"/>
+      <c r="DC11" s="16"/>
+      <c r="DD11" s="16"/>
+      <c r="DE11" s="16"/>
+      <c r="DF11" s="16"/>
+      <c r="DG11" s="16"/>
+      <c r="DH11" s="16"/>
     </row>
     <row r="12" spans="1:112" ht="24" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -2851,117 +2981,119 @@
       <c r="E12" s="11">
         <v>1140</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="19">
         <v>1140</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="19">
         <v>1140</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="15"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15"/>
-      <c r="BE12" s="15"/>
-      <c r="BF12" s="15"/>
-      <c r="BG12" s="15"/>
-      <c r="BH12" s="15"/>
-      <c r="BI12" s="15"/>
-      <c r="BJ12" s="15"/>
-      <c r="BK12" s="15"/>
-      <c r="BL12" s="15"/>
-      <c r="BM12" s="15"/>
-      <c r="BN12" s="15"/>
-      <c r="BO12" s="15"/>
-      <c r="BP12" s="15"/>
-      <c r="BQ12" s="15"/>
-      <c r="BR12" s="15"/>
-      <c r="BS12" s="15"/>
-      <c r="BT12" s="15"/>
-      <c r="BU12" s="15"/>
-      <c r="BV12" s="15"/>
-      <c r="BW12" s="15"/>
-      <c r="BX12" s="15"/>
-      <c r="BY12" s="15"/>
-      <c r="BZ12" s="15"/>
-      <c r="CA12" s="15"/>
-      <c r="CB12" s="15"/>
-      <c r="CC12" s="15"/>
-      <c r="CD12" s="15"/>
-      <c r="CE12" s="15"/>
-      <c r="CF12" s="15"/>
-      <c r="CG12" s="15"/>
-      <c r="CH12" s="15"/>
-      <c r="CI12" s="15"/>
-      <c r="CJ12" s="15"/>
-      <c r="CK12" s="15"/>
-      <c r="CL12" s="15"/>
-      <c r="CM12" s="15"/>
-      <c r="CN12" s="15"/>
-      <c r="CO12" s="15"/>
-      <c r="CP12" s="15"/>
-      <c r="CQ12" s="15"/>
-      <c r="CR12" s="15"/>
-      <c r="CS12" s="15"/>
-      <c r="CT12" s="15"/>
-      <c r="CU12" s="15"/>
-      <c r="CV12" s="15"/>
-      <c r="CW12" s="15"/>
-      <c r="CX12" s="15"/>
-      <c r="CY12" s="15"/>
-      <c r="CZ12" s="15"/>
-      <c r="DA12" s="15"/>
-      <c r="DB12" s="15"/>
-      <c r="DC12" s="15"/>
-      <c r="DD12" s="15"/>
-      <c r="DE12" s="15"/>
-      <c r="DF12" s="15"/>
-      <c r="DG12" s="15"/>
-      <c r="DH12" s="15"/>
+      <c r="H12" s="19">
+        <v>1140</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="16"/>
+      <c r="BK12" s="16"/>
+      <c r="BL12" s="16"/>
+      <c r="BM12" s="16"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="16"/>
+      <c r="BT12" s="16"/>
+      <c r="BU12" s="16"/>
+      <c r="BV12" s="16"/>
+      <c r="BW12" s="16"/>
+      <c r="BX12" s="16"/>
+      <c r="BY12" s="16"/>
+      <c r="BZ12" s="16"/>
+      <c r="CA12" s="16"/>
+      <c r="CB12" s="16"/>
+      <c r="CC12" s="16"/>
+      <c r="CD12" s="16"/>
+      <c r="CE12" s="16"/>
+      <c r="CF12" s="16"/>
+      <c r="CG12" s="16"/>
+      <c r="CH12" s="16"/>
+      <c r="CI12" s="16"/>
+      <c r="CJ12" s="16"/>
+      <c r="CK12" s="16"/>
+      <c r="CL12" s="16"/>
+      <c r="CM12" s="16"/>
+      <c r="CN12" s="16"/>
+      <c r="CO12" s="16"/>
+      <c r="CP12" s="16"/>
+      <c r="CQ12" s="16"/>
+      <c r="CR12" s="16"/>
+      <c r="CS12" s="16"/>
+      <c r="CT12" s="16"/>
+      <c r="CU12" s="16"/>
+      <c r="CV12" s="16"/>
+      <c r="CW12" s="16"/>
+      <c r="CX12" s="16"/>
+      <c r="CY12" s="16"/>
+      <c r="CZ12" s="16"/>
+      <c r="DA12" s="16"/>
+      <c r="DB12" s="16"/>
+      <c r="DC12" s="16"/>
+      <c r="DD12" s="16"/>
+      <c r="DE12" s="16"/>
+      <c r="DF12" s="16"/>
+      <c r="DG12" s="16"/>
+      <c r="DH12" s="16"/>
     </row>
     <row r="13" spans="1:112" ht="24" customHeight="1">
       <c r="A13" s="11" t="s">
@@ -2973,123 +3105,125 @@
       <c r="C13" s="11">
         <v>891</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="15">
         <v>1238</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="23">
         <v>1402</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="24">
         <v>1397</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="19">
         <v>1397</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
-      <c r="BF13" s="15"/>
-      <c r="BG13" s="15"/>
-      <c r="BH13" s="15"/>
-      <c r="BI13" s="15"/>
-      <c r="BJ13" s="15"/>
-      <c r="BK13" s="15"/>
-      <c r="BL13" s="15"/>
-      <c r="BM13" s="15"/>
-      <c r="BN13" s="15"/>
-      <c r="BO13" s="15"/>
-      <c r="BP13" s="15"/>
-      <c r="BQ13" s="15"/>
-      <c r="BR13" s="15"/>
-      <c r="BS13" s="15"/>
-      <c r="BT13" s="15"/>
-      <c r="BU13" s="15"/>
-      <c r="BV13" s="15"/>
-      <c r="BW13" s="15"/>
-      <c r="BX13" s="15"/>
-      <c r="BY13" s="15"/>
-      <c r="BZ13" s="15"/>
-      <c r="CA13" s="15"/>
-      <c r="CB13" s="15"/>
-      <c r="CC13" s="15"/>
-      <c r="CD13" s="15"/>
-      <c r="CE13" s="15"/>
-      <c r="CF13" s="15"/>
-      <c r="CG13" s="15"/>
-      <c r="CH13" s="15"/>
-      <c r="CI13" s="15"/>
-      <c r="CJ13" s="15"/>
-      <c r="CK13" s="15"/>
-      <c r="CL13" s="15"/>
-      <c r="CM13" s="15"/>
-      <c r="CN13" s="15"/>
-      <c r="CO13" s="15"/>
-      <c r="CP13" s="15"/>
-      <c r="CQ13" s="15"/>
-      <c r="CR13" s="15"/>
-      <c r="CS13" s="15"/>
-      <c r="CT13" s="15"/>
-      <c r="CU13" s="15"/>
-      <c r="CV13" s="15"/>
-      <c r="CW13" s="15"/>
-      <c r="CX13" s="15"/>
-      <c r="CY13" s="15"/>
-      <c r="CZ13" s="15"/>
-      <c r="DA13" s="15"/>
-      <c r="DB13" s="15"/>
-      <c r="DC13" s="15"/>
-      <c r="DD13" s="15"/>
-      <c r="DE13" s="15"/>
-      <c r="DF13" s="15"/>
-      <c r="DG13" s="15"/>
-      <c r="DH13" s="15"/>
+      <c r="H13" s="19">
+        <v>1397</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="16"/>
+      <c r="BQ13" s="16"/>
+      <c r="BR13" s="16"/>
+      <c r="BS13" s="16"/>
+      <c r="BT13" s="16"/>
+      <c r="BU13" s="16"/>
+      <c r="BV13" s="16"/>
+      <c r="BW13" s="16"/>
+      <c r="BX13" s="16"/>
+      <c r="BY13" s="16"/>
+      <c r="BZ13" s="16"/>
+      <c r="CA13" s="16"/>
+      <c r="CB13" s="16"/>
+      <c r="CC13" s="16"/>
+      <c r="CD13" s="16"/>
+      <c r="CE13" s="16"/>
+      <c r="CF13" s="16"/>
+      <c r="CG13" s="16"/>
+      <c r="CH13" s="16"/>
+      <c r="CI13" s="16"/>
+      <c r="CJ13" s="16"/>
+      <c r="CK13" s="16"/>
+      <c r="CL13" s="16"/>
+      <c r="CM13" s="16"/>
+      <c r="CN13" s="16"/>
+      <c r="CO13" s="16"/>
+      <c r="CP13" s="16"/>
+      <c r="CQ13" s="16"/>
+      <c r="CR13" s="16"/>
+      <c r="CS13" s="16"/>
+      <c r="CT13" s="16"/>
+      <c r="CU13" s="16"/>
+      <c r="CV13" s="16"/>
+      <c r="CW13" s="16"/>
+      <c r="CX13" s="16"/>
+      <c r="CY13" s="16"/>
+      <c r="CZ13" s="16"/>
+      <c r="DA13" s="16"/>
+      <c r="DB13" s="16"/>
+      <c r="DC13" s="16"/>
+      <c r="DD13" s="16"/>
+      <c r="DE13" s="16"/>
+      <c r="DF13" s="16"/>
+      <c r="DG13" s="16"/>
+      <c r="DH13" s="16"/>
     </row>
     <row r="14" spans="1:112" ht="24" customHeight="1">
       <c r="A14" s="11" t="s">
@@ -3107,117 +3241,119 @@
       <c r="E14" s="11">
         <v>569</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="19">
         <v>569</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="64">
         <v>569</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="15"/>
-      <c r="AZ14" s="15"/>
-      <c r="BA14" s="15"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="15"/>
-      <c r="BD14" s="15"/>
-      <c r="BE14" s="15"/>
-      <c r="BF14" s="15"/>
-      <c r="BG14" s="15"/>
-      <c r="BH14" s="15"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="15"/>
-      <c r="BK14" s="15"/>
-      <c r="BL14" s="15"/>
-      <c r="BM14" s="15"/>
-      <c r="BN14" s="15"/>
-      <c r="BO14" s="15"/>
-      <c r="BP14" s="15"/>
-      <c r="BQ14" s="15"/>
-      <c r="BR14" s="15"/>
-      <c r="BS14" s="15"/>
-      <c r="BT14" s="15"/>
-      <c r="BU14" s="15"/>
-      <c r="BV14" s="15"/>
-      <c r="BW14" s="15"/>
-      <c r="BX14" s="15"/>
-      <c r="BY14" s="15"/>
-      <c r="BZ14" s="15"/>
-      <c r="CA14" s="15"/>
-      <c r="CB14" s="15"/>
-      <c r="CC14" s="15"/>
-      <c r="CD14" s="15"/>
-      <c r="CE14" s="15"/>
-      <c r="CF14" s="15"/>
-      <c r="CG14" s="15"/>
-      <c r="CH14" s="15"/>
-      <c r="CI14" s="15"/>
-      <c r="CJ14" s="15"/>
-      <c r="CK14" s="15"/>
-      <c r="CL14" s="15"/>
-      <c r="CM14" s="15"/>
-      <c r="CN14" s="15"/>
-      <c r="CO14" s="15"/>
-      <c r="CP14" s="15"/>
-      <c r="CQ14" s="15"/>
-      <c r="CR14" s="15"/>
-      <c r="CS14" s="15"/>
-      <c r="CT14" s="15"/>
-      <c r="CU14" s="15"/>
-      <c r="CV14" s="15"/>
-      <c r="CW14" s="15"/>
-      <c r="CX14" s="15"/>
-      <c r="CY14" s="15"/>
-      <c r="CZ14" s="15"/>
-      <c r="DA14" s="15"/>
-      <c r="DB14" s="15"/>
-      <c r="DC14" s="15"/>
-      <c r="DD14" s="15"/>
-      <c r="DE14" s="15"/>
-      <c r="DF14" s="15"/>
-      <c r="DG14" s="15"/>
-      <c r="DH14" s="15"/>
+      <c r="H14" s="19">
+        <v>569</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="16"/>
+      <c r="BQ14" s="16"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="16"/>
+      <c r="BT14" s="16"/>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="16"/>
+      <c r="BW14" s="16"/>
+      <c r="BX14" s="16"/>
+      <c r="BY14" s="16"/>
+      <c r="BZ14" s="16"/>
+      <c r="CA14" s="16"/>
+      <c r="CB14" s="16"/>
+      <c r="CC14" s="16"/>
+      <c r="CD14" s="16"/>
+      <c r="CE14" s="16"/>
+      <c r="CF14" s="16"/>
+      <c r="CG14" s="16"/>
+      <c r="CH14" s="16"/>
+      <c r="CI14" s="16"/>
+      <c r="CJ14" s="16"/>
+      <c r="CK14" s="16"/>
+      <c r="CL14" s="16"/>
+      <c r="CM14" s="16"/>
+      <c r="CN14" s="16"/>
+      <c r="CO14" s="16"/>
+      <c r="CP14" s="16"/>
+      <c r="CQ14" s="16"/>
+      <c r="CR14" s="16"/>
+      <c r="CS14" s="16"/>
+      <c r="CT14" s="16"/>
+      <c r="CU14" s="16"/>
+      <c r="CV14" s="16"/>
+      <c r="CW14" s="16"/>
+      <c r="CX14" s="16"/>
+      <c r="CY14" s="16"/>
+      <c r="CZ14" s="16"/>
+      <c r="DA14" s="16"/>
+      <c r="DB14" s="16"/>
+      <c r="DC14" s="16"/>
+      <c r="DD14" s="16"/>
+      <c r="DE14" s="16"/>
+      <c r="DF14" s="16"/>
+      <c r="DG14" s="16"/>
+      <c r="DH14" s="16"/>
     </row>
     <row r="15" spans="1:112" ht="24" customHeight="1">
       <c r="A15" s="11" t="s">
@@ -3235,139 +3371,144 @@
       <c r="E15" s="11">
         <v>1248</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="19">
         <v>1248</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="19">
         <v>1248</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="15"/>
-      <c r="AU15" s="15"/>
-      <c r="AV15" s="15"/>
-      <c r="AW15" s="15"/>
-      <c r="AX15" s="15"/>
-      <c r="AY15" s="15"/>
-      <c r="AZ15" s="15"/>
-      <c r="BA15" s="15"/>
-      <c r="BB15" s="15"/>
-      <c r="BC15" s="15"/>
-      <c r="BD15" s="15"/>
-      <c r="BE15" s="15"/>
-      <c r="BF15" s="15"/>
-      <c r="BG15" s="15"/>
-      <c r="BH15" s="15"/>
-      <c r="BI15" s="15"/>
-      <c r="BJ15" s="15"/>
-      <c r="BK15" s="15"/>
-      <c r="BL15" s="15"/>
-      <c r="BM15" s="15"/>
-      <c r="BN15" s="15"/>
-      <c r="BO15" s="15"/>
-      <c r="BP15" s="15"/>
-      <c r="BQ15" s="15"/>
-      <c r="BR15" s="15"/>
-      <c r="BS15" s="15"/>
-      <c r="BT15" s="15"/>
-      <c r="BU15" s="15"/>
-      <c r="BV15" s="15"/>
-      <c r="BW15" s="15"/>
-      <c r="BX15" s="15"/>
-      <c r="BY15" s="15"/>
-      <c r="BZ15" s="15"/>
-      <c r="CA15" s="15"/>
-      <c r="CB15" s="15"/>
-      <c r="CC15" s="15"/>
-      <c r="CD15" s="15"/>
-      <c r="CE15" s="15"/>
-      <c r="CF15" s="15"/>
-      <c r="CG15" s="15"/>
-      <c r="CH15" s="15"/>
-      <c r="CI15" s="15"/>
-      <c r="CJ15" s="15"/>
-      <c r="CK15" s="15"/>
-      <c r="CL15" s="15"/>
-      <c r="CM15" s="15"/>
-      <c r="CN15" s="15"/>
-      <c r="CO15" s="15"/>
-      <c r="CP15" s="15"/>
-      <c r="CQ15" s="15"/>
-      <c r="CR15" s="15"/>
-      <c r="CS15" s="15"/>
-      <c r="CT15" s="15"/>
-      <c r="CU15" s="15"/>
-      <c r="CV15" s="15"/>
-      <c r="CW15" s="15"/>
-      <c r="CX15" s="15"/>
-      <c r="CY15" s="15"/>
-      <c r="CZ15" s="15"/>
-      <c r="DA15" s="15"/>
-      <c r="DB15" s="15"/>
-      <c r="DC15" s="15"/>
-      <c r="DD15" s="15"/>
-      <c r="DE15" s="15"/>
-      <c r="DF15" s="15"/>
-      <c r="DG15" s="15"/>
-      <c r="DH15" s="15"/>
-    </row>
-    <row r="16" spans="1:112" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="16" t="s">
+      <c r="H15" s="19">
+        <v>1248</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="16"/>
+      <c r="BF15" s="16"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="16"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="16"/>
+      <c r="BK15" s="16"/>
+      <c r="BL15" s="16"/>
+      <c r="BM15" s="16"/>
+      <c r="BN15" s="16"/>
+      <c r="BO15" s="16"/>
+      <c r="BP15" s="16"/>
+      <c r="BQ15" s="16"/>
+      <c r="BR15" s="16"/>
+      <c r="BS15" s="16"/>
+      <c r="BT15" s="16"/>
+      <c r="BU15" s="16"/>
+      <c r="BV15" s="16"/>
+      <c r="BW15" s="16"/>
+      <c r="BX15" s="16"/>
+      <c r="BY15" s="16"/>
+      <c r="BZ15" s="16"/>
+      <c r="CA15" s="16"/>
+      <c r="CB15" s="16"/>
+      <c r="CC15" s="16"/>
+      <c r="CD15" s="16"/>
+      <c r="CE15" s="16"/>
+      <c r="CF15" s="16"/>
+      <c r="CG15" s="16"/>
+      <c r="CH15" s="16"/>
+      <c r="CI15" s="16"/>
+      <c r="CJ15" s="16"/>
+      <c r="CK15" s="16"/>
+      <c r="CL15" s="16"/>
+      <c r="CM15" s="16"/>
+      <c r="CN15" s="16"/>
+      <c r="CO15" s="16"/>
+      <c r="CP15" s="16"/>
+      <c r="CQ15" s="16"/>
+      <c r="CR15" s="16"/>
+      <c r="CS15" s="16"/>
+      <c r="CT15" s="16"/>
+      <c r="CU15" s="16"/>
+      <c r="CV15" s="16"/>
+      <c r="CW15" s="16"/>
+      <c r="CX15" s="16"/>
+      <c r="CY15" s="16"/>
+      <c r="CZ15" s="16"/>
+      <c r="DA15" s="16"/>
+      <c r="DB15" s="16"/>
+      <c r="DC15" s="16"/>
+      <c r="DD15" s="16"/>
+      <c r="DE15" s="16"/>
+      <c r="DF15" s="16"/>
+      <c r="DG15" s="16"/>
+      <c r="DH15" s="16"/>
+    </row>
+    <row r="16" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="17">
         <v>629</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="17">
         <v>460</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="17">
         <v>567</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="23">
         <v>753</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="24">
         <v>2098</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1476</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1386</v>
       </c>
     </row>
     <row r="17" spans="1:112" ht="24" customHeight="1">
@@ -3386,117 +3527,119 @@
       <c r="E17" s="11">
         <v>270</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>270</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="64">
         <v>270</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-      <c r="AN17" s="15"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="15"/>
-      <c r="AR17" s="15"/>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="15"/>
-      <c r="AV17" s="15"/>
-      <c r="AW17" s="15"/>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="15"/>
-      <c r="AZ17" s="15"/>
-      <c r="BA17" s="15"/>
-      <c r="BB17" s="15"/>
-      <c r="BC17" s="15"/>
-      <c r="BD17" s="15"/>
-      <c r="BE17" s="15"/>
-      <c r="BF17" s="15"/>
-      <c r="BG17" s="15"/>
-      <c r="BH17" s="15"/>
-      <c r="BI17" s="15"/>
-      <c r="BJ17" s="15"/>
-      <c r="BK17" s="15"/>
-      <c r="BL17" s="15"/>
-      <c r="BM17" s="15"/>
-      <c r="BN17" s="15"/>
-      <c r="BO17" s="15"/>
-      <c r="BP17" s="15"/>
-      <c r="BQ17" s="15"/>
-      <c r="BR17" s="15"/>
-      <c r="BS17" s="15"/>
-      <c r="BT17" s="15"/>
-      <c r="BU17" s="15"/>
-      <c r="BV17" s="15"/>
-      <c r="BW17" s="15"/>
-      <c r="BX17" s="15"/>
-      <c r="BY17" s="15"/>
-      <c r="BZ17" s="15"/>
-      <c r="CA17" s="15"/>
-      <c r="CB17" s="15"/>
-      <c r="CC17" s="15"/>
-      <c r="CD17" s="15"/>
-      <c r="CE17" s="15"/>
-      <c r="CF17" s="15"/>
-      <c r="CG17" s="15"/>
-      <c r="CH17" s="15"/>
-      <c r="CI17" s="15"/>
-      <c r="CJ17" s="15"/>
-      <c r="CK17" s="15"/>
-      <c r="CL17" s="15"/>
-      <c r="CM17" s="15"/>
-      <c r="CN17" s="15"/>
-      <c r="CO17" s="15"/>
-      <c r="CP17" s="15"/>
-      <c r="CQ17" s="15"/>
-      <c r="CR17" s="15"/>
-      <c r="CS17" s="15"/>
-      <c r="CT17" s="15"/>
-      <c r="CU17" s="15"/>
-      <c r="CV17" s="15"/>
-      <c r="CW17" s="15"/>
-      <c r="CX17" s="15"/>
-      <c r="CY17" s="15"/>
-      <c r="CZ17" s="15"/>
-      <c r="DA17" s="15"/>
-      <c r="DB17" s="15"/>
-      <c r="DC17" s="15"/>
-      <c r="DD17" s="15"/>
-      <c r="DE17" s="15"/>
-      <c r="DF17" s="15"/>
-      <c r="DG17" s="15"/>
-      <c r="DH17" s="15"/>
+      <c r="H17" s="19">
+        <v>270</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+      <c r="BJ17" s="16"/>
+      <c r="BK17" s="16"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="16"/>
+      <c r="BN17" s="16"/>
+      <c r="BO17" s="16"/>
+      <c r="BP17" s="16"/>
+      <c r="BQ17" s="16"/>
+      <c r="BR17" s="16"/>
+      <c r="BS17" s="16"/>
+      <c r="BT17" s="16"/>
+      <c r="BU17" s="16"/>
+      <c r="BV17" s="16"/>
+      <c r="BW17" s="16"/>
+      <c r="BX17" s="16"/>
+      <c r="BY17" s="16"/>
+      <c r="BZ17" s="16"/>
+      <c r="CA17" s="16"/>
+      <c r="CB17" s="16"/>
+      <c r="CC17" s="16"/>
+      <c r="CD17" s="16"/>
+      <c r="CE17" s="16"/>
+      <c r="CF17" s="16"/>
+      <c r="CG17" s="16"/>
+      <c r="CH17" s="16"/>
+      <c r="CI17" s="16"/>
+      <c r="CJ17" s="16"/>
+      <c r="CK17" s="16"/>
+      <c r="CL17" s="16"/>
+      <c r="CM17" s="16"/>
+      <c r="CN17" s="16"/>
+      <c r="CO17" s="16"/>
+      <c r="CP17" s="16"/>
+      <c r="CQ17" s="16"/>
+      <c r="CR17" s="16"/>
+      <c r="CS17" s="16"/>
+      <c r="CT17" s="16"/>
+      <c r="CU17" s="16"/>
+      <c r="CV17" s="16"/>
+      <c r="CW17" s="16"/>
+      <c r="CX17" s="16"/>
+      <c r="CY17" s="16"/>
+      <c r="CZ17" s="16"/>
+      <c r="DA17" s="16"/>
+      <c r="DB17" s="16"/>
+      <c r="DC17" s="16"/>
+      <c r="DD17" s="16"/>
+      <c r="DE17" s="16"/>
+      <c r="DF17" s="16"/>
+      <c r="DG17" s="16"/>
+      <c r="DH17" s="16"/>
     </row>
     <row r="18" spans="1:112" ht="24" customHeight="1">
       <c r="A18" s="11" t="s">
@@ -3514,263 +3657,275 @@
       <c r="E18" s="11">
         <v>521</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="24">
         <v>1012</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>895</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="15"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="15"/>
-      <c r="BB18" s="15"/>
-      <c r="BC18" s="15"/>
-      <c r="BD18" s="15"/>
-      <c r="BE18" s="15"/>
-      <c r="BF18" s="15"/>
-      <c r="BG18" s="15"/>
-      <c r="BH18" s="15"/>
-      <c r="BI18" s="15"/>
-      <c r="BJ18" s="15"/>
-      <c r="BK18" s="15"/>
-      <c r="BL18" s="15"/>
-      <c r="BM18" s="15"/>
-      <c r="BN18" s="15"/>
-      <c r="BO18" s="15"/>
-      <c r="BP18" s="15"/>
-      <c r="BQ18" s="15"/>
-      <c r="BR18" s="15"/>
-      <c r="BS18" s="15"/>
-      <c r="BT18" s="15"/>
-      <c r="BU18" s="15"/>
-      <c r="BV18" s="15"/>
-      <c r="BW18" s="15"/>
-      <c r="BX18" s="15"/>
-      <c r="BY18" s="15"/>
-      <c r="BZ18" s="15"/>
-      <c r="CA18" s="15"/>
-      <c r="CB18" s="15"/>
-      <c r="CC18" s="15"/>
-      <c r="CD18" s="15"/>
-      <c r="CE18" s="15"/>
-      <c r="CF18" s="15"/>
-      <c r="CG18" s="15"/>
-      <c r="CH18" s="15"/>
-      <c r="CI18" s="15"/>
-      <c r="CJ18" s="15"/>
-      <c r="CK18" s="15"/>
-      <c r="CL18" s="15"/>
-      <c r="CM18" s="15"/>
-      <c r="CN18" s="15"/>
-      <c r="CO18" s="15"/>
-      <c r="CP18" s="15"/>
-      <c r="CQ18" s="15"/>
-      <c r="CR18" s="15"/>
-      <c r="CS18" s="15"/>
-      <c r="CT18" s="15"/>
-      <c r="CU18" s="15"/>
-      <c r="CV18" s="15"/>
-      <c r="CW18" s="15"/>
-      <c r="CX18" s="15"/>
-      <c r="CY18" s="15"/>
-      <c r="CZ18" s="15"/>
-      <c r="DA18" s="15"/>
-      <c r="DB18" s="15"/>
-      <c r="DC18" s="15"/>
-      <c r="DD18" s="15"/>
-      <c r="DE18" s="15"/>
-      <c r="DF18" s="15"/>
-      <c r="DG18" s="15"/>
-      <c r="DH18" s="15"/>
-    </row>
-    <row r="19" spans="1:112" s="54" customFormat="1" ht="24" customHeight="1">
-      <c r="A19" s="24" t="s">
+      <c r="H18" s="19">
+        <v>841</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
+      <c r="BL18" s="16"/>
+      <c r="BM18" s="16"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="16"/>
+      <c r="BP18" s="16"/>
+      <c r="BQ18" s="16"/>
+      <c r="BR18" s="16"/>
+      <c r="BS18" s="16"/>
+      <c r="BT18" s="16"/>
+      <c r="BU18" s="16"/>
+      <c r="BV18" s="16"/>
+      <c r="BW18" s="16"/>
+      <c r="BX18" s="16"/>
+      <c r="BY18" s="16"/>
+      <c r="BZ18" s="16"/>
+      <c r="CA18" s="16"/>
+      <c r="CB18" s="16"/>
+      <c r="CC18" s="16"/>
+      <c r="CD18" s="16"/>
+      <c r="CE18" s="16"/>
+      <c r="CF18" s="16"/>
+      <c r="CG18" s="16"/>
+      <c r="CH18" s="16"/>
+      <c r="CI18" s="16"/>
+      <c r="CJ18" s="16"/>
+      <c r="CK18" s="16"/>
+      <c r="CL18" s="16"/>
+      <c r="CM18" s="16"/>
+      <c r="CN18" s="16"/>
+      <c r="CO18" s="16"/>
+      <c r="CP18" s="16"/>
+      <c r="CQ18" s="16"/>
+      <c r="CR18" s="16"/>
+      <c r="CS18" s="16"/>
+      <c r="CT18" s="16"/>
+      <c r="CU18" s="16"/>
+      <c r="CV18" s="16"/>
+      <c r="CW18" s="16"/>
+      <c r="CX18" s="16"/>
+      <c r="CY18" s="16"/>
+      <c r="CZ18" s="16"/>
+      <c r="DA18" s="16"/>
+      <c r="DB18" s="16"/>
+      <c r="DC18" s="16"/>
+      <c r="DD18" s="16"/>
+      <c r="DE18" s="16"/>
+      <c r="DF18" s="16"/>
+      <c r="DG18" s="16"/>
+      <c r="DH18" s="16"/>
+    </row>
+    <row r="19" spans="1:112" s="55" customFormat="1" ht="24" customHeight="1">
+      <c r="A19" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="55">
         <f t="shared" ref="B19:D19" si="0">SUM(B2:B18)</f>
         <v>13937</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="55">
         <f t="shared" si="0"/>
         <v>8051</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="55">
         <f t="shared" si="0"/>
         <v>8655</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="55">
         <f>SUM(E2:E18)</f>
         <v>9232</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="55">
         <f>SUM(F2:F18)</f>
         <v>17142</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="56">
         <f>SUM(G2:G18)</f>
         <v>14725</v>
       </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="55"/>
-      <c r="AO19" s="55"/>
-      <c r="AP19" s="55"/>
-      <c r="AQ19" s="55"/>
-      <c r="AR19" s="55"/>
-      <c r="AS19" s="55"/>
-      <c r="AT19" s="55"/>
-      <c r="AU19" s="55"/>
-      <c r="AV19" s="55"/>
-      <c r="AW19" s="55"/>
-      <c r="AX19" s="55"/>
-      <c r="AY19" s="55"/>
-      <c r="AZ19" s="55"/>
-      <c r="BA19" s="55"/>
-      <c r="BB19" s="55"/>
-      <c r="BC19" s="55"/>
-      <c r="BD19" s="55"/>
-      <c r="BE19" s="55"/>
-      <c r="BF19" s="55"/>
-      <c r="BG19" s="55"/>
-      <c r="BH19" s="55"/>
-      <c r="BI19" s="55"/>
-      <c r="BJ19" s="55"/>
-      <c r="BK19" s="55"/>
-      <c r="BL19" s="55"/>
-      <c r="BM19" s="55"/>
-      <c r="BN19" s="55"/>
-      <c r="BO19" s="55"/>
-      <c r="BP19" s="55"/>
-      <c r="BQ19" s="55"/>
-      <c r="BR19" s="55"/>
-      <c r="BS19" s="55"/>
-      <c r="BT19" s="55"/>
-      <c r="BU19" s="55"/>
-      <c r="BV19" s="55"/>
-      <c r="BW19" s="55"/>
-      <c r="BX19" s="55"/>
-      <c r="BY19" s="55"/>
-      <c r="BZ19" s="55"/>
-      <c r="CA19" s="55"/>
-      <c r="CB19" s="55"/>
-      <c r="CC19" s="55"/>
-      <c r="CD19" s="55"/>
-      <c r="CE19" s="55"/>
-      <c r="CF19" s="55"/>
-      <c r="CG19" s="55"/>
-      <c r="CH19" s="55"/>
-      <c r="CI19" s="55"/>
-      <c r="CJ19" s="55"/>
-      <c r="CK19" s="55"/>
-      <c r="CL19" s="55"/>
-      <c r="CM19" s="55"/>
-      <c r="CN19" s="55"/>
-      <c r="CO19" s="55"/>
-      <c r="CP19" s="55"/>
-      <c r="CQ19" s="55"/>
-      <c r="CR19" s="55"/>
-      <c r="CS19" s="55"/>
-      <c r="CT19" s="55"/>
-      <c r="CU19" s="55"/>
-      <c r="CV19" s="55"/>
-      <c r="CW19" s="55"/>
-      <c r="CX19" s="55"/>
-      <c r="CY19" s="55"/>
-      <c r="CZ19" s="55"/>
-      <c r="DA19" s="55"/>
-      <c r="DB19" s="55"/>
-      <c r="DC19" s="55"/>
-      <c r="DD19" s="55"/>
-      <c r="DE19" s="55"/>
-      <c r="DF19" s="55"/>
-      <c r="DG19" s="55"/>
-      <c r="DH19" s="55"/>
+      <c r="H19" s="56">
+        <f>SUM(H2:H18)</f>
+        <v>13446</v>
+      </c>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="56"/>
+      <c r="BK19" s="56"/>
+      <c r="BL19" s="56"/>
+      <c r="BM19" s="56"/>
+      <c r="BN19" s="56"/>
+      <c r="BO19" s="56"/>
+      <c r="BP19" s="56"/>
+      <c r="BQ19" s="56"/>
+      <c r="BR19" s="56"/>
+      <c r="BS19" s="56"/>
+      <c r="BT19" s="56"/>
+      <c r="BU19" s="56"/>
+      <c r="BV19" s="56"/>
+      <c r="BW19" s="56"/>
+      <c r="BX19" s="56"/>
+      <c r="BY19" s="56"/>
+      <c r="BZ19" s="56"/>
+      <c r="CA19" s="56"/>
+      <c r="CB19" s="56"/>
+      <c r="CC19" s="56"/>
+      <c r="CD19" s="56"/>
+      <c r="CE19" s="56"/>
+      <c r="CF19" s="56"/>
+      <c r="CG19" s="56"/>
+      <c r="CH19" s="56"/>
+      <c r="CI19" s="56"/>
+      <c r="CJ19" s="56"/>
+      <c r="CK19" s="56"/>
+      <c r="CL19" s="56"/>
+      <c r="CM19" s="56"/>
+      <c r="CN19" s="56"/>
+      <c r="CO19" s="56"/>
+      <c r="CP19" s="56"/>
+      <c r="CQ19" s="56"/>
+      <c r="CR19" s="56"/>
+      <c r="CS19" s="56"/>
+      <c r="CT19" s="56"/>
+      <c r="CU19" s="56"/>
+      <c r="CV19" s="56"/>
+      <c r="CW19" s="56"/>
+      <c r="CX19" s="56"/>
+      <c r="CY19" s="56"/>
+      <c r="CZ19" s="56"/>
+      <c r="DA19" s="56"/>
+      <c r="DB19" s="56"/>
+      <c r="DC19" s="56"/>
+      <c r="DD19" s="56"/>
+      <c r="DE19" s="56"/>
+      <c r="DF19" s="56"/>
+      <c r="DG19" s="56"/>
+      <c r="DH19" s="56"/>
     </row>
     <row r="20" spans="1:112" ht="24" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="59" t="s">
         <v>102</v>
+      </c>
+      <c r="G20" s="19">
+        <v>9232</v>
       </c>
     </row>
     <row r="21" spans="1:112" ht="24" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21">
+        <f>G19-G20</f>
+        <v>5493</v>
+      </c>
     </row>
     <row r="22" spans="1:112" ht="24" customHeight="1">
       <c r="A22" s="11"/>
@@ -3879,6 +4034,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64631DB6-ABC5-074E-B720-D976A70962DC}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24">
+      <c r="A1" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>229</v>
+      </c>
+      <c r="C2" s="17">
+        <v>519</v>
+      </c>
+      <c r="D2" s="14">
+        <f>C2+B2</f>
+        <v>748</v>
+      </c>
+      <c r="E2" s="17">
+        <v>832</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2-D2</f>
+        <v>84</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2-B2</f>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11">
+        <v>248</v>
+      </c>
+      <c r="C3" s="17">
+        <v>576</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:D18" si="0">C3+B3</f>
+        <v>824</v>
+      </c>
+      <c r="E3" s="17">
+        <v>966</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F18" si="1">E3-D3</f>
+        <v>142</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G18" si="2">E3-B3</f>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="23">
+        <v>449</v>
+      </c>
+      <c r="C4" s="17">
+        <v>773</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" si="0"/>
+        <v>1222</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1445</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="17">
+        <v>361</v>
+      </c>
+      <c r="C5" s="17">
+        <v>60</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>421</v>
+      </c>
+      <c r="E5" s="17">
+        <v>659</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11">
+        <v>121</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E6" s="17">
+        <v>121</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11">
+        <v>467</v>
+      </c>
+      <c r="C7" s="19">
+        <v>423</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>890</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1012</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="22">
+        <v>90</v>
+      </c>
+      <c r="C8" s="19">
+        <v>920</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1331</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E9" s="19">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="11">
+        <v>881</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>881</v>
+      </c>
+      <c r="E10" s="19">
+        <v>881</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11">
+        <v>404</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>404</v>
+      </c>
+      <c r="E11" s="19">
+        <v>404</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1140</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1140</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1397</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="1">
+        <v>1397</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1397</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="11">
+        <v>569</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>569</v>
+      </c>
+      <c r="E14" s="19">
+        <v>569</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1248</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>1248</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1248</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="23">
+        <v>753</v>
+      </c>
+      <c r="C16" s="19">
+        <v>643</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="0"/>
+        <v>1396</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1476</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="11">
+        <v>270</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="E17" s="19">
+        <v>270</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="11">
+        <v>521</v>
+      </c>
+      <c r="C18" s="19">
+        <v>320</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="0"/>
+        <v>841</v>
+      </c>
+      <c r="E18" s="19">
+        <v>895</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26">
+      <c r="A19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="55">
+        <f>SUM(B2:B18)</f>
+        <v>9227</v>
+      </c>
+      <c r="C19" s="56">
+        <f>SUM(C2:C18)</f>
+        <v>4234</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(D2:D18)</f>
+        <v>13461</v>
+      </c>
+      <c r="E19" s="56">
+        <f>SUM(E2:E18)</f>
+        <v>14725</v>
+      </c>
+      <c r="F19" s="2">
+        <f>E19-D19</f>
+        <v>1264</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B89E35-89E1-B84B-832E-BCFAB8E3122A}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="47.33203125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="48">
+      <c r="A1" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>229</v>
+      </c>
+      <c r="C2" s="68">
+        <f>L2-B2</f>
+        <v>603</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-E2</f>
+        <v>84</v>
+      </c>
+      <c r="E2" s="17">
+        <v>519</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2+E2</f>
+        <v>748</v>
+      </c>
+      <c r="L2" s="17">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11">
+        <v>248</v>
+      </c>
+      <c r="C3" s="68">
+        <f t="shared" ref="C3:C19" si="0">L3-B3</f>
+        <v>718</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D19" si="1">C3-E3</f>
+        <v>142</v>
+      </c>
+      <c r="E3" s="17">
+        <v>576</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F19" si="2">B3+E3</f>
+        <v>824</v>
+      </c>
+      <c r="L3" s="17">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17">
+        <v>449</v>
+      </c>
+      <c r="C4" s="68">
+        <f t="shared" si="0"/>
+        <v>996</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="E4" s="17">
+        <v>773</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>1222</v>
+      </c>
+      <c r="L4" s="17">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="17">
+        <v>361</v>
+      </c>
+      <c r="C5" s="68">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="E5" s="17">
+        <v>60</v>
+      </c>
+      <c r="F5" s="72">
+        <f t="shared" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="L5" s="17">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="70" customFormat="1">
+      <c r="A6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="69">
+        <v>121</v>
+      </c>
+      <c r="C6" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="69">
+        <v>0</v>
+      </c>
+      <c r="F6" s="70">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="L6" s="69">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17">
+        <v>467</v>
+      </c>
+      <c r="C7" s="68">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="E7" s="19">
+        <v>423</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>890</v>
+      </c>
+      <c r="L7" s="19">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="66">
+        <v>90</v>
+      </c>
+      <c r="C8" s="68">
+        <f t="shared" si="0"/>
+        <v>1241</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="E8" s="19">
+        <v>920</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>1010</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="70" customFormat="1">
+      <c r="A9" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="71">
+        <v>79</v>
+      </c>
+      <c r="C9" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="70">
+        <v>0</v>
+      </c>
+      <c r="F9" s="70">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="L9" s="70">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="17">
+        <v>881</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>881</v>
+      </c>
+      <c r="L10" s="19">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="19" customFormat="1">
+      <c r="A11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="17">
+        <v>404</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="2"/>
+        <v>404</v>
+      </c>
+      <c r="L11" s="19">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1140</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>1140</v>
+      </c>
+      <c r="L12" s="19">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1397</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>1397</v>
+      </c>
+      <c r="L13" s="19">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="70" customFormat="1">
+      <c r="A14" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="69">
+        <v>569</v>
+      </c>
+      <c r="C14" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="70">
+        <v>0</v>
+      </c>
+      <c r="F14" s="70">
+        <f t="shared" si="2"/>
+        <v>569</v>
+      </c>
+      <c r="L14" s="70">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1248</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>1248</v>
+      </c>
+      <c r="L15" s="19">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="17">
+        <v>753</v>
+      </c>
+      <c r="C16" s="68">
+        <f t="shared" si="0"/>
+        <v>723</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E16" s="19">
+        <v>643</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>1396</v>
+      </c>
+      <c r="L16" s="19">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="70" customFormat="1">
+      <c r="A17" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="69">
+        <v>270</v>
+      </c>
+      <c r="C17" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="70">
+        <v>0</v>
+      </c>
+      <c r="F17" s="70">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="L17" s="70">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="11">
+        <v>521</v>
+      </c>
+      <c r="C18" s="68">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E18" s="19">
+        <v>320</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>841</v>
+      </c>
+      <c r="L18" s="19">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="26">
+      <c r="A19" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="9">
+        <f>SUM(B2:B18)</f>
+        <v>9227</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" si="0"/>
+        <v>5498</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="1"/>
+        <v>1264</v>
+      </c>
+      <c r="E19" s="9">
+        <f>SUM(E2:E18)</f>
+        <v>4234</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="2"/>
+        <v>13461</v>
+      </c>
+      <c r="L19" s="56">
+        <f>SUM(L2:L18)</f>
+        <v>14725</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4069E8-FB7A-BB48-845B-E3B090673AB2}">
   <dimension ref="A1:F50"/>
   <sheetViews>
@@ -3894,16 +5069,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" ht="26" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -4737,7 +5912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB78B2D2-6FA5-C54D-94B2-7A03AB6370F9}">
   <dimension ref="A1:H216"/>
   <sheetViews>
@@ -4751,26 +5926,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" customHeight="1">
-      <c r="E1" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="25" t="s">
+      <c r="E1" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="59"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="28" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>85</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -4787,22 +5962,22 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="32">
         <v>0.65339999999999998</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="33">
         <v>0.53390000000000004</v>
       </c>
       <c r="G3" s="9">
@@ -4813,22 +5988,22 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="28" customHeight="1">
-      <c r="A4" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="38">
         <v>0.3755</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="39">
         <v>0.27210000000000001</v>
       </c>
       <c r="G4" s="9">
@@ -4839,22 +6014,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28" customHeight="1">
-      <c r="A5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="38">
         <v>0.2697</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="39">
         <v>0.22520000000000001</v>
       </c>
       <c r="G5" s="9">
@@ -4865,22 +6040,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28" customHeight="1">
-      <c r="A6" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="38">
         <v>0.45550000000000002</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="39">
         <v>0.53400000000000003</v>
       </c>
       <c r="G6" s="9">
@@ -4891,22 +6066,22 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="28" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="38">
         <v>0.44259999999999999</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="39">
         <v>0.38119999999999998</v>
       </c>
       <c r="G7" s="9">
@@ -4917,44 +6092,44 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1">
-      <c r="A8" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="44">
         <v>0.46389999999999998</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="45">
         <v>0.41849999999999998</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="28" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="32">
         <v>0.65149999999999997</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="33">
         <v>0.66900000000000004</v>
       </c>
       <c r="G9" s="9">
@@ -4965,22 +6140,22 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="28" customHeight="1">
-      <c r="A10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="38">
         <v>0.25740000000000002</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="39">
         <v>0.22570000000000001</v>
       </c>
       <c r="G10" s="9">
@@ -4991,22 +6166,22 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="28" customHeight="1">
-      <c r="A11" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="38">
         <v>0.30130000000000001</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="39">
         <v>0.2626</v>
       </c>
       <c r="G11" s="9">
@@ -5017,22 +6192,22 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="28" customHeight="1">
-      <c r="A12" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="38">
         <v>0.1522</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="39">
         <v>0.11700000000000001</v>
       </c>
       <c r="G12" s="9">
@@ -5043,22 +6218,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28" customHeight="1">
-      <c r="A13" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="38">
         <v>0.32900000000000001</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="39">
         <v>0.30990000000000001</v>
       </c>
       <c r="G13" s="9">
@@ -5069,176 +6244,176 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="28" customHeight="1">
-      <c r="A14" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="44">
         <v>0.32540000000000002</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="45">
         <v>0.31230000000000002</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="28" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="48" t="s">
+      <c r="A15" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="32">
         <v>0.51439999999999997</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="33">
         <v>0.46489999999999998</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="28" customHeight="1">
-      <c r="A16" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="38">
         <v>0.47570000000000001</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="39">
         <v>0.43840000000000001</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="28" customHeight="1">
-      <c r="A17" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="38">
         <v>0.45710000000000001</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="39">
         <v>0.4017</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="28" customHeight="1">
-      <c r="A18" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="38">
         <v>0.35139999999999999</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="39">
         <v>0.22040000000000001</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="28" customHeight="1">
-      <c r="A19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="38">
         <v>0.45600000000000002</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="39">
         <v>0.372</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="28" customHeight="1">
-      <c r="A20" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="44">
         <v>0.40629999999999999</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="45">
         <v>0.32829999999999998</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="28" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="32">
         <v>0.50800000000000001</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="33">
         <v>0.40600000000000003</v>
       </c>
       <c r="G21" s="9">
@@ -5249,22 +6424,22 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="28" customHeight="1">
-      <c r="A22" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="38">
         <v>0.5796</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="39">
         <v>0.42399999999999999</v>
       </c>
       <c r="G22" s="9">
@@ -5275,22 +6450,22 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="28" customHeight="1">
-      <c r="A23" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="38">
         <v>0.57179999999999997</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="39">
         <v>0.56499999999999995</v>
       </c>
       <c r="G23" s="9">
@@ -5301,22 +6476,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="28" customHeight="1">
-      <c r="A24" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="38">
         <v>0.49909999999999999</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="39">
         <v>0.44679999999999997</v>
       </c>
       <c r="G24" s="9">
@@ -5327,22 +6502,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="28" customHeight="1">
-      <c r="A25" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="38">
         <v>0.53779999999999994</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="39">
         <v>0.45069999999999999</v>
       </c>
       <c r="G25" s="9">
@@ -5351,62 +6526,62 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="28" customHeight="1">
-      <c r="A26" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="44">
         <v>0.27589999999999998</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="45">
         <v>0.25659999999999999</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="28" customHeight="1">
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:8" ht="28" customHeight="1">
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
     </row>
     <row r="29" spans="1:8" ht="28" customHeight="1">
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" spans="1:8" ht="28" customHeight="1">
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:8" ht="28" customHeight="1">
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
     </row>
     <row r="32" spans="1:8" ht="28" customHeight="1">
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
     </row>
     <row r="33" spans="7:8" ht="28" customHeight="1">
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="7:8" ht="28" customHeight="1">
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
     </row>
     <row r="35" spans="7:8" ht="28" customHeight="1">
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
     </row>
     <row r="36" spans="7:8" ht="28" customHeight="1"/>
     <row r="37" spans="7:8" ht="28" customHeight="1"/>
@@ -5600,12 +6775,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66642990-B574-1649-9655-48EDEBCA324A}">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5619,26 +6794,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="E1" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="25" t="s">
+      <c r="E1" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="59"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>85</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -5655,590 +6830,590 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="32">
         <v>0.68049999999999999</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="32">
         <v>0.62380000000000002</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="32">
         <v>0.4914</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="33">
         <v>0.52249999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1">
-      <c r="A4" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="38">
         <v>0.66439999999999999</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="38">
         <v>0.57679999999999998</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="38">
         <v>0.47289999999999999</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="39">
         <v>0.48370000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
-      <c r="A5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="38">
         <v>0.58750000000000002</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="38">
         <v>0.47249999999999998</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="38">
         <v>0.47320000000000001</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="39">
         <v>0.48759999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1">
-      <c r="A6" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="38">
         <v>0.55130000000000001</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="38">
         <v>0.38140000000000002</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="38">
         <v>0.47889999999999999</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="39">
         <v>0.48559999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="38">
         <v>0.62919999999999998</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="38">
         <v>0.49959999999999999</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="38">
         <v>0.48199999999999998</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="39">
         <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1">
-      <c r="A8" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="44">
         <v>0.58830000000000005</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="44">
         <v>0.45639999999999997</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="32">
         <v>0.61439999999999995</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="32">
         <v>0.60750000000000004</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="32">
         <v>0.41760000000000003</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="33">
         <v>0.4854</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1">
-      <c r="A10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="38">
         <v>0.46</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="38">
         <v>0.3291</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="38">
         <v>0.38390000000000002</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="39">
         <v>0.43740000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1">
-      <c r="A11" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="38">
         <v>0.38159999999999999</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="38">
         <v>0.2747</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="38">
         <v>0.3891</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="39">
         <v>0.4592</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1">
-      <c r="A12" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="38">
         <v>0.32400000000000001</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="38">
         <v>0.25569999999999998</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="38">
         <v>0.34410000000000002</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="39">
         <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1">
-      <c r="A13" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="38">
         <v>0.45779999999999998</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="38">
         <v>0.3427</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="38">
         <v>0.3861</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="39">
         <v>0.43809999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1">
-      <c r="A14" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="44">
         <v>0.42049999999999998</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="44">
         <v>0.31790000000000002</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="48" t="s">
+      <c r="A15" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="32">
         <v>0.4471</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="32">
         <v>0.30559999999999998</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1">
-      <c r="A16" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="38">
         <v>0.5736</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="38">
         <v>0.46650000000000003</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="24" customHeight="1">
-      <c r="A17" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="38">
         <v>0.56299999999999994</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="38">
         <v>0.4929</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="24" customHeight="1">
-      <c r="A18" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="38">
         <v>0.55130000000000001</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="38">
         <v>0.39939999999999998</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="24" customHeight="1">
-      <c r="A19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="38">
         <v>0.5534</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="38">
         <v>0.3906</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1">
-      <c r="A20" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="44">
         <v>0.5323</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="44">
         <v>0.36859999999999998</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="32">
         <v>0.66490000000000005</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="32">
         <v>0.69430000000000003</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="32">
         <v>0.45519999999999999</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="33">
         <v>0.51329999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1">
-      <c r="A22" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="38">
         <v>0.57469999999999999</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="38">
         <v>0.4178</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="38">
         <v>0.4456</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="39">
         <v>0.47649999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" customHeight="1">
-      <c r="A23" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="38">
         <v>0.62360000000000004</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="38">
         <v>0.47349999999999998</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="38">
         <v>0.43809999999999999</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="39">
         <v>0.49530000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" customHeight="1">
-      <c r="A24" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="38">
         <v>0.65820000000000001</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="38">
         <v>0.5111</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="38">
         <v>0.4355</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="39">
         <v>0.4627</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1">
-      <c r="A25" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="38">
         <v>0.63329999999999997</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="38">
         <v>0.52349999999999997</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="38">
         <v>0.437</v>
       </c>
-      <c r="H25" s="38"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="24" customHeight="1">
-      <c r="A26" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="62">
         <v>0.26889999999999997</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="62">
         <v>0.254</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1"/>
     <row r="28" spans="1:8" ht="24" customHeight="1"/>

--- a/experiments/data/mmlu_sta_0329.xlsx
+++ b/experiments/data/mmlu_sta_0329.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15EDB33-9054-A940-A17C-3E55B9554205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E639EECA-97DB-D244-9337-BAE5E91EA715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="117">
   <si>
     <t>college_biology</t>
   </si>
@@ -429,6 +429,10 @@
   </si>
   <si>
     <t>remove_issues_by_annotation_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_phase_1_mmlu_pro_accu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,6 +892,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2040,7 +2047,7 @@
   <dimension ref="A1:DH45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2106,6 +2113,7 @@
       <c r="H2" s="19">
         <v>748</v>
       </c>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:112" ht="24" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -2132,7 +2140,7 @@
       <c r="H3" s="19">
         <v>824</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
@@ -2262,6 +2270,7 @@
       <c r="H4" s="19">
         <v>1218</v>
       </c>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="17" t="s">
@@ -2288,6 +2297,7 @@
       <c r="H5" s="19">
         <v>420</v>
       </c>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:112" ht="24" customHeight="1">
       <c r="A6" s="11" t="s">
@@ -2314,7 +2324,7 @@
       <c r="H6" s="19">
         <v>121</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -2444,7 +2454,7 @@
       <c r="H7" s="19">
         <v>890</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
@@ -2574,6 +2584,7 @@
       <c r="H8" s="19">
         <v>1010</v>
       </c>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:112" ht="24" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -2600,7 +2611,7 @@
       <c r="H9" s="19">
         <v>79</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -2730,7 +2741,7 @@
       <c r="H10" s="19">
         <v>881</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
@@ -2860,7 +2871,7 @@
       <c r="H11" s="19">
         <v>404</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
@@ -2990,7 +3001,7 @@
       <c r="H12" s="19">
         <v>1140</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -3120,7 +3131,7 @@
       <c r="H13" s="19">
         <v>1397</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -3250,7 +3261,7 @@
       <c r="H14" s="19">
         <v>569</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
@@ -3378,9 +3389,9 @@
         <v>1248</v>
       </c>
       <c r="H15" s="19">
-        <v>1248</v>
-      </c>
-      <c r="I15" s="16"/>
+        <v>559</v>
+      </c>
+      <c r="I15" s="19"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -3510,6 +3521,7 @@
       <c r="H16" s="19">
         <v>1386</v>
       </c>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:112" ht="24" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -3536,7 +3548,7 @@
       <c r="H17" s="19">
         <v>270</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -3666,7 +3678,7 @@
       <c r="H18" s="19">
         <v>841</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
@@ -3801,7 +3813,7 @@
       </c>
       <c r="H19" s="56">
         <f>SUM(H2:H18)</f>
-        <v>13446</v>
+        <v>12757</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -6777,10 +6789,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66642990-B574-1649-9655-48EDEBCA324A}">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6788,22 +6800,24 @@
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="24.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="22" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="23" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
+    <row r="1" spans="1:9" ht="24" customHeight="1">
       <c r="E1" s="26" t="s">
         <v>99</v>
       </c>
       <c r="F1" s="60"/>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="60"/>
-    </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>86</v>
       </c>
@@ -6823,13 +6837,16 @@
         <v>100</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1">
+    <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="A3" s="28" t="s">
         <v>99</v>
       </c>
@@ -6848,14 +6865,15 @@
       <c r="F3" s="32">
         <v>0.62380000000000002</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32">
         <v>0.4914</v>
       </c>
-      <c r="H3" s="33">
+      <c r="I3" s="33">
         <v>0.52249999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24" customHeight="1">
+    <row r="4" spans="1:9" ht="24" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>99</v>
       </c>
@@ -6874,14 +6892,15 @@
       <c r="F4" s="38">
         <v>0.57679999999999998</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38">
         <v>0.47289999999999999</v>
       </c>
-      <c r="H4" s="39">
+      <c r="I4" s="39">
         <v>0.48370000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1">
+    <row r="5" spans="1:9" ht="24" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>99</v>
       </c>
@@ -6900,14 +6919,15 @@
       <c r="F5" s="38">
         <v>0.47249999999999998</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="38"/>
+      <c r="H5" s="38">
         <v>0.47320000000000001</v>
       </c>
-      <c r="H5" s="39">
+      <c r="I5" s="39">
         <v>0.48759999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24" customHeight="1">
+    <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="A6" s="34" t="s">
         <v>99</v>
       </c>
@@ -6926,14 +6946,15 @@
       <c r="F6" s="38">
         <v>0.38140000000000002</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38">
         <v>0.47889999999999999</v>
       </c>
-      <c r="H6" s="39">
+      <c r="I6" s="39">
         <v>0.48559999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24" customHeight="1">
+    <row r="7" spans="1:9" ht="24" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>99</v>
       </c>
@@ -6953,13 +6974,16 @@
         <v>0.49959999999999999</v>
       </c>
       <c r="G7" s="38">
+        <v>0.47170000000000001</v>
+      </c>
+      <c r="H7" s="38">
         <v>0.48199999999999998</v>
       </c>
-      <c r="H7" s="39">
+      <c r="I7" s="39">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24" customHeight="1">
+    <row r="8" spans="1:9" ht="24" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>99</v>
       </c>
@@ -6978,10 +7002,13 @@
       <c r="F8" s="44">
         <v>0.45639999999999997</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:8" ht="24" customHeight="1">
+      <c r="G8" s="44">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>99</v>
       </c>
@@ -7001,13 +7028,16 @@
         <v>0.60750000000000004</v>
       </c>
       <c r="G9" s="32">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H9" s="32">
         <v>0.41760000000000003</v>
       </c>
-      <c r="H9" s="33">
+      <c r="I9" s="33">
         <v>0.4854</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1">
+    <row r="10" spans="1:9" ht="24" customHeight="1">
       <c r="A10" s="34" t="s">
         <v>99</v>
       </c>
@@ -7027,13 +7057,16 @@
         <v>0.3291</v>
       </c>
       <c r="G10" s="38">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="H10" s="38">
         <v>0.38390000000000002</v>
       </c>
-      <c r="H10" s="39">
+      <c r="I10" s="39">
         <v>0.43740000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24" customHeight="1">
+    <row r="11" spans="1:9" ht="24" customHeight="1">
       <c r="A11" s="34" t="s">
         <v>99</v>
       </c>
@@ -7053,13 +7086,16 @@
         <v>0.2747</v>
       </c>
       <c r="G11" s="38">
+        <v>0.2424</v>
+      </c>
+      <c r="H11" s="38">
         <v>0.3891</v>
       </c>
-      <c r="H11" s="39">
+      <c r="I11" s="39">
         <v>0.4592</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1">
+    <row r="12" spans="1:9" ht="24" customHeight="1">
       <c r="A12" s="34" t="s">
         <v>99</v>
       </c>
@@ -7079,13 +7115,16 @@
         <v>0.25569999999999998</v>
       </c>
       <c r="G12" s="38">
+        <v>0.2049</v>
+      </c>
+      <c r="H12" s="38">
         <v>0.34410000000000002</v>
       </c>
-      <c r="H12" s="39">
+      <c r="I12" s="39">
         <v>0.38469999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24" customHeight="1">
+    <row r="13" spans="1:9" ht="24" customHeight="1">
       <c r="A13" s="34" t="s">
         <v>99</v>
       </c>
@@ -7105,13 +7144,16 @@
         <v>0.3427</v>
       </c>
       <c r="G13" s="38">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="H13" s="38">
         <v>0.3861</v>
       </c>
-      <c r="H13" s="39">
+      <c r="I13" s="39">
         <v>0.43809999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" customHeight="1">
+    <row r="14" spans="1:9" ht="24" customHeight="1">
       <c r="A14" s="40" t="s">
         <v>99</v>
       </c>
@@ -7130,10 +7172,13 @@
       <c r="F14" s="44">
         <v>0.31790000000000002</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="1:8" ht="24" customHeight="1">
+      <c r="G14" s="44">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>99</v>
       </c>
@@ -7153,9 +7198,10 @@
         <v>0.30559999999999998</v>
       </c>
       <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1">
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" customHeight="1">
       <c r="A16" s="34" t="s">
         <v>99</v>
       </c>
@@ -7175,9 +7221,10 @@
         <v>0.46650000000000003</v>
       </c>
       <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="1:8" ht="24" customHeight="1">
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1">
       <c r="A17" s="34" t="s">
         <v>99</v>
       </c>
@@ -7197,9 +7244,10 @@
         <v>0.4929</v>
       </c>
       <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1">
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1">
       <c r="A18" s="34" t="s">
         <v>99</v>
       </c>
@@ -7219,9 +7267,10 @@
         <v>0.39939999999999998</v>
       </c>
       <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" ht="24" customHeight="1">
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>99</v>
       </c>
@@ -7241,9 +7290,10 @@
         <v>0.3906</v>
       </c>
       <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="1:8" ht="24" customHeight="1">
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="1:9" ht="24" customHeight="1">
       <c r="A20" s="40" t="s">
         <v>99</v>
       </c>
@@ -7263,9 +7313,10 @@
         <v>0.36859999999999998</v>
       </c>
       <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="1:8" ht="24" customHeight="1">
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" customHeight="1">
       <c r="A21" s="28" t="s">
         <v>99</v>
       </c>
@@ -7284,14 +7335,15 @@
       <c r="F21" s="32">
         <v>0.69430000000000003</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="32"/>
+      <c r="H21" s="32">
         <v>0.45519999999999999</v>
       </c>
-      <c r="H21" s="33">
+      <c r="I21" s="33">
         <v>0.51329999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24" customHeight="1">
+    <row r="22" spans="1:9" ht="24" customHeight="1">
       <c r="A22" s="34" t="s">
         <v>99</v>
       </c>
@@ -7310,14 +7362,15 @@
       <c r="F22" s="38">
         <v>0.4178</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="38"/>
+      <c r="H22" s="38">
         <v>0.4456</v>
       </c>
-      <c r="H22" s="39">
+      <c r="I22" s="39">
         <v>0.47649999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24" customHeight="1">
+    <row r="23" spans="1:9" ht="24" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>99</v>
       </c>
@@ -7336,14 +7389,15 @@
       <c r="F23" s="38">
         <v>0.47349999999999998</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="38"/>
+      <c r="H23" s="38">
         <v>0.43809999999999999</v>
       </c>
-      <c r="H23" s="39">
+      <c r="I23" s="39">
         <v>0.49530000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="24" customHeight="1">
+    <row r="24" spans="1:9" ht="24" customHeight="1">
       <c r="A24" s="34" t="s">
         <v>99</v>
       </c>
@@ -7362,14 +7416,15 @@
       <c r="F24" s="38">
         <v>0.5111</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="38"/>
+      <c r="H24" s="38">
         <v>0.4355</v>
       </c>
-      <c r="H24" s="39">
+      <c r="I24" s="39">
         <v>0.4627</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24" customHeight="1">
+    <row r="25" spans="1:9" ht="24" customHeight="1">
       <c r="A25" s="34" t="s">
         <v>99</v>
       </c>
@@ -7388,12 +7443,13 @@
       <c r="F25" s="38">
         <v>0.52349999999999997</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="38"/>
+      <c r="H25" s="38">
         <v>0.437</v>
       </c>
-      <c r="H25" s="39"/>
-    </row>
-    <row r="26" spans="1:8" ht="24" customHeight="1">
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="1:9" ht="24" customHeight="1">
       <c r="A26" s="40" t="s">
         <v>99</v>
       </c>
@@ -7412,15 +7468,16 @@
       <c r="F26" s="62">
         <v>0.254</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:8" ht="24" customHeight="1"/>
-    <row r="28" spans="1:8" ht="24" customHeight="1"/>
-    <row r="29" spans="1:8" ht="24" customHeight="1"/>
-    <row r="30" spans="1:8" ht="24" customHeight="1"/>
-    <row r="31" spans="1:8" ht="24" customHeight="1"/>
-    <row r="32" spans="1:8" ht="24" customHeight="1"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:9" ht="24" customHeight="1"/>
+    <row r="28" spans="1:9" ht="24" customHeight="1"/>
+    <row r="29" spans="1:9" ht="24" customHeight="1"/>
+    <row r="30" spans="1:9" ht="24" customHeight="1"/>
+    <row r="31" spans="1:9" ht="24" customHeight="1"/>
+    <row r="32" spans="1:9" ht="24" customHeight="1"/>
     <row r="33" ht="24" customHeight="1"/>
     <row r="34" ht="24" customHeight="1"/>
     <row r="35" ht="24" customHeight="1"/>
@@ -7532,7 +7589,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/data/mmlu_sta_0329.xlsx
+++ b/experiments/data/mmlu_sta_0329.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E639EECA-97DB-D244-9337-BAE5E91EA715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5713F90-ED60-BC4E-A3BA-0BA9D07BDE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_mmlu_sta" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="119">
   <si>
     <t>college_biology</t>
   </si>
@@ -433,6 +433,13 @@
   </si>
   <si>
     <t>after_phase_1_mmlu_pro_accu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llama3_8b</t>
+  </si>
+  <si>
+    <t>llama3_8b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,17 +696,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -707,64 +705,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,31 +744,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,37 +771,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -863,25 +813,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -894,7 +829,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,20 +1188,20 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1256,13 +1212,13 @@
       <c r="B2" s="1">
         <v>144</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="50">
         <v>454</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="50">
         <v>229</v>
       </c>
     </row>
@@ -1273,9 +1229,9 @@
       <c r="B3" s="1">
         <v>310</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -1284,13 +1240,13 @@
       <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="49">
         <v>437</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="49">
         <v>174</v>
       </c>
     </row>
@@ -1301,9 +1257,9 @@
       <c r="B5" s="1">
         <v>103</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -1312,9 +1268,9 @@
       <c r="B6" s="1">
         <v>234</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1323,13 +1279,13 @@
       <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="49">
         <v>303</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="49">
         <v>222</v>
       </c>
     </row>
@@ -1340,9 +1296,9 @@
       <c r="B8" s="1">
         <v>203</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -1351,13 +1307,13 @@
       <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="49">
         <v>412</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="49">
         <v>285</v>
       </c>
     </row>
@@ -1368,9 +1324,9 @@
       <c r="B10" s="1">
         <v>100</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -1379,9 +1335,9 @@
       <c r="B11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -1390,9 +1346,9 @@
       <c r="B12" s="1">
         <v>112</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -1401,13 +1357,13 @@
       <c r="B13" s="1">
         <v>131</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="49">
         <v>332</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="49">
         <v>121</v>
       </c>
     </row>
@@ -1418,9 +1374,9 @@
       <c r="B14" s="1">
         <v>201</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -1429,13 +1385,13 @@
       <c r="B15" s="1">
         <v>114</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="49">
         <v>742</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="49">
         <v>467</v>
       </c>
     </row>
@@ -1446,9 +1402,9 @@
       <c r="B16" s="1">
         <v>390</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
@@ -1457,9 +1413,9 @@
       <c r="B17" s="1">
         <v>238</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
@@ -1502,13 +1458,13 @@
       <c r="B20" s="1">
         <v>135</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="49">
         <v>1562</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="49">
         <v>881</v>
       </c>
     </row>
@@ -1519,9 +1475,9 @@
       <c r="B21" s="1">
         <v>187</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
@@ -1530,9 +1486,9 @@
       <c r="B22" s="1">
         <v>173</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -1541,9 +1497,9 @@
       <c r="B23" s="1">
         <v>223</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
@@ -1552,9 +1508,9 @@
       <c r="B24" s="1">
         <v>100</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
@@ -1563,9 +1519,9 @@
       <c r="B25" s="1">
         <v>306</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
@@ -1574,9 +1530,9 @@
       <c r="B26" s="1">
         <v>272</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
@@ -1585,9 +1541,9 @@
       <c r="B27" s="1">
         <v>166</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
@@ -1596,13 +1552,13 @@
       <c r="B28" s="1">
         <v>165</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="49">
         <v>930</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="49">
         <v>404</v>
       </c>
     </row>
@@ -1613,9 +1569,9 @@
       <c r="B29" s="1">
         <v>204</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
@@ -1624,9 +1580,9 @@
       <c r="B30" s="1">
         <v>237</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
@@ -1635,9 +1591,9 @@
       <c r="B31" s="1">
         <v>324</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
@@ -1646,13 +1602,13 @@
       <c r="B32" s="1">
         <v>121</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="49">
         <v>1763</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="49">
         <v>1140</v>
       </c>
     </row>
@@ -1663,9 +1619,9 @@
       <c r="B33" s="1">
         <v>108</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
@@ -1674,9 +1630,9 @@
       <c r="B34" s="1">
         <v>1534</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
@@ -1685,13 +1641,13 @@
       <c r="B35" s="1">
         <v>100</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="49">
         <v>1063</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="49">
         <v>891</v>
       </c>
     </row>
@@ -1702,9 +1658,9 @@
       <c r="B36" s="1">
         <v>100</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
@@ -1713,9 +1669,9 @@
       <c r="B37" s="1">
         <v>377</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
@@ -1724,9 +1680,9 @@
       <c r="B38" s="1">
         <v>270</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
@@ -1735,9 +1691,9 @@
       <c r="B39" s="1">
         <v>216</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
@@ -1746,13 +1702,13 @@
       <c r="B40" s="1">
         <v>100</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="49">
         <v>1165</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="49">
         <v>569</v>
       </c>
     </row>
@@ -1763,9 +1719,9 @@
       <c r="B41" s="1">
         <v>783</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
@@ -1774,9 +1730,9 @@
       <c r="B42" s="1">
         <v>282</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
@@ -1785,13 +1741,13 @@
       <c r="B43" s="1">
         <v>126</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="49">
         <v>2012</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="49">
         <v>1248</v>
       </c>
     </row>
@@ -1802,9 +1758,9 @@
       <c r="B44" s="1">
         <v>163</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
@@ -1813,9 +1769,9 @@
       <c r="B45" s="1">
         <v>346</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
@@ -1824,9 +1780,9 @@
       <c r="B46" s="1">
         <v>895</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
@@ -1835,9 +1791,9 @@
       <c r="B47" s="1">
         <v>311</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
@@ -1846,9 +1802,9 @@
       <c r="B48" s="1">
         <v>171</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
@@ -1857,13 +1813,13 @@
       <c r="B49" s="1">
         <v>152</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="49">
         <v>629</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="49">
         <v>460</v>
       </c>
     </row>
@@ -1874,9 +1830,9 @@
       <c r="B50" s="1">
         <v>91</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
@@ -1885,9 +1841,9 @@
       <c r="B51" s="1">
         <v>235</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
@@ -1896,9 +1852,9 @@
       <c r="B52" s="1">
         <v>151</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
@@ -1907,13 +1863,13 @@
       <c r="B53" s="1">
         <v>193</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="49">
         <v>645</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="49">
         <v>270</v>
       </c>
     </row>
@@ -1924,9 +1880,9 @@
       <c r="B54" s="1">
         <v>108</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
@@ -1935,9 +1891,9 @@
       <c r="B55" s="1">
         <v>245</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
@@ -1946,9 +1902,9 @@
       <c r="B56" s="1">
         <v>99</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
@@ -1957,13 +1913,13 @@
       <c r="B57" s="1">
         <v>534</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="49">
         <v>1145</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="49">
         <v>521</v>
       </c>
     </row>
@@ -1974,9 +1930,9 @@
       <c r="B58" s="1">
         <v>611</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" s="1">
@@ -1990,21 +1946,20 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D40:D42"/>
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C4:C6"/>
@@ -2021,20 +1976,21 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C49:C52"/>
     <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2044,9 +2000,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D0CF6D-85E9-B84E-9705-CA19056656DB}">
-  <dimension ref="A1:DH45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2062,531 +2018,222 @@
     <col min="8" max="8" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" s="58" customFormat="1" ht="43" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:9" s="39" customFormat="1" ht="43" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:9" ht="24" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="1">
         <v>454</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="1">
         <v>229</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="1">
         <v>229</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="1">
         <v>229</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="8">
         <v>1185</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="2">
         <v>832</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="2">
         <v>748</v>
       </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:112" ht="24" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="2">
         <v>437</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="2">
         <v>174</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="10">
         <v>248</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="2">
         <v>248</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="8">
         <v>1010</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="2">
         <v>966</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="2">
         <v>824</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="16"/>
-      <c r="BB3" s="16"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="16"/>
-      <c r="BE3" s="16"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="16"/>
-      <c r="BH3" s="16"/>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="16"/>
-      <c r="BK3" s="16"/>
-      <c r="BL3" s="16"/>
-      <c r="BM3" s="16"/>
-      <c r="BN3" s="16"/>
-      <c r="BO3" s="16"/>
-      <c r="BP3" s="16"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="16"/>
-      <c r="BS3" s="16"/>
-      <c r="BT3" s="16"/>
-      <c r="BU3" s="16"/>
-      <c r="BV3" s="16"/>
-      <c r="BW3" s="16"/>
-      <c r="BX3" s="16"/>
-      <c r="BY3" s="16"/>
-      <c r="BZ3" s="16"/>
-      <c r="CA3" s="16"/>
-      <c r="CB3" s="16"/>
-      <c r="CC3" s="16"/>
-      <c r="CD3" s="16"/>
-      <c r="CE3" s="16"/>
-      <c r="CF3" s="16"/>
-      <c r="CG3" s="16"/>
-      <c r="CH3" s="16"/>
-      <c r="CI3" s="16"/>
-      <c r="CJ3" s="16"/>
-      <c r="CK3" s="16"/>
-      <c r="CL3" s="16"/>
-      <c r="CM3" s="16"/>
-      <c r="CN3" s="16"/>
-      <c r="CO3" s="16"/>
-      <c r="CP3" s="16"/>
-      <c r="CQ3" s="16"/>
-      <c r="CR3" s="16"/>
-      <c r="CS3" s="16"/>
-      <c r="CT3" s="16"/>
-      <c r="CU3" s="16"/>
-      <c r="CV3" s="16"/>
-      <c r="CW3" s="16"/>
-      <c r="CX3" s="16"/>
-      <c r="CY3" s="16"/>
-      <c r="CZ3" s="16"/>
-      <c r="DA3" s="16"/>
-      <c r="DB3" s="16"/>
-      <c r="DC3" s="16"/>
-      <c r="DD3" s="16"/>
-      <c r="DE3" s="16"/>
-      <c r="DF3" s="16"/>
-      <c r="DG3" s="16"/>
-      <c r="DH3" s="16"/>
-    </row>
-    <row r="4" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="2">
         <v>303</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="2">
         <v>222</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="2">
         <v>222</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="12">
         <v>449</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="8">
         <v>1849</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="2">
         <v>1445</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="2">
         <v>1218</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="2">
         <v>412</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="2">
         <v>285</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>361</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="2">
         <v>361</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="8">
         <v>759</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="2">
         <v>659</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="2">
         <v>420</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:112" ht="24" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="2">
         <v>332</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="2">
         <v>121</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="2">
         <v>121</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="2">
         <v>121</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="2">
         <v>121</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="44">
         <v>121</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="2">
         <v>121</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="16"/>
-      <c r="BC6" s="16"/>
-      <c r="BD6" s="16"/>
-      <c r="BE6" s="16"/>
-      <c r="BF6" s="16"/>
-      <c r="BG6" s="16"/>
-      <c r="BH6" s="16"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="16"/>
-      <c r="BK6" s="16"/>
-      <c r="BL6" s="16"/>
-      <c r="BM6" s="16"/>
-      <c r="BN6" s="16"/>
-      <c r="BO6" s="16"/>
-      <c r="BP6" s="16"/>
-      <c r="BQ6" s="16"/>
-      <c r="BR6" s="16"/>
-      <c r="BS6" s="16"/>
-      <c r="BT6" s="16"/>
-      <c r="BU6" s="16"/>
-      <c r="BV6" s="16"/>
-      <c r="BW6" s="16"/>
-      <c r="BX6" s="16"/>
-      <c r="BY6" s="16"/>
-      <c r="BZ6" s="16"/>
-      <c r="CA6" s="16"/>
-      <c r="CB6" s="16"/>
-      <c r="CC6" s="16"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="16"/>
-      <c r="CG6" s="16"/>
-      <c r="CH6" s="16"/>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
-      <c r="CQ6" s="16"/>
-      <c r="CR6" s="16"/>
-      <c r="CS6" s="16"/>
-      <c r="CT6" s="16"/>
-      <c r="CU6" s="16"/>
-      <c r="CV6" s="16"/>
-      <c r="CW6" s="16"/>
-      <c r="CX6" s="16"/>
-      <c r="CY6" s="16"/>
-      <c r="CZ6" s="16"/>
-      <c r="DA6" s="16"/>
-      <c r="DB6" s="16"/>
-      <c r="DC6" s="16"/>
-      <c r="DD6" s="16"/>
-      <c r="DE6" s="16"/>
-      <c r="DF6" s="16"/>
-      <c r="DG6" s="16"/>
-      <c r="DH6" s="16"/>
-    </row>
-    <row r="7" spans="1:112" ht="24" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="2">
         <v>742</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="2">
         <v>467</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="2">
         <v>467</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="2">
         <v>467</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="8">
         <v>1096</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="2">
         <v>1012</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="2">
         <v>890</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="16"/>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="16"/>
-      <c r="BL7" s="16"/>
-      <c r="BM7" s="16"/>
-      <c r="BN7" s="16"/>
-      <c r="BO7" s="16"/>
-      <c r="BP7" s="16"/>
-      <c r="BQ7" s="16"/>
-      <c r="BR7" s="16"/>
-      <c r="BS7" s="16"/>
-      <c r="BT7" s="16"/>
-      <c r="BU7" s="16"/>
-      <c r="BV7" s="16"/>
-      <c r="BW7" s="16"/>
-      <c r="BX7" s="16"/>
-      <c r="BY7" s="16"/>
-      <c r="BZ7" s="16"/>
-      <c r="CA7" s="16"/>
-      <c r="CB7" s="16"/>
-      <c r="CC7" s="16"/>
-      <c r="CD7" s="16"/>
-      <c r="CE7" s="16"/>
-      <c r="CF7" s="16"/>
-      <c r="CG7" s="16"/>
-      <c r="CH7" s="16"/>
-      <c r="CI7" s="16"/>
-      <c r="CJ7" s="16"/>
-      <c r="CK7" s="16"/>
-      <c r="CL7" s="16"/>
-      <c r="CM7" s="16"/>
-      <c r="CN7" s="16"/>
-      <c r="CO7" s="16"/>
-      <c r="CP7" s="16"/>
-      <c r="CQ7" s="16"/>
-      <c r="CR7" s="16"/>
-      <c r="CS7" s="16"/>
-      <c r="CT7" s="16"/>
-      <c r="CU7" s="16"/>
-      <c r="CV7" s="16"/>
-      <c r="CW7" s="16"/>
-      <c r="CX7" s="16"/>
-      <c r="CY7" s="16"/>
-      <c r="CZ7" s="16"/>
-      <c r="DA7" s="16"/>
-      <c r="DB7" s="16"/>
-      <c r="DC7" s="16"/>
-      <c r="DD7" s="16"/>
-      <c r="DE7" s="16"/>
-      <c r="DF7" s="16"/>
-      <c r="DG7" s="16"/>
-      <c r="DH7" s="16"/>
-    </row>
-    <row r="8" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="3">
         <v>145</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="3">
         <v>90</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="3">
         <v>90</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="3">
         <v>90</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="8">
         <v>2024</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="2">
         <v>1331</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="2">
         <v>1010</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:112" ht="24" customHeight="1">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2602,1438 +2249,407 @@
       <c r="E9" s="3">
         <v>79</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="2">
         <v>79</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="44">
         <v>79</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="2">
         <v>79</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16"/>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16"/>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
-      <c r="BM9" s="16"/>
-      <c r="BN9" s="16"/>
-      <c r="BO9" s="16"/>
-      <c r="BP9" s="16"/>
-      <c r="BQ9" s="16"/>
-      <c r="BR9" s="16"/>
-      <c r="BS9" s="16"/>
-      <c r="BT9" s="16"/>
-      <c r="BU9" s="16"/>
-      <c r="BV9" s="16"/>
-      <c r="BW9" s="16"/>
-      <c r="BX9" s="16"/>
-      <c r="BY9" s="16"/>
-      <c r="BZ9" s="16"/>
-      <c r="CA9" s="16"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="16"/>
-      <c r="CD9" s="16"/>
-      <c r="CE9" s="16"/>
-      <c r="CF9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16"/>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16"/>
-      <c r="CL9" s="16"/>
-      <c r="CM9" s="16"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
-      <c r="CP9" s="16"/>
-      <c r="CQ9" s="16"/>
-      <c r="CR9" s="16"/>
-      <c r="CS9" s="16"/>
-      <c r="CT9" s="16"/>
-      <c r="CU9" s="16"/>
-      <c r="CV9" s="16"/>
-      <c r="CW9" s="16"/>
-      <c r="CX9" s="16"/>
-      <c r="CY9" s="16"/>
-      <c r="CZ9" s="16"/>
-      <c r="DA9" s="16"/>
-      <c r="DB9" s="16"/>
-      <c r="DC9" s="16"/>
-      <c r="DD9" s="16"/>
-      <c r="DE9" s="16"/>
-      <c r="DF9" s="16"/>
-      <c r="DG9" s="16"/>
-      <c r="DH9" s="16"/>
-    </row>
-    <row r="10" spans="1:112" ht="24" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="2">
         <v>1562</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="2">
         <v>881</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="2">
         <v>881</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="2">
         <v>881</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="2">
         <v>881</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="2">
         <v>881</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="2">
         <v>881</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16"/>
-      <c r="BM10" s="16"/>
-      <c r="BN10" s="16"/>
-      <c r="BO10" s="16"/>
-      <c r="BP10" s="16"/>
-      <c r="BQ10" s="16"/>
-      <c r="BR10" s="16"/>
-      <c r="BS10" s="16"/>
-      <c r="BT10" s="16"/>
-      <c r="BU10" s="16"/>
-      <c r="BV10" s="16"/>
-      <c r="BW10" s="16"/>
-      <c r="BX10" s="16"/>
-      <c r="BY10" s="16"/>
-      <c r="BZ10" s="16"/>
-      <c r="CA10" s="16"/>
-      <c r="CB10" s="16"/>
-      <c r="CC10" s="16"/>
-      <c r="CD10" s="16"/>
-      <c r="CE10" s="16"/>
-      <c r="CF10" s="16"/>
-      <c r="CG10" s="16"/>
-      <c r="CH10" s="16"/>
-      <c r="CI10" s="16"/>
-      <c r="CJ10" s="16"/>
-      <c r="CK10" s="16"/>
-      <c r="CL10" s="16"/>
-      <c r="CM10" s="16"/>
-      <c r="CN10" s="16"/>
-      <c r="CO10" s="16"/>
-      <c r="CP10" s="16"/>
-      <c r="CQ10" s="16"/>
-      <c r="CR10" s="16"/>
-      <c r="CS10" s="16"/>
-      <c r="CT10" s="16"/>
-      <c r="CU10" s="16"/>
-      <c r="CV10" s="16"/>
-      <c r="CW10" s="16"/>
-      <c r="CX10" s="16"/>
-      <c r="CY10" s="16"/>
-      <c r="CZ10" s="16"/>
-      <c r="DA10" s="16"/>
-      <c r="DB10" s="16"/>
-      <c r="DC10" s="16"/>
-      <c r="DD10" s="16"/>
-      <c r="DE10" s="16"/>
-      <c r="DF10" s="16"/>
-      <c r="DG10" s="16"/>
-      <c r="DH10" s="16"/>
-    </row>
-    <row r="11" spans="1:112" ht="24" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="2">
         <v>930</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="2">
         <v>404</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="2">
         <v>404</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="2">
         <v>404</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="2">
         <v>404</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="44">
         <v>404</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="2">
         <v>404</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="16"/>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="16"/>
-      <c r="AX11" s="16"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="16"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="16"/>
-      <c r="BE11" s="16"/>
-      <c r="BF11" s="16"/>
-      <c r="BG11" s="16"/>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="16"/>
-      <c r="BK11" s="16"/>
-      <c r="BL11" s="16"/>
-      <c r="BM11" s="16"/>
-      <c r="BN11" s="16"/>
-      <c r="BO11" s="16"/>
-      <c r="BP11" s="16"/>
-      <c r="BQ11" s="16"/>
-      <c r="BR11" s="16"/>
-      <c r="BS11" s="16"/>
-      <c r="BT11" s="16"/>
-      <c r="BU11" s="16"/>
-      <c r="BV11" s="16"/>
-      <c r="BW11" s="16"/>
-      <c r="BX11" s="16"/>
-      <c r="BY11" s="16"/>
-      <c r="BZ11" s="16"/>
-      <c r="CA11" s="16"/>
-      <c r="CB11" s="16"/>
-      <c r="CC11" s="16"/>
-      <c r="CD11" s="16"/>
-      <c r="CE11" s="16"/>
-      <c r="CF11" s="16"/>
-      <c r="CG11" s="16"/>
-      <c r="CH11" s="16"/>
-      <c r="CI11" s="16"/>
-      <c r="CJ11" s="16"/>
-      <c r="CK11" s="16"/>
-      <c r="CL11" s="16"/>
-      <c r="CM11" s="16"/>
-      <c r="CN11" s="16"/>
-      <c r="CO11" s="16"/>
-      <c r="CP11" s="16"/>
-      <c r="CQ11" s="16"/>
-      <c r="CR11" s="16"/>
-      <c r="CS11" s="16"/>
-      <c r="CT11" s="16"/>
-      <c r="CU11" s="16"/>
-      <c r="CV11" s="16"/>
-      <c r="CW11" s="16"/>
-      <c r="CX11" s="16"/>
-      <c r="CY11" s="16"/>
-      <c r="CZ11" s="16"/>
-      <c r="DA11" s="16"/>
-      <c r="DB11" s="16"/>
-      <c r="DC11" s="16"/>
-      <c r="DD11" s="16"/>
-      <c r="DE11" s="16"/>
-      <c r="DF11" s="16"/>
-      <c r="DG11" s="16"/>
-      <c r="DH11" s="16"/>
-    </row>
-    <row r="12" spans="1:112" ht="24" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="2">
         <v>1763</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="2">
         <v>1140</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="2">
         <v>1140</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="2">
         <v>1140</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="2">
         <v>1140</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="2">
         <v>1140</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="2">
         <v>1140</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="16"/>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="16"/>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="16"/>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="16"/>
-      <c r="BD12" s="16"/>
-      <c r="BE12" s="16"/>
-      <c r="BF12" s="16"/>
-      <c r="BG12" s="16"/>
-      <c r="BH12" s="16"/>
-      <c r="BI12" s="16"/>
-      <c r="BJ12" s="16"/>
-      <c r="BK12" s="16"/>
-      <c r="BL12" s="16"/>
-      <c r="BM12" s="16"/>
-      <c r="BN12" s="16"/>
-      <c r="BO12" s="16"/>
-      <c r="BP12" s="16"/>
-      <c r="BQ12" s="16"/>
-      <c r="BR12" s="16"/>
-      <c r="BS12" s="16"/>
-      <c r="BT12" s="16"/>
-      <c r="BU12" s="16"/>
-      <c r="BV12" s="16"/>
-      <c r="BW12" s="16"/>
-      <c r="BX12" s="16"/>
-      <c r="BY12" s="16"/>
-      <c r="BZ12" s="16"/>
-      <c r="CA12" s="16"/>
-      <c r="CB12" s="16"/>
-      <c r="CC12" s="16"/>
-      <c r="CD12" s="16"/>
-      <c r="CE12" s="16"/>
-      <c r="CF12" s="16"/>
-      <c r="CG12" s="16"/>
-      <c r="CH12" s="16"/>
-      <c r="CI12" s="16"/>
-      <c r="CJ12" s="16"/>
-      <c r="CK12" s="16"/>
-      <c r="CL12" s="16"/>
-      <c r="CM12" s="16"/>
-      <c r="CN12" s="16"/>
-      <c r="CO12" s="16"/>
-      <c r="CP12" s="16"/>
-      <c r="CQ12" s="16"/>
-      <c r="CR12" s="16"/>
-      <c r="CS12" s="16"/>
-      <c r="CT12" s="16"/>
-      <c r="CU12" s="16"/>
-      <c r="CV12" s="16"/>
-      <c r="CW12" s="16"/>
-      <c r="CX12" s="16"/>
-      <c r="CY12" s="16"/>
-      <c r="CZ12" s="16"/>
-      <c r="DA12" s="16"/>
-      <c r="DB12" s="16"/>
-      <c r="DC12" s="16"/>
-      <c r="DD12" s="16"/>
-      <c r="DE12" s="16"/>
-      <c r="DF12" s="16"/>
-      <c r="DG12" s="16"/>
-      <c r="DH12" s="16"/>
-    </row>
-    <row r="13" spans="1:112" ht="24" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="2">
         <v>1063</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="2">
         <v>891</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="10">
         <v>1238</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="12">
         <v>1402</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="8">
         <v>1397</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="2">
         <v>1397</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="2">
         <v>1397</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
-      <c r="AR13" s="16"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="16"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
-      <c r="AZ13" s="16"/>
-      <c r="BA13" s="16"/>
-      <c r="BB13" s="16"/>
-      <c r="BC13" s="16"/>
-      <c r="BD13" s="16"/>
-      <c r="BE13" s="16"/>
-      <c r="BF13" s="16"/>
-      <c r="BG13" s="16"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="16"/>
-      <c r="BJ13" s="16"/>
-      <c r="BK13" s="16"/>
-      <c r="BL13" s="16"/>
-      <c r="BM13" s="16"/>
-      <c r="BN13" s="16"/>
-      <c r="BO13" s="16"/>
-      <c r="BP13" s="16"/>
-      <c r="BQ13" s="16"/>
-      <c r="BR13" s="16"/>
-      <c r="BS13" s="16"/>
-      <c r="BT13" s="16"/>
-      <c r="BU13" s="16"/>
-      <c r="BV13" s="16"/>
-      <c r="BW13" s="16"/>
-      <c r="BX13" s="16"/>
-      <c r="BY13" s="16"/>
-      <c r="BZ13" s="16"/>
-      <c r="CA13" s="16"/>
-      <c r="CB13" s="16"/>
-      <c r="CC13" s="16"/>
-      <c r="CD13" s="16"/>
-      <c r="CE13" s="16"/>
-      <c r="CF13" s="16"/>
-      <c r="CG13" s="16"/>
-      <c r="CH13" s="16"/>
-      <c r="CI13" s="16"/>
-      <c r="CJ13" s="16"/>
-      <c r="CK13" s="16"/>
-      <c r="CL13" s="16"/>
-      <c r="CM13" s="16"/>
-      <c r="CN13" s="16"/>
-      <c r="CO13" s="16"/>
-      <c r="CP13" s="16"/>
-      <c r="CQ13" s="16"/>
-      <c r="CR13" s="16"/>
-      <c r="CS13" s="16"/>
-      <c r="CT13" s="16"/>
-      <c r="CU13" s="16"/>
-      <c r="CV13" s="16"/>
-      <c r="CW13" s="16"/>
-      <c r="CX13" s="16"/>
-      <c r="CY13" s="16"/>
-      <c r="CZ13" s="16"/>
-      <c r="DA13" s="16"/>
-      <c r="DB13" s="16"/>
-      <c r="DC13" s="16"/>
-      <c r="DD13" s="16"/>
-      <c r="DE13" s="16"/>
-      <c r="DF13" s="16"/>
-      <c r="DG13" s="16"/>
-      <c r="DH13" s="16"/>
-    </row>
-    <row r="14" spans="1:112" ht="24" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="2">
         <v>1165</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="2">
         <v>569</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="2">
         <v>569</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="2">
         <v>569</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="2">
         <v>569</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="44">
         <v>569</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="2">
         <v>569</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="16"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
-      <c r="AW14" s="16"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="16"/>
-      <c r="BF14" s="16"/>
-      <c r="BG14" s="16"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="16"/>
-      <c r="BK14" s="16"/>
-      <c r="BL14" s="16"/>
-      <c r="BM14" s="16"/>
-      <c r="BN14" s="16"/>
-      <c r="BO14" s="16"/>
-      <c r="BP14" s="16"/>
-      <c r="BQ14" s="16"/>
-      <c r="BR14" s="16"/>
-      <c r="BS14" s="16"/>
-      <c r="BT14" s="16"/>
-      <c r="BU14" s="16"/>
-      <c r="BV14" s="16"/>
-      <c r="BW14" s="16"/>
-      <c r="BX14" s="16"/>
-      <c r="BY14" s="16"/>
-      <c r="BZ14" s="16"/>
-      <c r="CA14" s="16"/>
-      <c r="CB14" s="16"/>
-      <c r="CC14" s="16"/>
-      <c r="CD14" s="16"/>
-      <c r="CE14" s="16"/>
-      <c r="CF14" s="16"/>
-      <c r="CG14" s="16"/>
-      <c r="CH14" s="16"/>
-      <c r="CI14" s="16"/>
-      <c r="CJ14" s="16"/>
-      <c r="CK14" s="16"/>
-      <c r="CL14" s="16"/>
-      <c r="CM14" s="16"/>
-      <c r="CN14" s="16"/>
-      <c r="CO14" s="16"/>
-      <c r="CP14" s="16"/>
-      <c r="CQ14" s="16"/>
-      <c r="CR14" s="16"/>
-      <c r="CS14" s="16"/>
-      <c r="CT14" s="16"/>
-      <c r="CU14" s="16"/>
-      <c r="CV14" s="16"/>
-      <c r="CW14" s="16"/>
-      <c r="CX14" s="16"/>
-      <c r="CY14" s="16"/>
-      <c r="CZ14" s="16"/>
-      <c r="DA14" s="16"/>
-      <c r="DB14" s="16"/>
-      <c r="DC14" s="16"/>
-      <c r="DD14" s="16"/>
-      <c r="DE14" s="16"/>
-      <c r="DF14" s="16"/>
-      <c r="DG14" s="16"/>
-      <c r="DH14" s="16"/>
-    </row>
-    <row r="15" spans="1:112" ht="24" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="2">
         <v>2012</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="2">
         <v>1248</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="2">
         <v>1248</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="2">
         <v>1248</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="2">
         <v>1248</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="2">
         <v>1248</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="2">
         <v>559</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="16"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="16"/>
-      <c r="AR15" s="16"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="16"/>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="16"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="16"/>
-      <c r="AZ15" s="16"/>
-      <c r="BA15" s="16"/>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="16"/>
-      <c r="BD15" s="16"/>
-      <c r="BE15" s="16"/>
-      <c r="BF15" s="16"/>
-      <c r="BG15" s="16"/>
-      <c r="BH15" s="16"/>
-      <c r="BI15" s="16"/>
-      <c r="BJ15" s="16"/>
-      <c r="BK15" s="16"/>
-      <c r="BL15" s="16"/>
-      <c r="BM15" s="16"/>
-      <c r="BN15" s="16"/>
-      <c r="BO15" s="16"/>
-      <c r="BP15" s="16"/>
-      <c r="BQ15" s="16"/>
-      <c r="BR15" s="16"/>
-      <c r="BS15" s="16"/>
-      <c r="BT15" s="16"/>
-      <c r="BU15" s="16"/>
-      <c r="BV15" s="16"/>
-      <c r="BW15" s="16"/>
-      <c r="BX15" s="16"/>
-      <c r="BY15" s="16"/>
-      <c r="BZ15" s="16"/>
-      <c r="CA15" s="16"/>
-      <c r="CB15" s="16"/>
-      <c r="CC15" s="16"/>
-      <c r="CD15" s="16"/>
-      <c r="CE15" s="16"/>
-      <c r="CF15" s="16"/>
-      <c r="CG15" s="16"/>
-      <c r="CH15" s="16"/>
-      <c r="CI15" s="16"/>
-      <c r="CJ15" s="16"/>
-      <c r="CK15" s="16"/>
-      <c r="CL15" s="16"/>
-      <c r="CM15" s="16"/>
-      <c r="CN15" s="16"/>
-      <c r="CO15" s="16"/>
-      <c r="CP15" s="16"/>
-      <c r="CQ15" s="16"/>
-      <c r="CR15" s="16"/>
-      <c r="CS15" s="16"/>
-      <c r="CT15" s="16"/>
-      <c r="CU15" s="16"/>
-      <c r="CV15" s="16"/>
-      <c r="CW15" s="16"/>
-      <c r="CX15" s="16"/>
-      <c r="CY15" s="16"/>
-      <c r="CZ15" s="16"/>
-      <c r="DA15" s="16"/>
-      <c r="DB15" s="16"/>
-      <c r="DC15" s="16"/>
-      <c r="DD15" s="16"/>
-      <c r="DE15" s="16"/>
-      <c r="DF15" s="16"/>
-      <c r="DG15" s="16"/>
-      <c r="DH15" s="16"/>
-    </row>
-    <row r="16" spans="1:112" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="17" t="s">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="2">
         <v>629</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="2">
         <v>460</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="2">
         <v>567</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="12">
         <v>753</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="8">
         <v>2098</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="2">
         <v>1476</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="2">
         <v>1386</v>
       </c>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:112" ht="24" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="2">
         <v>645</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="2">
         <v>270</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="2">
         <v>270</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="2">
         <v>270</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="2">
         <v>270</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="44">
         <v>270</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="2">
         <v>270</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="16"/>
-      <c r="BA17" s="16"/>
-      <c r="BB17" s="16"/>
-      <c r="BC17" s="16"/>
-      <c r="BD17" s="16"/>
-      <c r="BE17" s="16"/>
-      <c r="BF17" s="16"/>
-      <c r="BG17" s="16"/>
-      <c r="BH17" s="16"/>
-      <c r="BI17" s="16"/>
-      <c r="BJ17" s="16"/>
-      <c r="BK17" s="16"/>
-      <c r="BL17" s="16"/>
-      <c r="BM17" s="16"/>
-      <c r="BN17" s="16"/>
-      <c r="BO17" s="16"/>
-      <c r="BP17" s="16"/>
-      <c r="BQ17" s="16"/>
-      <c r="BR17" s="16"/>
-      <c r="BS17" s="16"/>
-      <c r="BT17" s="16"/>
-      <c r="BU17" s="16"/>
-      <c r="BV17" s="16"/>
-      <c r="BW17" s="16"/>
-      <c r="BX17" s="16"/>
-      <c r="BY17" s="16"/>
-      <c r="BZ17" s="16"/>
-      <c r="CA17" s="16"/>
-      <c r="CB17" s="16"/>
-      <c r="CC17" s="16"/>
-      <c r="CD17" s="16"/>
-      <c r="CE17" s="16"/>
-      <c r="CF17" s="16"/>
-      <c r="CG17" s="16"/>
-      <c r="CH17" s="16"/>
-      <c r="CI17" s="16"/>
-      <c r="CJ17" s="16"/>
-      <c r="CK17" s="16"/>
-      <c r="CL17" s="16"/>
-      <c r="CM17" s="16"/>
-      <c r="CN17" s="16"/>
-      <c r="CO17" s="16"/>
-      <c r="CP17" s="16"/>
-      <c r="CQ17" s="16"/>
-      <c r="CR17" s="16"/>
-      <c r="CS17" s="16"/>
-      <c r="CT17" s="16"/>
-      <c r="CU17" s="16"/>
-      <c r="CV17" s="16"/>
-      <c r="CW17" s="16"/>
-      <c r="CX17" s="16"/>
-      <c r="CY17" s="16"/>
-      <c r="CZ17" s="16"/>
-      <c r="DA17" s="16"/>
-      <c r="DB17" s="16"/>
-      <c r="DC17" s="16"/>
-      <c r="DD17" s="16"/>
-      <c r="DE17" s="16"/>
-      <c r="DF17" s="16"/>
-      <c r="DG17" s="16"/>
-      <c r="DH17" s="16"/>
-    </row>
-    <row r="18" spans="1:112" ht="24" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="2">
         <v>1145</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="2">
         <v>521</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="2">
         <v>521</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="2">
         <v>521</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="8">
         <v>1012</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="2">
         <v>895</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="2">
         <v>841</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="16"/>
-      <c r="BB18" s="16"/>
-      <c r="BC18" s="16"/>
-      <c r="BD18" s="16"/>
-      <c r="BE18" s="16"/>
-      <c r="BF18" s="16"/>
-      <c r="BG18" s="16"/>
-      <c r="BH18" s="16"/>
-      <c r="BI18" s="16"/>
-      <c r="BJ18" s="16"/>
-      <c r="BK18" s="16"/>
-      <c r="BL18" s="16"/>
-      <c r="BM18" s="16"/>
-      <c r="BN18" s="16"/>
-      <c r="BO18" s="16"/>
-      <c r="BP18" s="16"/>
-      <c r="BQ18" s="16"/>
-      <c r="BR18" s="16"/>
-      <c r="BS18" s="16"/>
-      <c r="BT18" s="16"/>
-      <c r="BU18" s="16"/>
-      <c r="BV18" s="16"/>
-      <c r="BW18" s="16"/>
-      <c r="BX18" s="16"/>
-      <c r="BY18" s="16"/>
-      <c r="BZ18" s="16"/>
-      <c r="CA18" s="16"/>
-      <c r="CB18" s="16"/>
-      <c r="CC18" s="16"/>
-      <c r="CD18" s="16"/>
-      <c r="CE18" s="16"/>
-      <c r="CF18" s="16"/>
-      <c r="CG18" s="16"/>
-      <c r="CH18" s="16"/>
-      <c r="CI18" s="16"/>
-      <c r="CJ18" s="16"/>
-      <c r="CK18" s="16"/>
-      <c r="CL18" s="16"/>
-      <c r="CM18" s="16"/>
-      <c r="CN18" s="16"/>
-      <c r="CO18" s="16"/>
-      <c r="CP18" s="16"/>
-      <c r="CQ18" s="16"/>
-      <c r="CR18" s="16"/>
-      <c r="CS18" s="16"/>
-      <c r="CT18" s="16"/>
-      <c r="CU18" s="16"/>
-      <c r="CV18" s="16"/>
-      <c r="CW18" s="16"/>
-      <c r="CX18" s="16"/>
-      <c r="CY18" s="16"/>
-      <c r="CZ18" s="16"/>
-      <c r="DA18" s="16"/>
-      <c r="DB18" s="16"/>
-      <c r="DC18" s="16"/>
-      <c r="DD18" s="16"/>
-      <c r="DE18" s="16"/>
-      <c r="DF18" s="16"/>
-      <c r="DG18" s="16"/>
-      <c r="DH18" s="16"/>
-    </row>
-    <row r="19" spans="1:112" s="55" customFormat="1" ht="24" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1">
+      <c r="A19" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="13">
         <f t="shared" ref="B19:D19" si="0">SUM(B2:B18)</f>
         <v>13937</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>8051</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="13">
         <f t="shared" si="0"/>
         <v>8655</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="13">
         <f>SUM(E2:E18)</f>
         <v>9232</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="13">
         <f>SUM(F2:F18)</f>
         <v>17142</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="13">
         <f>SUM(G2:G18)</f>
         <v>14725</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="13">
         <f>SUM(H2:H18)</f>
         <v>12757</v>
       </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="56"/>
-      <c r="AU19" s="56"/>
-      <c r="AV19" s="56"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="56"/>
-      <c r="AY19" s="56"/>
-      <c r="AZ19" s="56"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="56"/>
-      <c r="BP19" s="56"/>
-      <c r="BQ19" s="56"/>
-      <c r="BR19" s="56"/>
-      <c r="BS19" s="56"/>
-      <c r="BT19" s="56"/>
-      <c r="BU19" s="56"/>
-      <c r="BV19" s="56"/>
-      <c r="BW19" s="56"/>
-      <c r="BX19" s="56"/>
-      <c r="BY19" s="56"/>
-      <c r="BZ19" s="56"/>
-      <c r="CA19" s="56"/>
-      <c r="CB19" s="56"/>
-      <c r="CC19" s="56"/>
-      <c r="CD19" s="56"/>
-      <c r="CE19" s="56"/>
-      <c r="CF19" s="56"/>
-      <c r="CG19" s="56"/>
-      <c r="CH19" s="56"/>
-      <c r="CI19" s="56"/>
-      <c r="CJ19" s="56"/>
-      <c r="CK19" s="56"/>
-      <c r="CL19" s="56"/>
-      <c r="CM19" s="56"/>
-      <c r="CN19" s="56"/>
-      <c r="CO19" s="56"/>
-      <c r="CP19" s="56"/>
-      <c r="CQ19" s="56"/>
-      <c r="CR19" s="56"/>
-      <c r="CS19" s="56"/>
-      <c r="CT19" s="56"/>
-      <c r="CU19" s="56"/>
-      <c r="CV19" s="56"/>
-      <c r="CW19" s="56"/>
-      <c r="CX19" s="56"/>
-      <c r="CY19" s="56"/>
-      <c r="CZ19" s="56"/>
-      <c r="DA19" s="56"/>
-      <c r="DB19" s="56"/>
-      <c r="DC19" s="56"/>
-      <c r="DD19" s="56"/>
-      <c r="DE19" s="56"/>
-      <c r="DF19" s="56"/>
-      <c r="DG19" s="56"/>
-      <c r="DH19" s="56"/>
-    </row>
-    <row r="20" spans="1:112" ht="24" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="F20" s="59" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="24" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="F20" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="2">
         <v>9232</v>
       </c>
     </row>
-    <row r="21" spans="1:112" ht="24" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="F21" s="18"/>
+    <row r="21" spans="1:9" ht="24" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="F21" s="11"/>
       <c r="G21">
         <f>G19-G20</f>
         <v>5493</v>
       </c>
     </row>
-    <row r="22" spans="1:112" ht="24" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:112" ht="24" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:112" ht="24" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:112" ht="24" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:112" ht="24" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:112" ht="24" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:112" ht="16" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:112" ht="16" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:112" ht="16" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:112" ht="16" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:112" ht="16" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+    <row r="22" spans="1:9" ht="24" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="24" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="24" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="24" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="24" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="16" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="16" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="16" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" ht="16" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" ht="16" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" ht="16" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="16" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="16" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="16" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="16" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="16" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="16" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" ht="16" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="16" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
@@ -4059,49 +2675,49 @@
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
     <col min="3" max="3" width="43.83203125" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="1">
         <v>229</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="2">
         <v>519</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="9">
         <f>C2+B2</f>
         <v>748</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="2">
         <v>832</v>
       </c>
       <c r="F2" s="2">
@@ -4114,20 +2730,20 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="2">
         <v>248</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="2">
         <v>576</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="9">
         <f t="shared" ref="D3:D18" si="0">C3+B3</f>
         <v>824</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="2">
         <v>966</v>
       </c>
       <c r="F3" s="2">
@@ -4140,20 +2756,20 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="12">
         <v>449</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="2">
         <v>773</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>1222</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="2">
         <v>1445</v>
       </c>
       <c r="F4" s="2">
@@ -4166,20 +2782,20 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="2">
         <v>361</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="2">
         <v>60</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>421</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="2">
         <v>659</v>
       </c>
       <c r="F5" s="2">
@@ -4192,18 +2808,18 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="2">
         <v>121</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="2">
         <v>121</v>
       </c>
       <c r="F6" s="2">
@@ -4216,20 +2832,20 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="2">
         <v>467</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="2">
         <v>423</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>890</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="2">
         <v>1012</v>
       </c>
       <c r="F7" s="2">
@@ -4242,20 +2858,20 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="3">
         <v>90</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="2">
         <v>920</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="2">
         <v>1331</v>
       </c>
       <c r="F8" s="2">
@@ -4274,12 +2890,12 @@
       <c r="B9" s="3">
         <v>79</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="2">
         <v>79</v>
       </c>
       <c r="F9" s="2">
@@ -4292,18 +2908,18 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="2">
         <v>881</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>881</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="2">
         <v>881</v>
       </c>
       <c r="F10" s="2">
@@ -4316,18 +2932,18 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="2">
         <v>404</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>404</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="2">
         <v>404</v>
       </c>
       <c r="F11" s="2">
@@ -4340,18 +2956,18 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="2">
         <v>1140</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="2">
         <v>1140</v>
       </c>
       <c r="F12" s="2">
@@ -4364,17 +2980,17 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="12">
         <v>1397</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="1">
         <v>1397</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="2">
         <v>1397</v>
       </c>
       <c r="F13" s="2">
@@ -4387,18 +3003,18 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="2">
         <v>569</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>569</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="2">
         <v>569</v>
       </c>
       <c r="F14" s="2">
@@ -4411,18 +3027,18 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="2">
         <v>1248</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>1248</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="2">
         <v>1248</v>
       </c>
       <c r="F15" s="2">
@@ -4435,20 +3051,20 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="12">
         <v>753</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="2">
         <v>643</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>1396</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="2">
         <v>1476</v>
       </c>
       <c r="F16" s="2">
@@ -4461,18 +3077,18 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="2">
         <v>270</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="2">
         <v>270</v>
       </c>
       <c r="F17" s="2">
@@ -4485,20 +3101,20 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="2">
         <v>521</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="2">
         <v>320</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>841</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="2">
         <v>895</v>
       </c>
       <c r="F18" s="2">
@@ -4511,22 +3127,22 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="26">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="13">
         <f>SUM(B2:B18)</f>
         <v>9227</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="13">
         <f>SUM(C2:C18)</f>
         <v>4234</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <f>SUM(D2:D18)</f>
         <v>13461</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="13">
         <f>SUM(E2:E18)</f>
         <v>14725</v>
       </c>
@@ -4564,37 +3180,37 @@
     <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:12" ht="24">
+      <c r="A1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="38" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="2">
         <v>229</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="45">
         <f>L2-B2</f>
         <v>603</v>
       </c>
@@ -4602,25 +3218,25 @@
         <f>C2-E2</f>
         <v>84</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="2">
         <v>519</v>
       </c>
       <c r="F2" s="2">
         <f>B2+E2</f>
         <v>748</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="2">
         <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="2">
         <v>248</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="45">
         <f t="shared" ref="C3:C19" si="0">L3-B3</f>
         <v>718</v>
       </c>
@@ -4628,25 +3244,25 @@
         <f t="shared" ref="D3:D19" si="1">C3-E3</f>
         <v>142</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="2">
         <v>576</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F19" si="2">B3+E3</f>
         <v>824</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="2">
         <v>966</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="2">
         <v>449</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="45">
         <f t="shared" si="0"/>
         <v>996</v>
       </c>
@@ -4654,25 +3270,25 @@
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="2">
         <v>773</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="2"/>
         <v>1222</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="2">
         <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="2">
         <v>361</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="45">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
@@ -4680,51 +3296,51 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="2">
         <v>60</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="48">
         <f t="shared" si="2"/>
         <v>421</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="2">
         <v>659</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="70" customFormat="1">
-      <c r="A6" s="69" t="s">
+    <row r="6" spans="1:12" s="46" customFormat="1">
+      <c r="A6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="46">
         <v>121</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="46">
         <v>0</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="46">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="46">
         <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="2">
         <v>467</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="45">
         <f t="shared" si="0"/>
         <v>545</v>
       </c>
@@ -4732,25 +3348,25 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="2">
         <v>423</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>890</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="2">
         <v>1012</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="5">
         <v>90</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="45">
         <f t="shared" si="0"/>
         <v>1241</v>
       </c>
@@ -4758,48 +3374,48 @@
         <f t="shared" si="1"/>
         <v>321</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="2">
         <v>920</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="2"/>
         <v>1010</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="2">
         <v>1331</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="70" customFormat="1">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:12" s="46" customFormat="1">
+      <c r="A9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="47">
         <v>79</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="46">
         <v>0</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="46">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L9" s="46">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="2">
         <v>881</v>
       </c>
       <c r="C10" s="2">
@@ -4810,48 +3426,48 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
         <v>881</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="2">
         <v>881</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="19" customFormat="1">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="2">
         <v>404</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="2">
         <f t="shared" si="2"/>
         <v>404</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="2">
         <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="2">
         <v>1140</v>
       </c>
       <c r="C12" s="2">
@@ -4862,22 +3478,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
         <v>1140</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="2">
         <v>1140</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="2">
         <v>1397</v>
       </c>
       <c r="C13" s="2">
@@ -4888,48 +3504,48 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>1397</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="2">
         <v>1397</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="70" customFormat="1">
-      <c r="A14" s="69" t="s">
+    <row r="14" spans="1:12" s="46" customFormat="1">
+      <c r="A14" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="46">
         <v>569</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="46">
         <v>0</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="46">
         <f t="shared" si="2"/>
         <v>569</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="46">
         <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="2">
         <v>1248</v>
       </c>
       <c r="C15" s="2">
@@ -4940,25 +3556,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>1248</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="2">
         <v>1248</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="2">
         <v>753</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="45">
         <f t="shared" si="0"/>
         <v>723</v>
       </c>
@@ -4966,51 +3582,51 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="2">
         <v>643</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
         <v>1396</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="2">
         <v>1476</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="70" customFormat="1">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:12" s="46" customFormat="1">
+      <c r="A17" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="46">
         <v>270</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="46">
         <v>0</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="46">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="L17" s="70">
+      <c r="L17" s="46">
         <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="2">
         <v>521</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="45">
         <f t="shared" si="0"/>
         <v>374</v>
       </c>
@@ -5018,42 +3634,42 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="2">
         <v>320</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
         <v>841</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="2">
         <v>895</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="26">
-      <c r="A19" s="67" t="s">
+    <row r="19" spans="1:12" s="6" customFormat="1" ht="26">
+      <c r="A19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <f>SUM(B2:B18)</f>
         <v>9227</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <f t="shared" si="0"/>
         <v>5498</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <f t="shared" si="1"/>
         <v>1264</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <f>SUM(E2:E18)</f>
         <v>4234</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
         <v>13461</v>
       </c>
-      <c r="L19" s="56">
+      <c r="L19" s="13">
         <f>SUM(L2:L18)</f>
         <v>14725</v>
       </c>
@@ -5080,34 +3696,34 @@
     <col min="67" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="26" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="26" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="26" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -5118,13 +3734,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="26" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -5135,13 +3751,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="26" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -5152,13 +3768,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="26" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -5169,13 +3785,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="26" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -5186,13 +3802,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="26" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -5203,13 +3819,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="26" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -5220,13 +3836,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="26" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -5237,13 +3853,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="26" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -5254,13 +3870,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="26" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -5271,13 +3887,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="26" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -5288,13 +3904,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="26" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -5305,13 +3921,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="26" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -5322,13 +3938,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -5339,13 +3955,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="26" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -5356,13 +3972,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="26" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -5373,13 +3989,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="26" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -5390,13 +4006,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="26" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -5407,13 +4023,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="26" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -5424,13 +4040,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="26" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -5441,13 +4057,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="26" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -5458,13 +4074,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -5475,13 +4091,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -5492,13 +4108,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="26" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -5509,13 +4125,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="26" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -5526,13 +4142,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="26" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -5543,13 +4159,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="26" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -5560,13 +4176,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="26" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -5577,13 +4193,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="26" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -5594,13 +4210,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="26" customHeight="1">
-      <c r="A31" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -5611,13 +4227,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="26" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -5628,13 +4244,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="26" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -5645,13 +4261,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -5662,13 +4278,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -5679,13 +4295,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="26" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -5696,13 +4312,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="26" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -5713,13 +4329,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="26" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -5730,13 +4346,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="26" customHeight="1">
-      <c r="A39" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -5747,13 +4363,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="26" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -5764,13 +4380,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="26" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -5781,13 +4397,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="26" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -5798,13 +4414,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="26" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -5815,13 +4431,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="26" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -5832,13 +4448,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1">
-      <c r="A45" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -5849,13 +4465,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -5866,13 +4482,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="26" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -5883,13 +4499,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="26" customHeight="1">
-      <c r="A48" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -5900,13 +4516,13 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="26" customHeight="1">
-      <c r="A49" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -5938,662 +4554,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" customHeight="1">
-      <c r="E1" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="54"/>
+      <c r="G1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="60"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="28" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="19">
         <v>0.65339999999999998</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="20">
         <v>0.53390000000000004</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>0.4914</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>0.52249999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="6">
         <v>0.3755</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="23">
         <v>0.27210000000000001</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>0.47289999999999999</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>0.48370000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="6">
         <v>0.2697</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="23">
         <v>0.22520000000000001</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>0.47320000000000001</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>0.48759999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="6">
         <v>0.45550000000000002</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="23">
         <v>0.53400000000000003</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>0.47889999999999999</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>0.48559999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="6">
         <v>0.44259999999999999</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="23">
         <v>0.38119999999999998</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>0.48199999999999998</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1">
-      <c r="A8" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="28">
         <v>0.46389999999999998</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="29">
         <v>0.41849999999999998</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="28" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="19">
         <v>0.65149999999999997</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="20">
         <v>0.66900000000000004</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>0.41760000000000003</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>0.4854</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="6">
         <v>0.25740000000000002</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="23">
         <v>0.22570000000000001</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>0.38390000000000002</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>0.43740000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="6">
         <v>0.30130000000000001</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="23">
         <v>0.2626</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>0.3891</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>0.4592</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="6">
         <v>0.1522</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="23">
         <v>0.11700000000000001</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>0.34410000000000002</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="6">
         <v>0.32900000000000001</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="23">
         <v>0.30990000000000001</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>0.3861</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>0.43809999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28" customHeight="1">
-      <c r="A14" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="28">
         <v>0.32540000000000002</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="29">
         <v>0.31230000000000002</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="28" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="19">
         <v>0.51439999999999997</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="20">
         <v>0.46489999999999998</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="28" customHeight="1">
-      <c r="A16" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="6">
         <v>0.47570000000000001</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="23">
         <v>0.43840000000000001</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="28" customHeight="1">
-      <c r="A17" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="6">
         <v>0.45710000000000001</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="23">
         <v>0.4017</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="28" customHeight="1">
-      <c r="A18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="6">
         <v>0.35139999999999999</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="23">
         <v>0.22040000000000001</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="28" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="6">
         <v>0.45600000000000002</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="23">
         <v>0.372</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="28" customHeight="1">
-      <c r="A20" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="28">
         <v>0.40629999999999999</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="29">
         <v>0.32829999999999998</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="28" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="52" t="s">
+      <c r="A21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="19">
         <v>0.50800000000000001</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="20">
         <v>0.40600000000000003</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>0.45519999999999999</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="6">
         <v>0.51329999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="6">
         <v>0.5796</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="23">
         <v>0.42399999999999999</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>0.4456</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <v>0.47649999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="6">
         <v>0.57179999999999997</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="23">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>0.43809999999999999</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>0.49530000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="6">
         <v>0.49909999999999999</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="23">
         <v>0.44679999999999997</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <v>0.4355</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <v>0.4627</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="6">
         <v>0.53779999999999994</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="23">
         <v>0.45069999999999999</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>0.437</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="28" customHeight="1">
-      <c r="A26" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="28">
         <v>0.27589999999999998</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="29">
         <v>0.25659999999999999</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="28" customHeight="1">
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:8" ht="28" customHeight="1">
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="28" customHeight="1">
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="28" customHeight="1">
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="28" customHeight="1">
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" ht="28" customHeight="1">
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="7:8" ht="28" customHeight="1">
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="7:8" ht="28" customHeight="1">
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="7:8" ht="28" customHeight="1">
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
     </row>
     <row r="36" spans="7:8" ht="28" customHeight="1"/>
     <row r="37" spans="7:8" ht="28" customHeight="1"/>
@@ -6789,695 +5405,716 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66642990-B574-1649-9655-48EDEBCA324A}">
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
-    <col min="10" max="23" width="20.83203125" customWidth="1"/>
+    <col min="2" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="22" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
-      <c r="E1" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="26" t="s">
+    <row r="1" spans="1:8" ht="24" customHeight="1">
+      <c r="D1" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="H1" s="54"/>
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:8" ht="24" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="32">
+      <c r="D3" s="19">
         <v>0.68049999999999999</v>
       </c>
-      <c r="F3" s="32">
+      <c r="E3" s="19">
         <v>0.62380000000000002</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19">
         <v>0.4914</v>
       </c>
-      <c r="I3" s="33">
+      <c r="H3" s="20">
         <v>0.52249999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="1:8" ht="24" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="38">
+      <c r="D4" s="6">
         <v>0.66439999999999999</v>
       </c>
-      <c r="F4" s="38">
+      <c r="E4" s="6">
         <v>0.57679999999999998</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
         <v>0.47289999999999999</v>
       </c>
-      <c r="I4" s="39">
+      <c r="H4" s="23">
         <v>0.48370000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="1:8" ht="24" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="38">
+      <c r="D5" s="6">
         <v>0.58750000000000002</v>
       </c>
-      <c r="F5" s="38">
+      <c r="E5" s="6">
         <v>0.47249999999999998</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>0.47320000000000001</v>
       </c>
-      <c r="I5" s="39">
+      <c r="H5" s="23">
         <v>0.48759999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="1:8" ht="24" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="38">
+      <c r="D6" s="6">
         <v>0.55130000000000001</v>
       </c>
-      <c r="F6" s="38">
+      <c r="E6" s="6">
         <v>0.38140000000000002</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>0.47889999999999999</v>
       </c>
-      <c r="I6" s="39">
+      <c r="H6" s="23">
         <v>0.48559999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="1:8" ht="24" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="38">
+      <c r="D7" s="6">
         <v>0.62919999999999998</v>
       </c>
-      <c r="F7" s="38">
+      <c r="E7" s="6">
         <v>0.49959999999999999</v>
       </c>
-      <c r="G7" s="38">
+      <c r="F7" s="6">
         <v>0.47170000000000001</v>
       </c>
-      <c r="H7" s="38">
+      <c r="G7" s="6">
         <v>0.48199999999999998</v>
       </c>
-      <c r="I7" s="39">
+      <c r="H7" s="23">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
-      <c r="A8" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="41" t="s">
+    <row r="8" spans="1:8" ht="24" customHeight="1">
+      <c r="A8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="44">
+      <c r="D8" s="28">
         <v>0.58830000000000005</v>
       </c>
-      <c r="F8" s="44">
+      <c r="E8" s="28">
         <v>0.45639999999999997</v>
       </c>
-      <c r="G8" s="44">
+      <c r="F8" s="28">
         <v>0.43070000000000003</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="46" t="s">
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="32">
+      <c r="D9" s="19">
         <v>0.61439999999999995</v>
       </c>
-      <c r="F9" s="32">
+      <c r="E9" s="19">
         <v>0.60750000000000004</v>
       </c>
-      <c r="G9" s="32">
+      <c r="F9" s="19">
         <v>0.58599999999999997</v>
       </c>
-      <c r="H9" s="32">
+      <c r="G9" s="19">
         <v>0.41760000000000003</v>
       </c>
-      <c r="I9" s="33">
+      <c r="H9" s="20">
         <v>0.4854</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="47" t="s">
+    <row r="10" spans="1:8" ht="24" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="38">
+      <c r="D10" s="6">
         <v>0.46</v>
       </c>
-      <c r="F10" s="38">
+      <c r="E10" s="6">
         <v>0.3291</v>
       </c>
-      <c r="G10" s="38">
+      <c r="F10" s="6">
         <v>0.30159999999999998</v>
       </c>
-      <c r="H10" s="38">
+      <c r="G10" s="6">
         <v>0.38390000000000002</v>
       </c>
-      <c r="I10" s="39">
+      <c r="H10" s="23">
         <v>0.43740000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="47" t="s">
+    <row r="11" spans="1:8" ht="24" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="37" t="s">
+      <c r="C11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="38">
+      <c r="D11" s="6">
         <v>0.38159999999999999</v>
       </c>
-      <c r="F11" s="38">
+      <c r="E11" s="6">
         <v>0.2747</v>
       </c>
-      <c r="G11" s="38">
+      <c r="F11" s="6">
         <v>0.2424</v>
       </c>
-      <c r="H11" s="38">
+      <c r="G11" s="6">
         <v>0.3891</v>
       </c>
-      <c r="I11" s="39">
+      <c r="H11" s="23">
         <v>0.4592</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="47" t="s">
+    <row r="12" spans="1:8" ht="24" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="38">
+      <c r="D12" s="6">
         <v>0.32400000000000001</v>
       </c>
-      <c r="F12" s="38">
+      <c r="E12" s="6">
         <v>0.25569999999999998</v>
       </c>
-      <c r="G12" s="38">
+      <c r="F12" s="6">
         <v>0.2049</v>
       </c>
-      <c r="H12" s="38">
+      <c r="G12" s="6">
         <v>0.34410000000000002</v>
       </c>
-      <c r="I12" s="39">
+      <c r="H12" s="23">
         <v>0.38469999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="47" t="s">
+    <row r="13" spans="1:8" ht="24" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="38">
+      <c r="D13" s="6">
         <v>0.45779999999999998</v>
       </c>
-      <c r="F13" s="38">
+      <c r="E13" s="6">
         <v>0.3427</v>
       </c>
-      <c r="G13" s="38">
+      <c r="F13" s="6">
         <v>0.30130000000000001</v>
       </c>
-      <c r="H13" s="38">
+      <c r="G13" s="6">
         <v>0.3861</v>
       </c>
-      <c r="I13" s="39">
+      <c r="H13" s="23">
         <v>0.43809999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
-      <c r="A14" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="48" t="s">
+    <row r="14" spans="1:8" ht="24" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="44">
+      <c r="D14" s="28">
         <v>0.42049999999999998</v>
       </c>
-      <c r="F14" s="44">
+      <c r="E14" s="28">
         <v>0.31790000000000002</v>
       </c>
-      <c r="G14" s="44">
+      <c r="F14" s="28">
         <v>0.29599999999999999</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="49" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="24" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="32">
+      <c r="D15" s="19">
         <v>0.4471</v>
       </c>
-      <c r="F15" s="32">
+      <c r="E15" s="19">
         <v>0.30559999999999998</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-    </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1">
-      <c r="A16" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="38">
+      <c r="D16" s="6">
         <v>0.5736</v>
       </c>
-      <c r="F16" s="38">
+      <c r="E16" s="6">
         <v>0.46650000000000003</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1">
-      <c r="A17" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="38">
+      <c r="D17" s="6">
         <v>0.56299999999999994</v>
       </c>
-      <c r="F17" s="38">
+      <c r="E17" s="6">
         <v>0.4929</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1">
-      <c r="A18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="50" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="38">
+      <c r="D18" s="6">
         <v>0.55130000000000001</v>
       </c>
-      <c r="F18" s="38">
+      <c r="E18" s="6">
         <v>0.39939999999999998</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
-    </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="50" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" customHeight="1">
+      <c r="A19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="38">
+      <c r="D19" s="6">
         <v>0.5534</v>
       </c>
-      <c r="F19" s="38">
+      <c r="E19" s="6">
         <v>0.3906</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1">
-      <c r="A20" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="51" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" ht="24" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="44">
+      <c r="D20" s="28">
         <v>0.5323</v>
       </c>
-      <c r="F20" s="44">
+      <c r="E20" s="28">
         <v>0.36859999999999998</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-    </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="52" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="32">
+      <c r="D21" s="19">
         <v>0.66490000000000005</v>
       </c>
-      <c r="F21" s="32">
+      <c r="E21" s="19">
         <v>0.69430000000000003</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
         <v>0.45519999999999999</v>
       </c>
-      <c r="I21" s="33">
+      <c r="H21" s="20">
         <v>0.51329999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="53" t="s">
+    <row r="22" spans="1:8" ht="24" customHeight="1">
+      <c r="A22" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="37" t="s">
+      <c r="C22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="38">
+      <c r="D22" s="6">
         <v>0.57469999999999999</v>
       </c>
-      <c r="F22" s="38">
+      <c r="E22" s="6">
         <v>0.4178</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
         <v>0.4456</v>
       </c>
-      <c r="I22" s="39">
+      <c r="H22" s="23">
         <v>0.47649999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="53" t="s">
+    <row r="23" spans="1:8" ht="24" customHeight="1">
+      <c r="A23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="38">
+      <c r="D23" s="6">
         <v>0.62360000000000004</v>
       </c>
-      <c r="F23" s="38">
+      <c r="E23" s="6">
         <v>0.47349999999999998</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>0.43809999999999999</v>
       </c>
-      <c r="I23" s="39">
+      <c r="H23" s="23">
         <v>0.49530000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="24" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="53" t="s">
+    <row r="24" spans="1:8" ht="24" customHeight="1">
+      <c r="A24" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="37" t="s">
+      <c r="C24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="38">
+      <c r="D24" s="6">
         <v>0.65820000000000001</v>
       </c>
-      <c r="F24" s="38">
+      <c r="E24" s="6">
         <v>0.5111</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>0.4355</v>
       </c>
-      <c r="I24" s="39">
+      <c r="H24" s="23">
         <v>0.4627</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="24" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="53" t="s">
+    <row r="25" spans="1:8" ht="24" customHeight="1">
+      <c r="A25" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="37" t="s">
+      <c r="C25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="38">
+      <c r="D25" s="6">
         <v>0.63329999999999997</v>
       </c>
-      <c r="F25" s="38">
+      <c r="E25" s="6">
         <v>0.52349999999999997</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>0.437</v>
       </c>
-      <c r="I25" s="39"/>
-    </row>
-    <row r="26" spans="1:9" ht="24" customHeight="1">
-      <c r="A26" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="54" t="s">
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" ht="24" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="43" t="s">
+      <c r="C26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="62">
+      <c r="D26" s="43">
         <v>0.26889999999999997</v>
       </c>
-      <c r="F26" s="62">
+      <c r="E26" s="43">
         <v>0.254</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" ht="24" customHeight="1"/>
-    <row r="28" spans="1:9" ht="24" customHeight="1"/>
-    <row r="29" spans="1:9" ht="24" customHeight="1"/>
-    <row r="30" spans="1:9" ht="24" customHeight="1"/>
-    <row r="31" spans="1:9" ht="24" customHeight="1"/>
-    <row r="32" spans="1:9" ht="24" customHeight="1"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:8" ht="24" customHeight="1">
+      <c r="A27" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.45540000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="24" customHeight="1">
+      <c r="A28" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.51380000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="24" customHeight="1">
+      <c r="A29" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.35189999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="24" customHeight="1">
+      <c r="A30" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.60970000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="24" customHeight="1">
+      <c r="A31" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.46960000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="24" customHeight="1">
+      <c r="A32" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
     <row r="33" ht="24" customHeight="1"/>
     <row r="34" ht="24" customHeight="1"/>
     <row r="35" ht="24" customHeight="1"/>
@@ -7588,10 +6225,11 @@
     <row r="140" ht="24" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/experiments/data/mmlu_sta_0329.xlsx
+++ b/experiments/data/mmlu_sta_0329.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5713F90-ED60-BC4E-A3BA-0BA9D07BDE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CFF7AD-D578-E44E-B0B7-E0D982C56110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_mmlu_sta" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="121">
   <si>
     <t>college_biology</t>
   </si>
@@ -428,10 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>remove_issues_by_annotation_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>after_phase_1_mmlu_pro_accu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,6 +436,18 @@
   </si>
   <si>
     <t>llama3_8b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_phase_1_ann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_phase_2_ann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosophy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,29 +836,23 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,13 +1214,13 @@
       <c r="B2" s="1">
         <v>144</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="49">
         <v>454</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="49">
         <v>229</v>
       </c>
     </row>
@@ -1229,9 +1231,9 @@
       <c r="B3" s="1">
         <v>310</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -1240,13 +1242,13 @@
       <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="51">
         <v>437</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="51">
         <v>174</v>
       </c>
     </row>
@@ -1257,9 +1259,9 @@
       <c r="B5" s="1">
         <v>103</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -1268,9 +1270,9 @@
       <c r="B6" s="1">
         <v>234</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1279,13 +1281,13 @@
       <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="51">
         <v>303</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="51">
         <v>222</v>
       </c>
     </row>
@@ -1296,9 +1298,9 @@
       <c r="B8" s="1">
         <v>203</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -1307,13 +1309,13 @@
       <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="51">
         <v>412</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="51">
         <v>285</v>
       </c>
     </row>
@@ -1324,9 +1326,9 @@
       <c r="B10" s="1">
         <v>100</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -1335,9 +1337,9 @@
       <c r="B11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -1346,9 +1348,9 @@
       <c r="B12" s="1">
         <v>112</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -1357,13 +1359,13 @@
       <c r="B13" s="1">
         <v>131</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="51">
         <v>332</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="51">
         <v>121</v>
       </c>
     </row>
@@ -1374,9 +1376,9 @@
       <c r="B14" s="1">
         <v>201</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -1385,13 +1387,13 @@
       <c r="B15" s="1">
         <v>114</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="51">
         <v>742</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="51">
         <v>467</v>
       </c>
     </row>
@@ -1402,9 +1404,9 @@
       <c r="B16" s="1">
         <v>390</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
@@ -1413,9 +1415,9 @@
       <c r="B17" s="1">
         <v>238</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
@@ -1458,13 +1460,13 @@
       <c r="B20" s="1">
         <v>135</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="51">
         <v>1562</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="51">
         <v>881</v>
       </c>
     </row>
@@ -1475,9 +1477,9 @@
       <c r="B21" s="1">
         <v>187</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
@@ -1486,9 +1488,9 @@
       <c r="B22" s="1">
         <v>173</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -1497,9 +1499,9 @@
       <c r="B23" s="1">
         <v>223</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
@@ -1508,9 +1510,9 @@
       <c r="B24" s="1">
         <v>100</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
@@ -1519,9 +1521,9 @@
       <c r="B25" s="1">
         <v>306</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
@@ -1530,9 +1532,9 @@
       <c r="B26" s="1">
         <v>272</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
@@ -1541,9 +1543,9 @@
       <c r="B27" s="1">
         <v>166</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
@@ -1552,13 +1554,13 @@
       <c r="B28" s="1">
         <v>165</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="51">
         <v>930</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="51">
         <v>404</v>
       </c>
     </row>
@@ -1569,9 +1571,9 @@
       <c r="B29" s="1">
         <v>204</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
@@ -1580,9 +1582,9 @@
       <c r="B30" s="1">
         <v>237</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
@@ -1591,9 +1593,9 @@
       <c r="B31" s="1">
         <v>324</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
@@ -1602,13 +1604,13 @@
       <c r="B32" s="1">
         <v>121</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="51">
         <v>1763</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="51">
         <v>1140</v>
       </c>
     </row>
@@ -1619,9 +1621,9 @@
       <c r="B33" s="1">
         <v>108</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
@@ -1630,9 +1632,9 @@
       <c r="B34" s="1">
         <v>1534</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
@@ -1641,13 +1643,13 @@
       <c r="B35" s="1">
         <v>100</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="51">
         <v>1063</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="51">
         <v>891</v>
       </c>
     </row>
@@ -1658,9 +1660,9 @@
       <c r="B36" s="1">
         <v>100</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
@@ -1669,9 +1671,9 @@
       <c r="B37" s="1">
         <v>377</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
@@ -1680,9 +1682,9 @@
       <c r="B38" s="1">
         <v>270</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
@@ -1691,9 +1693,9 @@
       <c r="B39" s="1">
         <v>216</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
@@ -1702,13 +1704,13 @@
       <c r="B40" s="1">
         <v>100</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="51">
         <v>1165</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="51">
         <v>569</v>
       </c>
     </row>
@@ -1719,9 +1721,9 @@
       <c r="B41" s="1">
         <v>783</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
@@ -1730,9 +1732,9 @@
       <c r="B42" s="1">
         <v>282</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
@@ -1741,13 +1743,13 @@
       <c r="B43" s="1">
         <v>126</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="51">
         <v>2012</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="51">
         <v>1248</v>
       </c>
     </row>
@@ -1758,9 +1760,9 @@
       <c r="B44" s="1">
         <v>163</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
@@ -1769,9 +1771,9 @@
       <c r="B45" s="1">
         <v>346</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
@@ -1780,9 +1782,9 @@
       <c r="B46" s="1">
         <v>895</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
@@ -1791,9 +1793,9 @@
       <c r="B47" s="1">
         <v>311</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
@@ -1802,9 +1804,9 @@
       <c r="B48" s="1">
         <v>171</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
@@ -1813,13 +1815,13 @@
       <c r="B49" s="1">
         <v>152</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="51">
         <v>629</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="51">
         <v>460</v>
       </c>
     </row>
@@ -1830,9 +1832,9 @@
       <c r="B50" s="1">
         <v>91</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
@@ -1841,9 +1843,9 @@
       <c r="B51" s="1">
         <v>235</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
@@ -1852,9 +1854,9 @@
       <c r="B52" s="1">
         <v>151</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
@@ -1863,13 +1865,13 @@
       <c r="B53" s="1">
         <v>193</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="51">
         <v>645</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="51">
         <v>270</v>
       </c>
     </row>
@@ -1880,9 +1882,9 @@
       <c r="B54" s="1">
         <v>108</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
@@ -1891,9 +1893,9 @@
       <c r="B55" s="1">
         <v>245</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
@@ -1902,9 +1904,9 @@
       <c r="B56" s="1">
         <v>99</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
@@ -1913,13 +1915,13 @@
       <c r="B57" s="1">
         <v>534</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="49">
+      <c r="D57" s="51">
         <v>1145</v>
       </c>
-      <c r="E57" s="49">
+      <c r="E57" s="51">
         <v>521</v>
       </c>
     </row>
@@ -1930,9 +1932,9 @@
       <c r="B58" s="1">
         <v>611</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" s="1">
@@ -1946,20 +1948,21 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C4:C6"/>
@@ -1976,21 +1979,20 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C49:C52"/>
     <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D40:D42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2002,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D0CF6D-85E9-B84E-9705-CA19056656DB}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2015,7 +2017,8 @@
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="42.33203125" customWidth="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="39" customFormat="1" ht="43" customHeight="1">
@@ -2041,7 +2044,10 @@
         <v>104</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
@@ -2069,7 +2075,9 @@
       <c r="H2" s="2">
         <v>748</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>681</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -2096,7 +2104,9 @@
       <c r="H3" s="2">
         <v>824</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>788</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -2123,7 +2133,9 @@
       <c r="H4" s="2">
         <v>1218</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>1122</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -2150,7 +2162,9 @@
       <c r="H5" s="2">
         <v>420</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>398</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -2177,7 +2191,9 @@
       <c r="H6" s="2">
         <v>121</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>108</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -2204,7 +2220,9 @@
       <c r="H7" s="2">
         <v>890</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>813</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -2231,7 +2249,9 @@
       <c r="H8" s="2">
         <v>1010</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>912</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -2258,7 +2278,9 @@
       <c r="H9" s="2">
         <v>79</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -2285,7 +2307,9 @@
       <c r="H10" s="2">
         <v>881</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>692</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -2312,7 +2336,9 @@
       <c r="H11" s="2">
         <v>404</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>378</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -2339,7 +2365,9 @@
       <c r="H12" s="2">
         <v>1140</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>978</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -2366,7 +2394,9 @@
       <c r="H13" s="2">
         <v>1397</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>1356</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -2393,11 +2423,13 @@
       <c r="H14" s="2">
         <v>569</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>552</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2">
         <v>2012</v>
@@ -2420,7 +2452,9 @@
       <c r="H15" s="2">
         <v>559</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>441</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1">
       <c r="A16" s="2" t="s">
@@ -2447,7 +2481,9 @@
       <c r="H16" s="2">
         <v>1386</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>1307</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -2474,7 +2510,9 @@
       <c r="H17" s="2">
         <v>270</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>161</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1">
       <c r="A18" s="2" t="s">
@@ -2501,7 +2539,9 @@
       <c r="H18" s="2">
         <v>841</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>818</v>
+      </c>
     </row>
     <row r="19" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="13" t="s">
@@ -2534,6 +2574,10 @@
       <c r="H19" s="13">
         <f>SUM(H2:H18)</f>
         <v>12757</v>
+      </c>
+      <c r="I19" s="13">
+        <f>SUM(I2:I18)</f>
+        <v>11572</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1">
@@ -5407,7 +5451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66642990-B574-1649-9655-48EDEBCA324A}">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -5450,7 +5494,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>101</v>
@@ -6014,11 +6058,11 @@
       <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1">
-      <c r="A27" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>118</v>
+      <c r="A27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>117</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>92</v>
@@ -6031,11 +6075,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1">
-      <c r="A28" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>118</v>
+      <c r="A28" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>93</v>
@@ -6048,11 +6092,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" customHeight="1">
-      <c r="A29" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>117</v>
+      <c r="A29" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>94</v>
@@ -6065,11 +6109,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" customHeight="1">
-      <c r="A30" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>117</v>
+      <c r="A30" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>95</v>
@@ -6082,11 +6126,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="24" customHeight="1">
-      <c r="A31" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>117</v>
+      <c r="A31" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>96</v>
@@ -6099,11 +6143,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="24" customHeight="1">
-      <c r="A32" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>117</v>
+      <c r="A32" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>97</v>
